--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofia Chardin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofia Chardin\Git\TelecomProyectoFAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="188">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -583,12 +583,15 @@
   <si>
     <t>Gestion Venta de packs Descuento de Saldo</t>
   </si>
+  <si>
+    <t>9900000718810000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -667,11 +670,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -757,7 +755,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -869,20 +867,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2530,7 +2529,7 @@
   <dimension ref="A1:XFD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -52018,7 +52017,7 @@
       </c>
     </row>
     <row r="12" spans="1:16384" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="55" t="s">
         <v>186</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -52074,34 +52073,42 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
     </row>
-    <row r="13" spans="1:16384" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
+    <row r="13" spans="1:16384" s="51" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="E13" s="52"/>
       <c r="F13" s="52"/>
       <c r="G13" s="52"/>
       <c r="H13" s="52"/>
       <c r="I13" s="52"/>
       <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="50"/>
     </row>
     <row r="14" spans="1:16384" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Altas y Nominacion" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="191">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -236,9 +236,6 @@
     <t>Newton</t>
   </si>
   <si>
-    <t>22222001</t>
-  </si>
-  <si>
     <t>123</t>
   </si>
   <si>
@@ -585,6 +582,18 @@
   </si>
   <si>
     <t>1164786972</t>
+  </si>
+  <si>
+    <t>19006577</t>
+  </si>
+  <si>
+    <t>59885133</t>
+  </si>
+  <si>
+    <t>Gestion Anulacion de venta</t>
+  </si>
+  <si>
+    <t>Anulacion De Venta</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1163,7 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1176,7 +1185,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1206,46 +1215,46 @@
         <v>16</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="N1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="Q1" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="W1" s="11" t="s">
-        <v>116</v>
-      </c>
       <c r="X1" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
@@ -1402,7 +1411,7 @@
         <v>52</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
@@ -1438,19 +1447,19 @@
         <v>37</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P5" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="18" t="s">
         <v>44</v>
       </c>
       <c r="R5" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S5" s="32" t="s">
         <v>41</v>
@@ -1468,12 +1477,12 @@
         <v>69</v>
       </c>
       <c r="X5" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -1482,19 +1491,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1517,28 +1526,28 @@
     </row>
     <row r="7" spans="1:26" s="40" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G7" s="32" t="s">
         <v>44</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
@@ -1554,7 +1563,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>2</v>
@@ -1573,7 +1582,7 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
@@ -1597,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>15</v>
@@ -1606,46 +1615,46 @@
         <v>16</v>
       </c>
       <c r="L9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="O9" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="P9" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="Q9" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="R9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="S9" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="R9" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="S9" s="11" t="s">
+      <c r="T9" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="U9" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="V9" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="V9" s="11" t="s">
+      <c r="W9" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="W9" s="11" t="s">
+      <c r="X9" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="X9" s="11" t="s">
-        <v>116</v>
-      </c>
       <c r="Y9" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z9" s="4"/>
     </row>
@@ -1673,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>67</v>
@@ -1695,7 +1704,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" t="s">
@@ -1717,7 +1726,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>67</v>
@@ -1729,25 +1738,25 @@
         <v>36</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>37</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R11" s="18" t="s">
         <v>44</v>
       </c>
       <c r="S11" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T11" s="32" t="s">
         <v>41</v>
@@ -1768,10 +1777,10 @@
     </row>
     <row r="12" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="53" t="s">
         <v>94</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>95</v>
       </c>
       <c r="D12" s="53" t="s">
         <v>70</v>
@@ -1780,16 +1789,16 @@
         <v>11</v>
       </c>
       <c r="F12" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="54" t="s">
         <v>96</v>
-      </c>
-      <c r="G12" s="54" t="s">
-        <v>97</v>
       </c>
       <c r="H12" s="51" t="s">
         <v>2</v>
       </c>
       <c r="I12" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J12" s="51" t="s">
         <v>67</v>
@@ -1812,7 +1821,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
         <v>48</v>
@@ -1833,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>67</v>
@@ -1845,17 +1854,17 @@
         <v>36</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N13" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -1864,22 +1873,22 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>16</v>
@@ -1906,13 +1915,13 @@
         <v>46</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8"/>
@@ -1929,16 +1938,16 @@
     </row>
     <row r="16" spans="1:26" s="40" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" s="56" t="s">
         <v>29</v>
@@ -1959,7 +1968,7 @@
     </row>
     <row r="17" spans="1:26" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
@@ -1980,7 +1989,7 @@
         <v>8</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>15</v>
@@ -1989,13 +1998,13 @@
         <v>16</v>
       </c>
       <c r="K17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="37"/>
@@ -2013,34 +2022,34 @@
     </row>
     <row r="18" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B18" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="47" t="s">
-        <v>83</v>
-      </c>
       <c r="D18" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="53" t="s">
         <v>74</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>75</v>
       </c>
       <c r="F18" s="51" t="s">
         <v>40</v>
       </c>
       <c r="G18" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="H18" s="51" t="s">
+      <c r="I18" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="51" t="s">
+      <c r="J18" s="47" t="s">
         <v>78</v>
-      </c>
-      <c r="J18" s="47" t="s">
-        <v>79</v>
       </c>
       <c r="K18" s="51"/>
       <c r="L18" s="51"/>
@@ -2051,7 +2060,7 @@
     </row>
     <row r="19" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B19" s="47" t="s">
         <v>62</v>
@@ -2072,7 +2081,7 @@
         <v>50</v>
       </c>
       <c r="H19" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I19" s="51" t="s">
         <v>67</v>
@@ -2095,7 +2104,7 @@
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>17</v>
@@ -2125,13 +2134,13 @@
         <v>15</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="37"/>
@@ -2152,7 +2161,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" s="40">
         <v>22222020</v>
@@ -2193,7 +2202,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2216,10 +2225,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2240,7 +2249,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2249,10 +2258,10 @@
         <v>17</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -2284,7 +2293,7 @@
         <v>46534534</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D2" s="31">
         <v>1161138551</v>
@@ -2298,7 +2307,7 @@
         <v>46534534</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E3" s="31">
         <v>1161138552</v>
@@ -2306,63 +2315,63 @@
     </row>
     <row r="4" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" s="29">
         <v>46534534</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>150</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5" s="29">
         <v>46534534</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" s="29">
         <v>46534534</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7" s="29">
         <v>46534534</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
@@ -2403,10 +2412,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>158</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2414,18 +2423,18 @@
         <v>51</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
@@ -2453,7 +2462,7 @@
     </row>
     <row r="12" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="49" t="s">
         <v>63</v>
@@ -2462,7 +2471,7 @@
     </row>
     <row r="13" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="48">
         <v>38452795</v>
@@ -2471,16 +2480,16 @@
     </row>
     <row r="14" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>137</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="5"/>
@@ -2507,7 +2516,7 @@
     </row>
     <row r="15" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15" s="49" t="s">
         <v>63</v>
@@ -2557,7 +2566,7 @@
     </row>
     <row r="17" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>0</v>
@@ -2589,15 +2598,15 @@
     </row>
     <row r="18" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>0</v>
@@ -2629,15 +2638,15 @@
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>0</v>
@@ -2669,15 +2678,51 @@
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="41"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+    </row>
+    <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2689,8 +2734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2704,49 +2749,49 @@
   <sheetData>
     <row r="1" spans="1:27" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>110</v>
-      </c>
       <c r="O1" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
@@ -2763,25 +2808,25 @@
     </row>
     <row r="2" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" s="33" t="s">
+      <c r="F2" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="32" t="s">
         <v>88</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>89</v>
       </c>
       <c r="H2" s="32" t="s">
         <v>41</v>
@@ -2802,7 +2847,7 @@
         <v>21</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O2" s="32" t="s">
         <v>44</v>
@@ -2816,10 +2861,10 @@
         <v>63</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
@@ -2830,25 +2875,25 @@
     </row>
     <row r="4" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H4" s="31">
         <v>1</v>
@@ -2857,7 +2902,7 @@
         <v>2019</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K4" s="31" t="s">
         <v>22</v>
@@ -2866,12 +2911,12 @@
         <v>19784521</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
@@ -2888,10 +2933,10 @@
         <v>32</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="19"/>
@@ -2901,17 +2946,17 @@
         <v>33</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
@@ -2920,40 +2965,40 @@
         <v>17</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="M8" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="N8" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="N8" s="11" t="s">
-        <v>116</v>
-      </c>
       <c r="O8" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -2970,23 +3015,23 @@
     </row>
     <row r="9" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>44</v>
@@ -2994,23 +3039,23 @@
     </row>
     <row r="10" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H10" s="18" t="s">
         <v>44</v>
@@ -3026,7 +3071,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11">
         <v>18766558</v>
@@ -3035,42 +3080,42 @@
         <v>45</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>44</v>
       </c>
       <c r="I11" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="J11" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="K11" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="32" t="s">
         <v>182</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="32" t="s">
-        <v>183</v>
       </c>
       <c r="M11" s="18" t="s">
         <v>22</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
@@ -3079,37 +3124,37 @@
         <v>17</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="F12" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="G12" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="J12" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="K12" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="L12" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="M12" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="M12" s="11" t="s">
-        <v>116</v>
-      </c>
       <c r="N12" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="4"/>
@@ -3127,13 +3172,13 @@
     </row>
     <row r="13" spans="1:27" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>185</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>186</v>
       </c>
       <c r="D13" s="30"/>
       <c r="F13" s="30"/>
@@ -3149,13 +3194,13 @@
     </row>
     <row r="14" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D14" s="30"/>
       <c r="F14" s="30"/>
@@ -3171,28 +3216,28 @@
     </row>
     <row r="15" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G15" s="32" t="s">
         <v>44</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I15" s="32" t="s">
         <v>41</v>
@@ -3210,13 +3255,13 @@
         <v>63</v>
       </c>
       <c r="N15" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O15" s="34"/>
     </row>
     <row r="16" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
@@ -3225,37 +3270,37 @@
         <v>17</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="G16" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H16" s="11" t="s">
+      <c r="I16" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="J16" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="K16" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="L16" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="M16" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="M16" s="11" t="s">
-        <v>116</v>
-      </c>
       <c r="N16" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="4"/>
@@ -3276,10 +3321,10 @@
         <v>25</v>
       </c>
       <c r="B17" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>185</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>186</v>
       </c>
       <c r="D17" s="55"/>
     </row>
@@ -3291,34 +3336,34 @@
         <v>63</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D18" s="55"/>
     </row>
     <row r="19" spans="1:14" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>186</v>
-      </c>
       <c r="D19" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G19" s="32" t="s">
         <v>44</v>
       </c>
       <c r="H19" s="59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I19" s="32" t="s">
         <v>41</v>
@@ -3336,7 +3381,7 @@
         <v>69</v>
       </c>
       <c r="N19" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3363,7 +3408,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Altas y Nominacion" sheetId="8" r:id="rId1"/>
@@ -1163,7 +1163,7 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2025,7 +2025,7 @@
         <v>169</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>82</v>
@@ -2227,7 +2227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -2734,8 +2734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Altas y Nominacion" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="189">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -242,9 +242,6 @@
     <t>Alta Linea Existe OfCom Debito</t>
   </si>
   <si>
-    <t>BBVA BANCO FRANCES SA</t>
-  </si>
-  <si>
     <t>VISA</t>
   </si>
   <si>
@@ -555,9 +552,6 @@
   </si>
   <si>
     <t>packTelefonico</t>
-  </si>
-  <si>
-    <t>3243423</t>
   </si>
   <si>
     <t>Pack 1GB + WhasaApp x 1 día</t>
@@ -758,7 +752,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -873,6 +867,7 @@
     <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1162,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1185,7 +1180,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1215,46 +1210,46 @@
         <v>16</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="N1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="R1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="Q1" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="W1" s="11" t="s">
-        <v>115</v>
-      </c>
       <c r="X1" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
@@ -1411,7 +1406,7 @@
         <v>52</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
@@ -1447,19 +1442,19 @@
         <v>37</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P5" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="18" t="s">
         <v>44</v>
       </c>
       <c r="R5" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S5" s="32" t="s">
         <v>41</v>
@@ -1477,12 +1472,12 @@
         <v>69</v>
       </c>
       <c r="X5" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -1491,19 +1486,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1529,25 +1524,25 @@
         <v>72</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G7" s="32" t="s">
         <v>44</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
@@ -1563,7 +1558,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>2</v>
@@ -1582,7 +1577,7 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
@@ -1606,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>15</v>
@@ -1615,46 +1610,46 @@
         <v>16</v>
       </c>
       <c r="L9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="O9" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="P9" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="Q9" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="R9" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="S9" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="R9" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="S9" s="11" t="s">
+      <c r="T9" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="U9" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="V9" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="V9" s="11" t="s">
+      <c r="W9" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="W9" s="11" t="s">
+      <c r="X9" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="X9" s="11" t="s">
-        <v>115</v>
-      </c>
       <c r="Y9" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z9" s="4"/>
     </row>
@@ -1682,7 +1677,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>67</v>
@@ -1704,7 +1699,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" t="s">
@@ -1726,7 +1721,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>67</v>
@@ -1738,25 +1733,25 @@
         <v>36</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>37</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="18" t="s">
         <v>44</v>
       </c>
       <c r="S11" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T11" s="32" t="s">
         <v>41</v>
@@ -1777,10 +1772,10 @@
     </row>
     <row r="12" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="53" t="s">
         <v>93</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>94</v>
       </c>
       <c r="D12" s="53" t="s">
         <v>70</v>
@@ -1789,16 +1784,16 @@
         <v>11</v>
       </c>
       <c r="F12" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="54" t="s">
         <v>95</v>
-      </c>
-      <c r="G12" s="54" t="s">
-        <v>96</v>
       </c>
       <c r="H12" s="51" t="s">
         <v>2</v>
       </c>
       <c r="I12" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J12" s="51" t="s">
         <v>67</v>
@@ -1821,7 +1816,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
         <v>48</v>
@@ -1842,7 +1837,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>67</v>
@@ -1854,17 +1849,17 @@
         <v>36</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N13" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -1873,22 +1868,22 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>16</v>
@@ -1915,13 +1910,13 @@
         <v>46</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8"/>
@@ -1936,18 +1931,18 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:26" s="40" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>183</v>
+        <v>78</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>182</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16" s="56" t="s">
         <v>29</v>
@@ -1968,7 +1963,7 @@
     </row>
     <row r="17" spans="1:26" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
@@ -1989,7 +1984,7 @@
         <v>8</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>15</v>
@@ -1998,13 +1993,13 @@
         <v>16</v>
       </c>
       <c r="K17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="37"/>
@@ -2022,34 +2017,34 @@
     </row>
     <row r="18" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="53" t="s">
         <v>73</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>74</v>
       </c>
       <c r="F18" s="51" t="s">
         <v>40</v>
       </c>
       <c r="G18" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="H18" s="51" t="s">
+      <c r="I18" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="51" t="s">
+      <c r="J18" s="47" t="s">
         <v>77</v>
-      </c>
-      <c r="J18" s="47" t="s">
-        <v>78</v>
       </c>
       <c r="K18" s="51"/>
       <c r="L18" s="51"/>
@@ -2060,7 +2055,7 @@
     </row>
     <row r="19" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19" s="47" t="s">
         <v>62</v>
@@ -2081,7 +2076,7 @@
         <v>50</v>
       </c>
       <c r="H19" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I19" s="51" t="s">
         <v>67</v>
@@ -2104,7 +2099,7 @@
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>17</v>
@@ -2134,13 +2129,13 @@
         <v>15</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="37"/>
@@ -2161,7 +2156,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="40">
         <v>22222020</v>
@@ -2202,7 +2197,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2249,7 +2244,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2258,10 +2253,10 @@
         <v>17</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>130</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -2293,7 +2288,7 @@
         <v>46534534</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D2" s="31">
         <v>1161138551</v>
@@ -2307,7 +2302,7 @@
         <v>46534534</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E3" s="31">
         <v>1161138552</v>
@@ -2315,63 +2310,63 @@
     </row>
     <row r="4" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" s="29">
         <v>46534534</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>149</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5" s="29">
         <v>46534534</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B6" s="29">
         <v>46534534</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" s="29">
         <v>46534534</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
@@ -2412,10 +2407,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>157</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2423,18 +2418,18 @@
         <v>51</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
@@ -2462,7 +2457,7 @@
     </row>
     <row r="12" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="49" t="s">
         <v>63</v>
@@ -2471,7 +2466,7 @@
     </row>
     <row r="13" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="48">
         <v>38452795</v>
@@ -2480,16 +2475,16 @@
     </row>
     <row r="14" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="5"/>
@@ -2516,7 +2511,7 @@
     </row>
     <row r="15" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B15" s="49" t="s">
         <v>63</v>
@@ -2566,7 +2561,7 @@
     </row>
     <row r="17" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>0</v>
@@ -2598,15 +2593,15 @@
     </row>
     <row r="18" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>0</v>
@@ -2638,15 +2633,15 @@
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>0</v>
@@ -2678,15 +2673,15 @@
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>0</v>
@@ -2718,10 +2713,10 @@
     </row>
     <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2734,8 +2729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2749,49 +2744,49 @@
   <sheetData>
     <row r="1" spans="1:27" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="O1" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
@@ -2808,25 +2803,25 @@
     </row>
     <row r="2" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="33" t="s">
+      <c r="F2" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="32" t="s">
         <v>87</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>88</v>
       </c>
       <c r="H2" s="32" t="s">
         <v>41</v>
@@ -2847,7 +2842,7 @@
         <v>21</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O2" s="32" t="s">
         <v>44</v>
@@ -2864,7 +2859,7 @@
         <v>71</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
@@ -2875,25 +2870,25 @@
     </row>
     <row r="4" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" s="31">
         <v>1</v>
@@ -2902,7 +2897,7 @@
         <v>2019</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K4" s="31" t="s">
         <v>22</v>
@@ -2911,12 +2906,12 @@
         <v>19784521</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
@@ -2933,10 +2928,10 @@
         <v>32</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="19"/>
@@ -2946,17 +2941,17 @@
         <v>33</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
@@ -2965,40 +2960,40 @@
         <v>17</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="M8" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="N8" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="N8" s="11" t="s">
-        <v>115</v>
-      </c>
       <c r="O8" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -3015,23 +3010,23 @@
     </row>
     <row r="9" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>44</v>
@@ -3039,23 +3034,23 @@
     </row>
     <row r="10" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="18" t="s">
         <v>44</v>
@@ -3071,7 +3066,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B11">
         <v>18766558</v>
@@ -3080,42 +3075,42 @@
         <v>45</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>44</v>
       </c>
       <c r="I11" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="32" t="s">
         <v>180</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="L11" s="32" t="s">
-        <v>182</v>
       </c>
       <c r="M11" s="18" t="s">
         <v>22</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
@@ -3124,37 +3119,37 @@
         <v>17</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="F12" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="G12" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="J12" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="K12" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="L12" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="M12" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="M12" s="11" t="s">
-        <v>115</v>
-      </c>
       <c r="N12" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="4"/>
@@ -3172,13 +3167,13 @@
     </row>
     <row r="13" spans="1:27" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D13" s="30"/>
       <c r="F13" s="30"/>
@@ -3194,13 +3189,13 @@
     </row>
     <row r="14" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D14" s="30"/>
       <c r="F14" s="30"/>
@@ -3216,28 +3211,28 @@
     </row>
     <row r="15" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G15" s="32" t="s">
         <v>44</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I15" s="32" t="s">
         <v>41</v>
@@ -3255,13 +3250,13 @@
         <v>63</v>
       </c>
       <c r="N15" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O15" s="34"/>
     </row>
     <row r="16" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
@@ -3270,37 +3265,37 @@
         <v>17</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="G16" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="H16" s="11" t="s">
+      <c r="I16" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="J16" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="K16" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="L16" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="M16" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="M16" s="11" t="s">
-        <v>115</v>
-      </c>
       <c r="N16" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="4"/>
@@ -3321,10 +3316,10 @@
         <v>25</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D17" s="55"/>
     </row>
@@ -3336,34 +3331,34 @@
         <v>63</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D18" s="55"/>
     </row>
     <row r="19" spans="1:14" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G19" s="32" t="s">
         <v>44</v>
       </c>
       <c r="H19" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I19" s="32" t="s">
         <v>41</v>
@@ -3381,7 +3376,7 @@
         <v>69</v>
       </c>
       <c r="N19" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3408,7 +3403,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="190">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -588,6 +588,9 @@
   </si>
   <si>
     <t>Anulacion De Venta</t>
+  </si>
+  <si>
+    <t>12345670</t>
   </si>
 </sst>
 </file>
@@ -752,7 +755,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -868,6 +871,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1158,12 +1162,12 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="20.109375" customWidth="1"/>
     <col min="4" max="5" width="19.44140625" customWidth="1"/>
@@ -1910,7 +1914,7 @@
         <v>46</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>2</v>
@@ -1936,7 +1940,7 @@
         <v>78</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>2</v>
@@ -2019,9 +2023,7 @@
       <c r="A18" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>181</v>
-      </c>
+      <c r="B18" s="33"/>
       <c r="C18" s="47" t="s">
         <v>81</v>
       </c>
@@ -2194,6 +2196,9 @@
       <c r="N21" s="51"/>
       <c r="O21" s="51"/>
       <c r="P21" s="51"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B23" s="61"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B29" t="s">

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Altas y Nominacion" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="194">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -554,9 +554,6 @@
     <t>packTelefonico</t>
   </si>
   <si>
-    <t>Pack 1GB + WhasaApp x 1 día</t>
-  </si>
-  <si>
     <t>539909999008</t>
   </si>
   <si>
@@ -591,17 +588,39 @@
   </si>
   <si>
     <t>12345670</t>
+  </si>
+  <si>
+    <t>Pack 1GB + WhasApp x 1 día</t>
+  </si>
+  <si>
+    <t>27510998</t>
+  </si>
+  <si>
+    <t>1164591271</t>
+  </si>
+  <si>
+    <t>Delfina Luigi</t>
+  </si>
+  <si>
+    <t>3534251501</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -750,133 +769,215 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1161,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1528,7 +1629,7 @@
         <v>72</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>2</v>
@@ -1562,7 +1663,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>2</v>
@@ -1914,7 +2015,7 @@
         <v>46</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>2</v>
@@ -1940,7 +2041,7 @@
         <v>78</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>2</v>
@@ -2641,7 +2742,7 @@
         <v>160</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2681,12 +2782,12 @@
         <v>162</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>0</v>
@@ -2718,10 +2819,10 @@
     </row>
     <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2734,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3017,23 +3118,25 @@
       <c r="A9" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" s="22" t="s">
+      <c r="C9" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="64" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3041,23 +3144,25 @@
       <c r="A10" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="E10" s="22" t="s">
+      <c r="C10" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="70" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="69" t="s">
         <v>44</v>
       </c>
       <c r="I10" s="25"/>
@@ -3069,49 +3174,64 @@
       <c r="O10" s="16"/>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:27" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="B11">
-        <v>18766558</v>
-      </c>
-      <c r="D11" s="20" t="s">
+      <c r="B11" s="81" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="79" t="s">
+        <v>177</v>
+      </c>
+      <c r="J11" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="K11" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="K11" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="M11" s="18" t="s">
+      <c r="M11" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="16" t="s">
+      <c r="N11" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="O11" s="16" t="s">
-        <v>90</v>
-      </c>
+      <c r="O11" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
     </row>
     <row r="12" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -3175,10 +3295,10 @@
         <v>102</v>
       </c>
       <c r="B13" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>182</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>183</v>
       </c>
       <c r="D13" s="30"/>
       <c r="F13" s="30"/>
@@ -3197,10 +3317,10 @@
         <v>164</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D14" s="30"/>
       <c r="F14" s="30"/>
@@ -3215,49 +3335,65 @@
       <c r="O14" s="34"/>
     </row>
     <row r="15" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="D15" s="30" t="s">
+      <c r="B15" s="89" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="32" t="s">
+      <c r="K15" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="32" t="s">
+      <c r="L15" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="33" t="s">
+      <c r="M15" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="N15" s="34" t="s">
+      <c r="N15" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="O15" s="34"/>
+      <c r="O15" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="85"/>
+      <c r="Z15" s="85"/>
+      <c r="AA15" s="85"/>
     </row>
     <row r="16" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
@@ -3321,10 +3457,10 @@
         <v>25</v>
       </c>
       <c r="B17" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>182</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>183</v>
       </c>
       <c r="D17" s="55"/>
     </row>
@@ -3345,10 +3481,10 @@
         <v>125</v>
       </c>
       <c r="B19" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>182</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>183</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>86</v>

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="195">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Recarga Efectivo</t>
   </si>
   <si>
-    <t>Suspension</t>
-  </si>
-  <si>
     <t>Falsa</t>
   </si>
   <si>
@@ -224,12 +221,6 @@
     <t>0818</t>
   </si>
   <si>
-    <t>Río Negro</t>
-  </si>
-  <si>
-    <t>Bariloche</t>
-  </si>
-  <si>
     <t>22222000</t>
   </si>
   <si>
@@ -263,9 +254,6 @@
     <t>Alta Linea Equip New AG Credito</t>
   </si>
   <si>
-    <t>22222004</t>
-  </si>
-  <si>
     <t>Galaxy S8 - Negro</t>
   </si>
   <si>
@@ -317,9 +305,6 @@
     <t>Recargas TC</t>
   </si>
   <si>
-    <t>22222005</t>
-  </si>
-  <si>
     <t>Modificacion De Datos</t>
   </si>
   <si>
@@ -500,15 +485,9 @@
     <t>|</t>
   </si>
   <si>
-    <t>Gestion Trivias Y Suscripciones</t>
-  </si>
-  <si>
     <t>Trivias Y Suscripciones</t>
   </si>
   <si>
-    <t>Gestion Reintegros</t>
-  </si>
-  <si>
     <t>Reintegros</t>
   </si>
   <si>
@@ -587,22 +566,46 @@
     <t>Anulacion De Venta</t>
   </si>
   <si>
-    <t>12345670</t>
-  </si>
-  <si>
     <t>Pack 1GB + WhasApp x 1 día</t>
   </si>
   <si>
     <t>27510998</t>
   </si>
   <si>
-    <t>1164591271</t>
-  </si>
-  <si>
     <t>Delfina Luigi</t>
   </si>
   <si>
-    <t>3534251501</t>
+    <t>SuspensionOficina</t>
+  </si>
+  <si>
+    <t>ProblemaRecargaQuemada</t>
+  </si>
+  <si>
+    <t>ProblemaRecargaAyD</t>
+  </si>
+  <si>
+    <t>Vicente Lopez</t>
+  </si>
+  <si>
+    <t>5282055</t>
+  </si>
+  <si>
+    <t>Gestion Reintegro</t>
+  </si>
+  <si>
+    <t>Gestion Trivias Y Suscripcion</t>
+  </si>
+  <si>
+    <t>95000222</t>
+  </si>
+  <si>
+    <t>Store Pick Up</t>
+  </si>
+  <si>
+    <t>Centro de Servicio Santa Fe - Juan de Garay 444</t>
+  </si>
+  <si>
+    <t>2475416553</t>
   </si>
 </sst>
 </file>
@@ -775,7 +778,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -890,7 +893,6 @@
     <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -926,9 +928,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -972,6 +971,7 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1263,7 +1263,7 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:F16"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1285,7 +1285,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1315,46 +1315,46 @@
         <v>16</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="N1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="T1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="Q1" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="R1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="S1" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>114</v>
-      </c>
       <c r="X1" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
@@ -1364,10 +1364,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1385,19 +1385,19 @@
         <v>2</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="K2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="M2" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>28</v>
@@ -1435,19 +1435,19 @@
         <v>2</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="K3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="M3" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="9"/>
@@ -1458,13 +1458,13 @@
         <v>27</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>54</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -1479,19 +1479,19 @@
         <v>2</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="K4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="M4" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>28</v>
@@ -1508,16 +1508,16 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
         <v>56</v>
-      </c>
-      <c r="D5" t="s">
-        <v>57</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1526,7 +1526,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>2</v>
@@ -1535,54 +1535,54 @@
         <v>14</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="M5" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P5" s="22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R5" s="25" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="S5" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="32" t="s">
+      <c r="U5" s="32" t="s">
         <v>42</v>
-      </c>
-      <c r="U5" s="32" t="s">
-        <v>43</v>
       </c>
       <c r="V5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="W5" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="X5" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1624,30 +1624,30 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" s="40" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>180</v>
+        <v>69</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>188</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
@@ -1658,12 +1658,12 @@
       <c r="O7" s="51"/>
       <c r="P7" s="51"/>
     </row>
-    <row r="8" spans="1:26" s="40" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="55" t="s">
-        <v>180</v>
+      <c r="B8" s="88" t="s">
+        <v>188</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>2</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>15</v>
@@ -1715,59 +1715,59 @@
         <v>16</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="O9" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="U9" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="V9" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="W9" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="R9" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="S9" s="11" t="s">
+      <c r="X9" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="T9" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="V9" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="W9" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="X9" s="11" t="s">
-        <v>114</v>
-      </c>
       <c r="Y9" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
         <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -1776,42 +1776,42 @@
         <v>13</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>2</v>
       </c>
       <c r="I10" s="47" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="L10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="N10" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
         <v>60</v>
-      </c>
-      <c r="D11" t="s">
-        <v>61</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -1820,91 +1820,91 @@
         <v>13</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>2</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="L11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="N11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="O11" s="22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="R11" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S11" s="25" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="T11" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="U11" s="32" t="s">
+      <c r="V11" s="32" t="s">
         <v>42</v>
-      </c>
-      <c r="V11" s="32" t="s">
-        <v>43</v>
       </c>
       <c r="W11" s="18" t="s">
         <v>22</v>
       </c>
       <c r="X11" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Y11" s="16"/>
     </row>
     <row r="12" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E12" s="53" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G12" s="54" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H12" s="51" t="s">
         <v>2</v>
       </c>
       <c r="I12" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" s="51" t="s">
-        <v>68</v>
+        <v>92</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="L12" s="47"/>
       <c r="M12" s="51"/>
@@ -1921,13 +1921,13 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
         <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -1936,35 +1936,35 @@
         <v>13</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>2</v>
       </c>
       <c r="I13" s="47" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>68</v>
+        <v>14</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="N13" s="38" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>16</v>
@@ -2010,18 +2010,18 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="88" t="s">
         <v>188</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8"/>
@@ -2038,16 +2038,16 @@
     </row>
     <row r="16" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="88" t="s">
         <v>188</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E16" s="56" t="s">
         <v>29</v>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="17" spans="1:26" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
@@ -2089,7 +2089,7 @@
         <v>8</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>15</v>
@@ -2098,13 +2098,13 @@
         <v>16</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="37"/>
@@ -2122,32 +2122,34 @@
     </row>
     <row r="18" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="B18" s="33"/>
+        <v>161</v>
+      </c>
+      <c r="B18" s="88" t="s">
+        <v>188</v>
+      </c>
       <c r="C18" s="47" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E18" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="47" t="s">
+      <c r="J18" s="47" t="s">
         <v>74</v>
-      </c>
-      <c r="H18" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="J18" s="47" t="s">
-        <v>77</v>
       </c>
       <c r="K18" s="51"/>
       <c r="L18" s="51"/>
@@ -2158,16 +2160,16 @@
     </row>
     <row r="19" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="40" t="s">
         <v>48</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>49</v>
       </c>
       <c r="E19" s="40" t="s">
         <v>11</v>
@@ -2176,25 +2178,25 @@
         <v>13</v>
       </c>
       <c r="G19" s="54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H19" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" s="51" t="s">
-        <v>68</v>
+        <v>77</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="K19" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="51" t="s">
-        <v>37</v>
-      </c>
       <c r="M19" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N19" s="51"/>
       <c r="O19" s="51"/>
@@ -2202,7 +2204,7 @@
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>17</v>
@@ -2232,13 +2234,13 @@
         <v>15</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="37"/>
@@ -2259,7 +2261,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C21" s="40">
         <v>22222020</v>
@@ -2279,31 +2281,34 @@
       <c r="H21" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="J21" s="51" t="s">
-        <v>68</v>
+      <c r="I21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="K21" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="L21" s="51" t="s">
-        <v>37</v>
-      </c>
       <c r="M21" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N21" s="51"/>
       <c r="O21" s="51"/>
       <c r="P21" s="51"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B23" s="61"/>
+      <c r="B23" s="60"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B25" s="88"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2326,10 +2331,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2350,7 +2355,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2359,10 +2364,10 @@
         <v>17</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -2394,7 +2399,7 @@
         <v>46534534</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D2" s="31">
         <v>1161138551</v>
@@ -2408,7 +2413,7 @@
         <v>46534534</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E3" s="31">
         <v>1161138552</v>
@@ -2416,63 +2421,63 @@
     </row>
     <row r="4" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B4" s="29">
         <v>46534534</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B5" s="29">
         <v>46534534</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B6" s="29">
         <v>46534534</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B7" s="29">
         <v>46534534</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
@@ -2504,38 +2509,38 @@
     </row>
     <row r="9" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>35</v>
+        <v>184</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
@@ -2563,16 +2568,16 @@
     </row>
     <row r="12" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="21"/>
     </row>
     <row r="13" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B13" s="48">
         <v>38452795</v>
@@ -2581,16 +2586,16 @@
     </row>
     <row r="14" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="5"/>
@@ -2617,16 +2622,16 @@
     </row>
     <row r="15" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>65</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>66</v>
       </c>
       <c r="E15" s="43"/>
       <c r="F15" s="44"/>
@@ -2651,63 +2656,91 @@
       <c r="Y15" s="45"/>
       <c r="Z15" s="45"/>
     </row>
-    <row r="16" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+    <row r="16" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="D16" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="43"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+    </row>
+    <row r="17" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+    </row>
+    <row r="18" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-    </row>
-    <row r="18" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>173</v>
-      </c>
+      <c r="B18" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>0</v>
@@ -2737,17 +2770,17 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>185</v>
+    <row r="20" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>0</v>
@@ -2779,15 +2812,15 @@
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>0</v>
@@ -2819,10 +2852,50 @@
     </row>
     <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B24" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+    </row>
+    <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>180</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2835,8 +2908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2844,55 +2917,57 @@
     <col min="1" max="1" width="36.6640625" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
     <col min="5" max="5" width="29.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="K1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>119</v>
       </c>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
@@ -2909,34 +2984,34 @@
     </row>
     <row r="2" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H2" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="J2" s="32" t="s">
         <v>42</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>43</v>
       </c>
       <c r="K2" s="32" t="s">
         <v>22</v>
@@ -2948,10 +3023,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2959,13 +3034,13 @@
         <v>34</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
@@ -2976,25 +3051,25 @@
     </row>
     <row r="4" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="32" t="s">
         <v>85</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>89</v>
       </c>
       <c r="H4" s="31">
         <v>1</v>
@@ -3003,7 +3078,7 @@
         <v>2019</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K4" s="31" t="s">
         <v>22</v>
@@ -3012,12 +3087,12 @@
         <v>19784521</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
@@ -3033,11 +3108,11 @@
       <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>98</v>
+      <c r="B6" s="88" t="s">
+        <v>188</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="19"/>
@@ -3046,18 +3121,18 @@
       <c r="A7" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>80</v>
+      <c r="B7" s="88" t="s">
+        <v>188</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
@@ -3066,40 +3141,40 @@
         <v>17</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="M8" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" s="11" t="s">
+      <c r="N8" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="J8" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>114</v>
-      </c>
       <c r="O8" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -3116,54 +3191,54 @@
     </row>
     <row r="9" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="64" t="s">
-        <v>44</v>
+        <v>167</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="63" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="B10" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>182</v>
-      </c>
-      <c r="D10" s="70" t="s">
-        <v>189</v>
-      </c>
-      <c r="E10" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="69" t="s">
-        <v>44</v>
+      <c r="D10" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="68" t="s">
+        <v>43</v>
       </c>
       <c r="I10" s="25"/>
       <c r="J10" s="32"/>
@@ -3175,67 +3250,67 @@
       <c r="P10" s="17"/>
     </row>
     <row r="11" spans="1:27" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="78" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11" s="81" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" s="74" t="s">
-        <v>191</v>
-      </c>
-      <c r="D11" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="76" t="s">
+      <c r="A11" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="J11" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="79" t="s">
-        <v>177</v>
-      </c>
-      <c r="J11" s="80" t="s">
-        <v>178</v>
-      </c>
-      <c r="K11" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" s="80" t="s">
-        <v>179</v>
-      </c>
-      <c r="M11" s="75" t="s">
+      <c r="L11" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="M11" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="O11" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="72"/>
-      <c r="X11" s="72"/>
-      <c r="Y11" s="72"/>
-      <c r="Z11" s="72"/>
-      <c r="AA11" s="72"/>
+      <c r="N11" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="O11" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="71"/>
+      <c r="Y11" s="71"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="71"/>
     </row>
     <row r="12" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
@@ -3244,37 +3319,37 @@
         <v>17</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="K12" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="L12" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="M12" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>114</v>
-      </c>
       <c r="N12" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="4"/>
@@ -3292,13 +3367,13 @@
     </row>
     <row r="13" spans="1:27" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D13" s="30"/>
       <c r="F13" s="30"/>
@@ -3314,13 +3389,13 @@
     </row>
     <row r="14" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D14" s="30"/>
       <c r="F14" s="30"/>
@@ -3335,69 +3410,73 @@
       <c r="O14" s="34"/>
     </row>
     <row r="15" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="82" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="89" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="83" t="s">
+      <c r="A15" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="87" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="81" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="84" t="s">
+      <c r="H15" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="M15" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q15" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="R15" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="85" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="84" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="87" t="s">
-        <v>63</v>
-      </c>
-      <c r="N15" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="O15" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="85"/>
-      <c r="T15" s="85"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="85"/>
-      <c r="X15" s="85"/>
-      <c r="Y15" s="85"/>
-      <c r="Z15" s="85"/>
-      <c r="AA15" s="85"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="83"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="83"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="83"/>
+      <c r="Z15" s="83"/>
+      <c r="AA15" s="83"/>
     </row>
     <row r="16" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
@@ -3406,37 +3485,37 @@
         <v>17</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="K16" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="L16" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" s="11" t="s">
+      <c r="M16" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>114</v>
-      </c>
       <c r="N16" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="4"/>
@@ -3457,10 +3536,10 @@
         <v>25</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D17" s="55"/>
     </row>
@@ -3469,55 +3548,55 @@
         <v>26</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D18" s="55"/>
     </row>
     <row r="19" spans="1:14" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="58" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19" s="59" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I19" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="K19" s="32" t="s">
         <v>42</v>
-      </c>
-      <c r="K19" s="32" t="s">
-        <v>43</v>
       </c>
       <c r="L19" s="32" t="s">
         <v>22</v>
       </c>
       <c r="M19" s="28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N19" s="28" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3544,7 +3623,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Altas y Nominacion" sheetId="8" r:id="rId1"/>
@@ -2333,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2580,7 +2580,7 @@
         <v>79</v>
       </c>
       <c r="B13" s="48">
-        <v>38452795</v>
+        <v>19236577</v>
       </c>
       <c r="E13" s="24"/>
     </row>
@@ -2908,7 +2908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Altas y Nominacion" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="198">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -551,9 +551,6 @@
     <t>3413105403</t>
   </si>
   <si>
-    <t>1164786972</t>
-  </si>
-  <si>
     <t>19006577</t>
   </si>
   <si>
@@ -606,13 +603,25 @@
   </si>
   <si>
     <t>2475416553</t>
+  </si>
+  <si>
+    <t>2475416658</t>
+  </si>
+  <si>
+    <t>22222025</t>
+  </si>
+  <si>
+    <t>Amigos Letras</t>
+  </si>
+  <si>
+    <t>2222203</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -701,6 +710,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -778,7 +807,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -972,6 +1001,17 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1262,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1388,7 +1428,7 @@
         <v>14</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>35</v>
@@ -1438,7 +1478,7 @@
         <v>14</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>35</v>
@@ -1481,8 +1521,8 @@
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>187</v>
+      <c r="J4" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>35</v>
@@ -1628,8 +1668,8 @@
       <c r="A7" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="88" t="s">
-        <v>188</v>
+      <c r="B7" s="93" t="s">
+        <v>197</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>2</v>
@@ -1662,8 +1702,8 @@
       <c r="A8" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="88" t="s">
-        <v>188</v>
+      <c r="B8" s="93" t="s">
+        <v>197</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>2</v>
@@ -1788,7 +1828,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>35</v>
@@ -1822,58 +1862,60 @@
       <c r="G11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="47" t="s">
+      <c r="H11" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="K11" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="M11" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="N11" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="O11" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="O11" s="22" t="s">
+      <c r="P11" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="P11" s="20" t="s">
+      <c r="Q11" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="Q11" s="22" t="s">
+      <c r="R11" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="R11" s="18" t="s">
+      <c r="S11" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="S11" s="25" t="s">
+      <c r="T11" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="T11" s="32" t="s">
+      <c r="U11" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="U11" s="32" t="s">
+      <c r="V11" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="V11" s="32" t="s">
+      <c r="W11" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="W11" s="18" t="s">
+      <c r="X11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="X11" s="16" t="s">
+      <c r="Y11" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="Y11" s="16"/>
     </row>
     <row r="12" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
@@ -1904,7 +1946,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L12" s="47"/>
       <c r="M12" s="51"/>
@@ -1948,7 +1990,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>35</v>
@@ -2015,7 +2057,7 @@
         <v>45</v>
       </c>
       <c r="B15" s="88" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>2</v>
@@ -2041,7 +2083,7 @@
         <v>75</v>
       </c>
       <c r="B16" s="88" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>2</v>
@@ -2125,7 +2167,7 @@
         <v>161</v>
       </c>
       <c r="B18" s="88" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>77</v>
@@ -2187,7 +2229,7 @@
         <v>14</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K19" s="47" t="s">
         <v>35</v>
@@ -2285,7 +2327,7 @@
         <v>14</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K21" s="51" t="s">
         <v>35</v>
@@ -2331,10 +2373,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2447,7 +2489,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" s="83" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>148</v>
       </c>
@@ -2460,6 +2502,7 @@
       <c r="D6" s="32" t="s">
         <v>146</v>
       </c>
+      <c r="E6" s="84"/>
     </row>
     <row r="7" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
@@ -2475,198 +2518,173 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="81">
+        <v>46534534</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-    </row>
-    <row r="9" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+    </row>
+    <row r="10" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D10" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E10" s="20" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+    <row r="11" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="50" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="50" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="21"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="21"/>
+    </row>
+    <row r="14" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B14" s="48">
         <v>19236577</v>
       </c>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-    </row>
-    <row r="15" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="B16" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E16" s="43"/>
@@ -2694,7 +2712,7 @@
     </row>
     <row r="17" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B17" s="49" t="s">
         <v>62</v>
@@ -2728,173 +2746,209 @@
       <c r="Y17" s="45"/>
       <c r="Z17" s="45"/>
     </row>
-    <row r="18" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>63</v>
+    <row r="18" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="42" t="s">
+        <v>185</v>
       </c>
       <c r="B18" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="C18" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+    </row>
+    <row r="19" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-    </row>
-    <row r="20" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+    </row>
+    <row r="21" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B21" s="18" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B21" s="3" t="s">
+    <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-    </row>
-    <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+    </row>
+    <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B23" s="41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+    </row>
+    <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-    </row>
-    <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+    </row>
+    <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-    </row>
-    <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="B27" s="9" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2908,8 +2962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3109,7 +3163,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="88" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>95</v>
@@ -3122,7 +3176,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="88" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>110</v>
@@ -3194,13 +3248,13 @@
         <v>167</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E9" s="65" t="s">
         <v>82</v>
@@ -3220,13 +3274,13 @@
         <v>168</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="D10" s="69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E10" s="70" t="s">
         <v>82</v>
@@ -3254,10 +3308,10 @@
         <v>169</v>
       </c>
       <c r="B11" s="79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D11" s="74" t="s">
         <v>44</v>
@@ -3293,7 +3347,7 @@
         <v>150</v>
       </c>
       <c r="O11" s="72" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P11" s="71"/>
       <c r="Q11" s="71"/>
@@ -3391,11 +3445,11 @@
       <c r="A14" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>176</v>
+      <c r="B14" s="72" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>194</v>
       </c>
       <c r="D14" s="30"/>
       <c r="F14" s="30"/>
@@ -3414,13 +3468,13 @@
         <v>96</v>
       </c>
       <c r="B15" s="87" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C15" s="81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>29</v>
@@ -3429,7 +3483,7 @@
         <v>30</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H15" s="82" t="s">
         <v>82</v>

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="197">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -435,9 +435,6 @@
   </si>
   <si>
     <t>1544</t>
-  </si>
-  <si>
-    <t>666</t>
   </si>
   <si>
     <t>Calle</t>
@@ -1302,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1355,13 +1352,13 @@
         <v>16</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="N1" s="10" t="s">
         <v>101</v>
@@ -1428,7 +1425,7 @@
         <v>14</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>35</v>
@@ -1478,7 +1475,7 @@
         <v>14</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>35</v>
@@ -1640,7 +1637,7 @@
         <v>103</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>129</v>
@@ -1669,7 +1666,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>2</v>
@@ -1681,7 +1678,7 @@
         <v>115</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G7" s="32" t="s">
         <v>43</v>
@@ -1703,7 +1700,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>2</v>
@@ -1746,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>15</v>
@@ -1755,13 +1752,13 @@
         <v>16</v>
       </c>
       <c r="L9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="O9" s="10" t="s">
         <v>101</v>
@@ -1828,7 +1825,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>35</v>
@@ -1875,7 +1872,7 @@
         <v>14</v>
       </c>
       <c r="L11" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M11" s="39" t="s">
         <v>35</v>
@@ -1946,7 +1943,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L12" s="47"/>
       <c r="M12" s="51"/>
@@ -1990,16 +1987,16 @@
         <v>14</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="N13" s="38" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
@@ -2015,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>101</v>
@@ -2027,7 +2024,7 @@
         <v>103</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>129</v>
@@ -2056,8 +2053,8 @@
       <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="88" t="s">
-        <v>187</v>
+      <c r="B15" s="93" t="s">
+        <v>196</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>2</v>
@@ -2082,8 +2079,8 @@
       <c r="A16" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="88" t="s">
-        <v>187</v>
+      <c r="B16" s="93" t="s">
+        <v>196</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>2</v>
@@ -2110,7 +2107,7 @@
     </row>
     <row r="17" spans="1:26" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
@@ -2131,7 +2128,7 @@
         <v>8</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>15</v>
@@ -2140,13 +2137,13 @@
         <v>16</v>
       </c>
       <c r="K17" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="37"/>
@@ -2164,10 +2161,10 @@
     </row>
     <row r="18" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B18" s="88" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>77</v>
@@ -2202,7 +2199,7 @@
     </row>
     <row r="19" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" s="47" t="s">
         <v>61</v>
@@ -2229,7 +2226,7 @@
         <v>14</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K19" s="47" t="s">
         <v>35</v>
@@ -2246,7 +2243,7 @@
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>17</v>
@@ -2276,13 +2273,13 @@
         <v>15</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="37"/>
@@ -2303,7 +2300,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C21" s="40">
         <v>22222020</v>
@@ -2327,7 +2324,7 @@
         <v>14</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K21" s="51" t="s">
         <v>35</v>
@@ -2350,7 +2347,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2441,7 +2438,7 @@
         <v>46534534</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="31">
         <v>1161138551</v>
@@ -2455,7 +2452,7 @@
         <v>46534534</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E3" s="31">
         <v>1161138552</v>
@@ -2463,56 +2460,56 @@
     </row>
     <row r="4" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="29">
         <v>46534534</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>143</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="29">
         <v>46534534</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="83" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="29">
         <v>46534534</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6" s="84"/>
     </row>
     <row r="7" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" s="29">
         <v>46534534</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>72</v>
@@ -2520,13 +2517,13 @@
     </row>
     <row r="8" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B8" s="81">
         <v>46534534</v>
       </c>
       <c r="C8" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2563,7 +2560,7 @@
     </row>
     <row r="10" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>62</v>
@@ -2572,10 +2569,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>151</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2583,7 +2580,7 @@
         <v>50</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2676,7 +2673,7 @@
     </row>
     <row r="16" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" s="49" t="s">
         <v>62</v>
@@ -2712,7 +2709,7 @@
     </row>
     <row r="17" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" s="49" t="s">
         <v>62</v>
@@ -2748,7 +2745,7 @@
     </row>
     <row r="18" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18" s="49" t="s">
         <v>62</v>
@@ -2829,12 +2826,12 @@
         <v>94</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
@@ -2866,15 +2863,15 @@
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>0</v>
@@ -2906,15 +2903,15 @@
     </row>
     <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
@@ -2946,10 +2943,10 @@
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3047,7 +3044,7 @@
         <v>81</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>82</v>
@@ -3094,7 +3091,7 @@
         <v>68</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
@@ -3114,7 +3111,7 @@
         <v>81</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>116</v>
@@ -3163,7 +3160,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="88" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>95</v>
@@ -3176,7 +3173,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="88" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>110</v>
@@ -3245,16 +3242,16 @@
     </row>
     <row r="9" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E9" s="65" t="s">
         <v>82</v>
@@ -3271,16 +3268,16 @@
     </row>
     <row r="10" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D10" s="69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E10" s="70" t="s">
         <v>82</v>
@@ -3305,13 +3302,13 @@
     </row>
     <row r="11" spans="1:27" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B11" s="79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D11" s="74" t="s">
         <v>44</v>
@@ -3329,25 +3326,25 @@
         <v>43</v>
       </c>
       <c r="I11" s="77" t="s">
+        <v>169</v>
+      </c>
+      <c r="J11" s="78" t="s">
         <v>170</v>
-      </c>
-      <c r="J11" s="78" t="s">
-        <v>171</v>
       </c>
       <c r="K11" s="78" t="s">
         <v>73</v>
       </c>
       <c r="L11" s="78" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M11" s="73" t="s">
         <v>22</v>
       </c>
       <c r="N11" s="72" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O11" s="72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P11" s="71"/>
       <c r="Q11" s="71"/>
@@ -3424,10 +3421,10 @@
         <v>97</v>
       </c>
       <c r="B13" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>174</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>175</v>
       </c>
       <c r="D13" s="30"/>
       <c r="F13" s="30"/>
@@ -3443,13 +3440,13 @@
     </row>
     <row r="14" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C14" s="67" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D14" s="30"/>
       <c r="F14" s="30"/>
@@ -3468,13 +3465,13 @@
         <v>96</v>
       </c>
       <c r="B15" s="87" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C15" s="81" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>29</v>
@@ -3483,7 +3480,7 @@
         <v>30</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H15" s="82" t="s">
         <v>82</v>
@@ -3590,10 +3587,10 @@
         <v>25</v>
       </c>
       <c r="B17" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>174</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>175</v>
       </c>
       <c r="D17" s="55"/>
     </row>
@@ -3605,7 +3602,7 @@
         <v>62</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" s="55"/>
     </row>
@@ -3614,10 +3611,10 @@
         <v>120</v>
       </c>
       <c r="B19" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>174</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>175</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>82</v>
@@ -3677,7 +3674,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -1299,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofia Chardin\Git\TelecomProyectoFAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Xappia\TelecomProyectoFAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="2835" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Altas y Nominacion" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="198">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -612,6 +612,9 @@
   </si>
   <si>
     <t>2222203</t>
+  </si>
+  <si>
+    <t>1 - CFT %0.0</t>
   </si>
 </sst>
 </file>
@@ -1299,28 +1302,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="5" width="19.44140625" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>132</v>
       </c>
@@ -1396,7 +1399,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1449,7 +1452,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1490,7 +1493,7 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -1543,7 +1546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
@@ -1617,7 +1620,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>133</v>
       </c>
@@ -1661,7 +1664,7 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="53" t="s">
         <v>69</v>
       </c>
@@ -1695,7 +1698,7 @@
       <c r="O7" s="51"/>
       <c r="P7" s="51"/>
     </row>
-    <row r="8" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="53" t="s">
         <v>24</v>
       </c>
@@ -1717,7 +1720,7 @@
       <c r="O8" s="51"/>
       <c r="P8" s="51"/>
     </row>
-    <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>134</v>
       </c>
@@ -1795,7 +1798,7 @@
       </c>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>46</v>
       </c>
@@ -1839,7 +1842,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>76</v>
       </c>
@@ -1914,7 +1917,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="53" t="s">
         <v>88</v>
       </c>
@@ -1958,7 +1961,7 @@
       <c r="V12" s="51"/>
       <c r="W12" s="51"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>78</v>
       </c>
@@ -2001,7 +2004,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>135</v>
       </c>
@@ -2049,7 +2052,7 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
@@ -2075,7 +2078,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
         <v>75</v>
       </c>
@@ -2105,7 +2108,7 @@
       <c r="O16" s="51"/>
       <c r="P16" s="51"/>
     </row>
-    <row r="17" spans="1:26" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>159</v>
       </c>
@@ -2159,7 +2162,7 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="53" t="s">
         <v>160</v>
       </c>
@@ -2197,7 +2200,7 @@
       <c r="O18" s="51"/>
       <c r="P18" s="51"/>
     </row>
-    <row r="19" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="53" t="s">
         <v>161</v>
       </c>
@@ -2241,7 +2244,7 @@
       <c r="O19" s="51"/>
       <c r="P19" s="51"/>
     </row>
-    <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>162</v>
       </c>
@@ -2295,7 +2298,7 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="40" t="s">
         <v>3</v>
       </c>
@@ -2339,13 +2342,13 @@
       <c r="O21" s="51"/>
       <c r="P21" s="51"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B23" s="60"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B25" s="88"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>163</v>
       </c>
@@ -2376,23 +2379,23 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="11.5546875" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="26" width="9.109375" customWidth="1"/>
+    <col min="16" max="26" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
@@ -2430,7 +2433,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>18</v>
       </c>
@@ -2444,7 +2447,7 @@
         <v>1161138551</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>18</v>
       </c>
@@ -2458,7 +2461,7 @@
         <v>1161138552</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>146</v>
       </c>
@@ -2472,7 +2475,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>146</v>
       </c>
@@ -2486,7 +2489,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="83" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" s="83" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>147</v>
       </c>
@@ -2501,7 +2504,7 @@
       </c>
       <c r="E6" s="84"/>
     </row>
-    <row r="7" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>147</v>
       </c>
@@ -2515,7 +2518,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>195</v>
       </c>
@@ -2526,7 +2529,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>125</v>
       </c>
@@ -2558,7 +2561,7 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>182</v>
       </c>
@@ -2575,7 +2578,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>50</v>
       </c>
@@ -2583,7 +2586,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>127</v>
       </c>
@@ -2617,7 +2620,7 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>80</v>
       </c>
@@ -2626,7 +2629,7 @@
       </c>
       <c r="C13" s="21"/>
     </row>
-    <row r="14" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>79</v>
       </c>
@@ -2635,7 +2638,7 @@
       </c>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>128</v>
       </c>
@@ -2671,7 +2674,7 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>155</v>
       </c>
@@ -2707,7 +2710,7 @@
       <c r="Y16" s="45"/>
       <c r="Z16" s="45"/>
     </row>
-    <row r="17" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
         <v>183</v>
       </c>
@@ -2743,7 +2746,7 @@
       <c r="Y17" s="45"/>
       <c r="Z17" s="45"/>
     </row>
-    <row r="18" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>184</v>
       </c>
@@ -2779,7 +2782,7 @@
       <c r="Y18" s="45"/>
       <c r="Z18" s="45"/>
     </row>
-    <row r="19" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>63</v>
       </c>
@@ -2789,7 +2792,7 @@
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
     </row>
-    <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>131</v>
       </c>
@@ -2821,7 +2824,7 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>94</v>
       </c>
@@ -2829,7 +2832,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>188</v>
       </c>
@@ -2861,7 +2864,7 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>153</v>
       </c>
@@ -2869,7 +2872,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>187</v>
       </c>
@@ -2901,7 +2904,7 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>154</v>
       </c>
@@ -2909,7 +2912,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>177</v>
       </c>
@@ -2941,7 +2944,7 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>178</v>
       </c>
@@ -2959,22 +2962,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:G15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>99</v>
       </c>
@@ -3033,7 +3036,7 @@
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
     </row>
-    <row r="2" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>93</v>
       </c>
@@ -3077,10 +3080,10 @@
         <v>87</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>34</v>
       </c>
@@ -3100,7 +3103,7 @@
       <c r="L3" s="32"/>
       <c r="M3" s="32"/>
     </row>
-    <row r="4" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>84</v>
       </c>
@@ -3141,7 +3144,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>111</v>
       </c>
@@ -3155,7 +3158,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
@@ -3168,7 +3171,7 @@
       <c r="D6" s="18"/>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>33</v>
       </c>
@@ -3181,7 +3184,7 @@
       <c r="D7" s="18"/>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>112</v>
       </c>
@@ -3240,7 +3243,7 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
     </row>
-    <row r="9" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>166</v>
       </c>
@@ -3263,10 +3266,10 @@
         <v>87</v>
       </c>
       <c r="H9" s="63" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>167</v>
       </c>
@@ -3289,7 +3292,7 @@
         <v>87</v>
       </c>
       <c r="H10" s="68" t="s">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="I10" s="25"/>
       <c r="J10" s="32"/>
@@ -3300,7 +3303,7 @@
       <c r="O10" s="16"/>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:27" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A11" s="76" t="s">
         <v>168</v>
       </c>
@@ -3323,7 +3326,7 @@
         <v>87</v>
       </c>
       <c r="H11" s="73" t="s">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="I11" s="77" t="s">
         <v>169</v>
@@ -3359,7 +3362,7 @@
       <c r="Z11" s="71"/>
       <c r="AA11" s="71"/>
     </row>
-    <row r="12" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>117</v>
       </c>
@@ -3416,7 +3419,7 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
     </row>
-    <row r="13" spans="1:27" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" s="31" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>97</v>
       </c>
@@ -3438,7 +3441,7 @@
       <c r="N13" s="33"/>
       <c r="O13" s="34"/>
     </row>
-    <row r="14" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>156</v>
       </c>
@@ -3460,7 +3463,7 @@
       <c r="N14" s="33"/>
       <c r="O14" s="34"/>
     </row>
-    <row r="15" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="80" t="s">
         <v>96</v>
       </c>
@@ -3525,7 +3528,7 @@
       <c r="Z15" s="83"/>
       <c r="AA15" s="83"/>
     </row>
-    <row r="16" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>119</v>
       </c>
@@ -3582,7 +3585,7 @@
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
     </row>
-    <row r="17" spans="1:14" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
         <v>25</v>
       </c>
@@ -3594,7 +3597,7 @@
       </c>
       <c r="D17" s="55"/>
     </row>
-    <row r="18" spans="1:14" s="40" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" s="40" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="58" t="s">
         <v>26</v>
       </c>
@@ -3606,7 +3609,7 @@
       </c>
       <c r="D18" s="55"/>
     </row>
-    <row r="19" spans="1:14" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
         <v>120</v>
       </c>
@@ -3650,13 +3653,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
     </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -3672,7 +3675,7 @@
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>152</v>
       </c>

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Altas y Nominacion" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="200">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -612,6 +612,15 @@
   </si>
   <si>
     <t>2222203</t>
+  </si>
+  <si>
+    <t>Gestion Consulta de Saldo</t>
+  </si>
+  <si>
+    <t>SaldoConsulta</t>
+  </si>
+  <si>
+    <t>1 - CFT %0.0</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2370,10 +2379,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2786,7 +2795,9 @@
       <c r="B19" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="18"/>
+      <c r="C19" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2949,6 +2960,46 @@
         <v>172</v>
       </c>
     </row>
+    <row r="28" spans="1:26" s="71" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+    </row>
+    <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29">
+        <v>15907314</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2959,8 +3010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3077,7 +3128,7 @@
         <v>87</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>43</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3586,11 +3637,11 @@
       <c r="A17" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>174</v>
+      <c r="B17" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>148</v>
       </c>
       <c r="D17" s="55"/>
     </row>
@@ -3598,11 +3649,11 @@
       <c r="A18" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>148</v>
+      <c r="B18" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="81" t="s">
+        <v>174</v>
       </c>
       <c r="D18" s="55"/>
     </row>
@@ -3626,7 +3677,7 @@
         <v>87</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="H19" s="59" t="s">
         <v>98</v>
@@ -3672,6 +3723,10 @@
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
     </row>
+    <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="B23" s="28"/>
+      <c r="C23" s="81"/>
+    </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>152</v>

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Altas y Nominacion" sheetId="8" r:id="rId1"/>
@@ -515,9 +515,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>341309797</t>
-  </si>
-  <si>
     <t>10777540</t>
   </si>
   <si>
@@ -621,6 +618,9 @@
   </si>
   <si>
     <t>1 - CFT %0.0</t>
+  </si>
+  <si>
+    <t>9090909090</t>
   </si>
 </sst>
 </file>
@@ -1308,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1434,7 +1434,7 @@
         <v>14</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>35</v>
@@ -1484,7 +1484,7 @@
         <v>14</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>35</v>
@@ -1675,7 +1675,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>2</v>
@@ -1709,7 +1709,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>2</v>
@@ -1834,7 +1834,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>35</v>
@@ -1881,7 +1881,7 @@
         <v>14</v>
       </c>
       <c r="L11" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M11" s="39" t="s">
         <v>35</v>
@@ -1952,7 +1952,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L12" s="47"/>
       <c r="M12" s="51"/>
@@ -1996,7 +1996,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>35</v>
@@ -2063,7 +2063,7 @@
         <v>45</v>
       </c>
       <c r="B15" s="93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>2</v>
@@ -2089,7 +2089,7 @@
         <v>75</v>
       </c>
       <c r="B16" s="93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>2</v>
@@ -2173,7 +2173,7 @@
         <v>160</v>
       </c>
       <c r="B18" s="88" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>77</v>
@@ -2235,7 +2235,7 @@
         <v>14</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K19" s="47" t="s">
         <v>35</v>
@@ -2308,8 +2308,8 @@
       <c r="A21" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="51" t="s">
-        <v>164</v>
+      <c r="B21" s="93" t="s">
+        <v>199</v>
       </c>
       <c r="C21" s="40">
         <v>22222020</v>
@@ -2333,7 +2333,7 @@
         <v>14</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K21" s="51" t="s">
         <v>35</v>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="8" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B8" s="81">
         <v>46534534</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="10" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>62</v>
@@ -2589,7 +2589,7 @@
         <v>50</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2718,7 +2718,7 @@
     </row>
     <row r="17" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B17" s="49" t="s">
         <v>62</v>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="18" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18" s="49" t="s">
         <v>62</v>
@@ -2837,12 +2837,12 @@
         <v>94</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
@@ -2877,12 +2877,12 @@
         <v>153</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>0</v>
@@ -2917,12 +2917,12 @@
         <v>154</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
@@ -2954,15 +2954,15 @@
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:26" s="71" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>0</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29">
         <v>15907314</v>
@@ -3010,7 +3010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3128,7 +3128,7 @@
         <v>87</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3211,7 +3211,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="88" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>95</v>
@@ -3224,7 +3224,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="88" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>110</v>
@@ -3293,16 +3293,16 @@
     </row>
     <row r="9" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E9" s="65" t="s">
         <v>82</v>
@@ -3319,16 +3319,16 @@
     </row>
     <row r="10" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10" s="69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E10" s="70" t="s">
         <v>82</v>
@@ -3353,13 +3353,13 @@
     </row>
     <row r="11" spans="1:27" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B11" s="79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D11" s="74" t="s">
         <v>44</v>
@@ -3377,16 +3377,16 @@
         <v>43</v>
       </c>
       <c r="I11" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="J11" s="78" t="s">
         <v>169</v>
-      </c>
-      <c r="J11" s="78" t="s">
-        <v>170</v>
       </c>
       <c r="K11" s="78" t="s">
         <v>73</v>
       </c>
       <c r="L11" s="78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M11" s="73" t="s">
         <v>22</v>
@@ -3395,7 +3395,7 @@
         <v>149</v>
       </c>
       <c r="O11" s="72" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P11" s="71"/>
       <c r="Q11" s="71"/>
@@ -3472,10 +3472,10 @@
         <v>97</v>
       </c>
       <c r="B13" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>173</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>174</v>
       </c>
       <c r="D13" s="30"/>
       <c r="F13" s="30"/>
@@ -3494,10 +3494,10 @@
         <v>156</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C14" s="67" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D14" s="30"/>
       <c r="F14" s="30"/>
@@ -3516,13 +3516,13 @@
         <v>96</v>
       </c>
       <c r="B15" s="87" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C15" s="81" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>29</v>
@@ -3531,7 +3531,7 @@
         <v>30</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H15" s="82" t="s">
         <v>82</v>
@@ -3650,10 +3650,10 @@
         <v>26</v>
       </c>
       <c r="B18" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="81" t="s">
         <v>173</v>
-      </c>
-      <c r="C18" s="81" t="s">
-        <v>174</v>
       </c>
       <c r="D18" s="55"/>
     </row>
@@ -3662,10 +3662,10 @@
         <v>120</v>
       </c>
       <c r="B19" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>173</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>174</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>82</v>
@@ -3677,7 +3677,7 @@
         <v>87</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H19" s="59" t="s">
         <v>98</v>

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="198">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -470,9 +470,6 @@
     <t>3574409493</t>
   </si>
   <si>
-    <t>18766558</t>
-  </si>
-  <si>
     <t>SAN ISIDRO</t>
   </si>
   <si>
@@ -527,15 +524,6 @@
     <t>packTelefonico</t>
   </si>
   <si>
-    <t>539909999008</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
     <t>38452795</t>
   </si>
   <si>
@@ -560,12 +548,6 @@
     <t>Pack 1GB + WhasApp x 1 día</t>
   </si>
   <si>
-    <t>27510998</t>
-  </si>
-  <si>
-    <t>Delfina Luigi</t>
-  </si>
-  <si>
     <t>SuspensionOficina</t>
   </si>
   <si>
@@ -596,15 +578,6 @@
     <t>Centro de Servicio Santa Fe - Juan de Garay 444</t>
   </si>
   <si>
-    <t>2475416553</t>
-  </si>
-  <si>
-    <t>2475416658</t>
-  </si>
-  <si>
-    <t>22222025</t>
-  </si>
-  <si>
     <t>Amigos Letras</t>
   </si>
   <si>
@@ -620,7 +593,28 @@
     <t>1 - CFT %0.0</t>
   </si>
   <si>
-    <t>9090909090</t>
+    <t>15/02/1985</t>
+  </si>
+  <si>
+    <t>Torrecaida@gmail.com</t>
+  </si>
+  <si>
+    <t>2932442894</t>
+  </si>
+  <si>
+    <t>Patricio</t>
+  </si>
+  <si>
+    <t>De las piedras</t>
+  </si>
+  <si>
+    <t>2932442888</t>
+  </si>
+  <si>
+    <t>42514251</t>
+  </si>
+  <si>
+    <t>15241524</t>
   </si>
 </sst>
 </file>
@@ -813,7 +807,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -935,22 +929,13 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -969,42 +954,29 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1309,7 +1281,7 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1434,7 +1406,7 @@
         <v>14</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>35</v>
@@ -1484,7 +1456,7 @@
         <v>14</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>35</v>
@@ -1646,7 +1618,7 @@
         <v>103</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>129</v>
@@ -1674,8 +1646,8 @@
       <c r="A7" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="93" t="s">
-        <v>195</v>
+      <c r="B7" s="85" t="s">
+        <v>186</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>2</v>
@@ -1687,7 +1659,7 @@
         <v>115</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G7" s="32" t="s">
         <v>43</v>
@@ -1708,8 +1680,8 @@
       <c r="A8" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="93" t="s">
-        <v>195</v>
+      <c r="B8" s="85" t="s">
+        <v>186</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>2</v>
@@ -1834,7 +1806,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>35</v>
@@ -1868,10 +1840,10 @@
       <c r="G11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="83" t="s">
+      <c r="H11" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="83" t="s">
+      <c r="I11" s="76" t="s">
         <v>30</v>
       </c>
       <c r="J11" s="47" t="s">
@@ -1881,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="L11" s="39" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M11" s="39" t="s">
         <v>35</v>
@@ -1892,34 +1864,34 @@
       <c r="O11" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="89" t="s">
+      <c r="P11" s="81" t="s">
         <v>82</v>
       </c>
       <c r="Q11" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="R11" s="89" t="s">
+      <c r="R11" s="81" t="s">
         <v>87</v>
       </c>
       <c r="S11" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="T11" s="90" t="s">
+      <c r="T11" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="U11" s="91" t="s">
+      <c r="U11" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="V11" s="91" t="s">
+      <c r="V11" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="W11" s="91" t="s">
+      <c r="W11" s="83" t="s">
         <v>42</v>
       </c>
       <c r="X11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="Y11" s="92" t="s">
+      <c r="Y11" s="84" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1952,7 +1924,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L12" s="47"/>
       <c r="M12" s="51"/>
@@ -1996,7 +1968,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>35</v>
@@ -2033,7 +2005,7 @@
         <v>103</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>129</v>
@@ -2062,8 +2034,8 @@
       <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="93" t="s">
-        <v>195</v>
+      <c r="B15" s="85" t="s">
+        <v>186</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>2</v>
@@ -2088,8 +2060,8 @@
       <c r="A16" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="93" t="s">
-        <v>195</v>
+      <c r="B16" s="85" t="s">
+        <v>186</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>2</v>
@@ -2116,7 +2088,7 @@
     </row>
     <row r="17" spans="1:26" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
@@ -2170,10 +2142,10 @@
     </row>
     <row r="18" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" s="88" t="s">
-        <v>185</v>
+        <v>159</v>
+      </c>
+      <c r="B18" s="80" t="s">
+        <v>179</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>77</v>
@@ -2208,7 +2180,7 @@
     </row>
     <row r="19" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="47" t="s">
         <v>61</v>
@@ -2235,7 +2207,7 @@
         <v>14</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K19" s="47" t="s">
         <v>35</v>
@@ -2252,7 +2224,7 @@
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>17</v>
@@ -2308,32 +2280,32 @@
       <c r="A21" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="C21" s="40">
-        <v>22222020</v>
+      <c r="B21" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>196</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>9</v>
+        <v>193</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="F21" s="51" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="H21" s="52" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K21" s="51" t="s">
         <v>35</v>
@@ -2352,11 +2324,11 @@
       <c r="B23" s="60"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B25" s="88"/>
+      <c r="B25" s="80"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2342,7 @@
     <hyperlink ref="G11" r:id="rId7"/>
     <hyperlink ref="G12" r:id="rId8"/>
     <hyperlink ref="G19" r:id="rId9"/>
-    <hyperlink ref="H21" r:id="rId10" display="ht@gmail.com"/>
+    <hyperlink ref="H21" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
@@ -2495,7 +2467,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="83" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>147</v>
       </c>
@@ -2508,7 +2480,7 @@
       <c r="D6" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="84"/>
+      <c r="E6" s="77"/>
     </row>
     <row r="7" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
@@ -2526,12 +2498,12 @@
     </row>
     <row r="8" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="B8" s="81">
+        <v>185</v>
+      </c>
+      <c r="B8" s="74">
         <v>46534534</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="74" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2569,7 +2541,7 @@
     </row>
     <row r="10" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>62</v>
@@ -2578,10 +2550,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>150</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2589,7 +2561,7 @@
         <v>50</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2682,7 +2654,7 @@
     </row>
     <row r="16" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" s="49" t="s">
         <v>62</v>
@@ -2718,15 +2690,15 @@
     </row>
     <row r="17" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B17" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="70" t="s">
         <v>65</v>
       </c>
       <c r="E17" s="43"/>
@@ -2754,15 +2726,15 @@
     </row>
     <row r="18" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B18" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="70" t="s">
         <v>65</v>
       </c>
       <c r="E18" s="43"/>
@@ -2837,12 +2809,12 @@
         <v>94</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
@@ -2874,15 +2846,15 @@
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>0</v>
@@ -2914,15 +2886,15 @@
     </row>
     <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
@@ -2954,15 +2926,15 @@
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" s="71" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>0</v>
@@ -2994,10 +2966,10 @@
     </row>
     <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="69" t="s">
         <v>197</v>
-      </c>
-      <c r="B29">
-        <v>15907314</v>
       </c>
     </row>
   </sheetData>
@@ -3011,7 +2983,7 @@
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3088,8 +3060,8 @@
       <c r="A2" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>62</v>
+      <c r="B2" s="69" t="s">
+        <v>197</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>81</v>
@@ -3128,15 +3100,15 @@
         <v>87</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>62</v>
+      <c r="B3" s="69" t="s">
+        <v>197</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>68</v>
@@ -3155,8 +3127,8 @@
       <c r="A4" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>62</v>
+      <c r="B4" s="69" t="s">
+        <v>197</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>81</v>
@@ -3210,8 +3182,8 @@
       <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="88" t="s">
-        <v>185</v>
+      <c r="B6" s="80" t="s">
+        <v>179</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>95</v>
@@ -3223,8 +3195,8 @@
       <c r="A7" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="88" t="s">
-        <v>185</v>
+      <c r="B7" s="80" t="s">
+        <v>179</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>110</v>
@@ -3293,54 +3265,54 @@
     </row>
     <row r="9" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C9" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D9" s="64" t="s">
-        <v>178</v>
-      </c>
-      <c r="E9" s="65" t="s">
+      <c r="D9" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="G9" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="63" t="s">
-        <v>43</v>
+      <c r="H9" s="77" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" s="66" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="D10" s="69" t="s">
-        <v>178</v>
-      </c>
-      <c r="E10" s="70" t="s">
+      <c r="D10" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="69" t="s">
+      <c r="F10" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="68" t="s">
-        <v>43</v>
+      <c r="H10" s="77" t="s">
+        <v>189</v>
       </c>
       <c r="I10" s="25"/>
       <c r="J10" s="32"/>
@@ -3352,63 +3324,63 @@
       <c r="P10" s="17"/>
     </row>
     <row r="11" spans="1:27" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="B11" s="79" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" s="81" t="s">
-        <v>191</v>
-      </c>
-      <c r="D11" s="74" t="s">
+      <c r="A11" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="71" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="74" t="s">
+      <c r="F11" s="77" t="s">
         <v>70</v>
       </c>
       <c r="G11" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="J11" s="78" t="s">
-        <v>169</v>
-      </c>
-      <c r="K11" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" s="78" t="s">
-        <v>170</v>
-      </c>
-      <c r="M11" s="73" t="s">
+      <c r="H11" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="I11" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="O11" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="71"/>
-      <c r="X11" s="71"/>
-      <c r="Y11" s="71"/>
-      <c r="Z11" s="71"/>
-      <c r="AA11" s="71"/>
+      <c r="N11" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="68"/>
     </row>
     <row r="12" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -3471,11 +3443,11 @@
       <c r="A13" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>173</v>
+      <c r="B13" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>192</v>
       </c>
       <c r="D13" s="30"/>
       <c r="F13" s="30"/>
@@ -3491,12 +3463,12 @@
     </row>
     <row r="14" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" s="72" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="74" t="s">
         <v>192</v>
       </c>
       <c r="D14" s="30"/>
@@ -3512,17 +3484,17 @@
       <c r="O14" s="34"/>
     </row>
     <row r="15" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="87" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15" s="81" t="s">
-        <v>191</v>
+      <c r="B15" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>192</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>29</v>
@@ -3531,50 +3503,50 @@
         <v>30</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="H15" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="H15" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="83" t="s">
+      <c r="I15" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="82" t="s">
+      <c r="J15" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="K15" s="84" t="s">
+      <c r="K15" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="84" t="s">
+      <c r="L15" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="84" t="s">
+      <c r="M15" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="N15" s="84" t="s">
+      <c r="N15" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="84" t="s">
+      <c r="O15" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="P15" s="84" t="s">
+      <c r="P15" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="Q15" s="85" t="s">
+      <c r="Q15" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="R15" s="86" t="s">
+      <c r="R15" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="S15" s="83"/>
-      <c r="T15" s="83"/>
-      <c r="U15" s="83"/>
-      <c r="V15" s="83"/>
-      <c r="W15" s="83"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="83"/>
-      <c r="Z15" s="83"/>
-      <c r="AA15" s="83"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="76"/>
+      <c r="X15" s="76"/>
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="76"/>
+      <c r="AA15" s="76"/>
     </row>
     <row r="16" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
@@ -3637,11 +3609,11 @@
       <c r="A17" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>148</v>
+      <c r="B17" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>192</v>
       </c>
       <c r="D17" s="55"/>
     </row>
@@ -3650,10 +3622,10 @@
         <v>26</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="81" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>169</v>
       </c>
       <c r="D18" s="55"/>
     </row>
@@ -3661,11 +3633,11 @@
       <c r="A19" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>173</v>
+      <c r="B19" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>192</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>82</v>
@@ -3677,7 +3649,7 @@
         <v>87</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H19" s="59" t="s">
         <v>98</v>
@@ -3725,11 +3697,11 @@
     </row>
     <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="B23" s="28"/>
-      <c r="C23" s="81"/>
+      <c r="C23" s="74"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -507,7 +507,7 @@
     <t xml:space="preserve">15241524</t>
   </si>
   <si>
-    <t xml:space="preserve">Gestion Reseteo De Clave</t>
+    <t xml:space="preserve">Gestion Reseteo Clave</t>
   </si>
   <si>
     <t xml:space="preserve">Reseteo De Clave</t>
@@ -632,7 +632,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -654,13 +654,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -820,7 +813,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -844,16 +837,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="66">
@@ -861,276 +846,274 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 2 2" xfId="22" builtinId="53" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
   <colors>
@@ -1210,21 +1193,21 @@
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="28.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2288,7 +2271,7 @@
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2298,14 +2281,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="9" style="0" width="11.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="9" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="16" style="0" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="16" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2971,14 +2954,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" s="18" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Altas y Nominacion" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="220">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -476,9 +476,6 @@
     <t>Villa martelli</t>
   </si>
   <si>
-    <t>|</t>
-  </si>
-  <si>
     <t>Trivias Y Suscripciones</t>
   </si>
   <si>
@@ -611,10 +608,79 @@
     <t>2932442888</t>
   </si>
   <si>
-    <t>42514251</t>
-  </si>
-  <si>
     <t>15241524</t>
+  </si>
+  <si>
+    <t>42514250</t>
+  </si>
+  <si>
+    <t>Gestion Reseteo Clave</t>
+  </si>
+  <si>
+    <t>Reseteo De Clave</t>
+  </si>
+  <si>
+    <t>Gestion Busqueda</t>
+  </si>
+  <si>
+    <t>DocumentacionValida</t>
+  </si>
+  <si>
+    <t>9900000766810007</t>
+  </si>
+  <si>
+    <t>9900000766810000</t>
+  </si>
+  <si>
+    <t>N° De Cuenta</t>
+  </si>
+  <si>
+    <t>Libreta de Enrolamiento</t>
+  </si>
+  <si>
+    <t>Razon Social</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>DocumentacionInvalida</t>
+  </si>
+  <si>
+    <t>11322145</t>
+  </si>
+  <si>
+    <t>Armando</t>
+  </si>
+  <si>
+    <t>Miranda</t>
+  </si>
+  <si>
+    <t>12345670</t>
+  </si>
+  <si>
+    <t>Armando Torres</t>
+  </si>
+  <si>
+    <t>torrecaida@gmail.com</t>
+  </si>
+  <si>
+    <t>Pato</t>
+  </si>
+  <si>
+    <t>angel.leon@gmail.com</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>Renovacion Cuota con Saldo Con TC</t>
+  </si>
+  <si>
+    <t>packTelefonicoInternacional30SMS</t>
+  </si>
+  <si>
+    <t>Pack internacional 30 SMS al Resto del Mundo</t>
   </si>
 </sst>
 </file>
@@ -1280,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1406,7 +1472,7 @@
         <v>14</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>35</v>
@@ -1456,7 +1522,7 @@
         <v>14</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>35</v>
@@ -1618,7 +1684,7 @@
         <v>103</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>129</v>
@@ -1647,7 +1713,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="85" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>2</v>
@@ -1659,7 +1725,7 @@
         <v>115</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G7" s="32" t="s">
         <v>43</v>
@@ -1681,7 +1747,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="85" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>2</v>
@@ -1806,7 +1872,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>35</v>
@@ -1853,7 +1919,7 @@
         <v>14</v>
       </c>
       <c r="L11" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M11" s="39" t="s">
         <v>35</v>
@@ -1924,7 +1990,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L12" s="47"/>
       <c r="M12" s="51"/>
@@ -1968,7 +2034,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>35</v>
@@ -2005,7 +2071,7 @@
         <v>103</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>129</v>
@@ -2035,7 +2101,7 @@
         <v>45</v>
       </c>
       <c r="B15" s="85" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>2</v>
@@ -2061,7 +2127,7 @@
         <v>75</v>
       </c>
       <c r="B16" s="85" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>2</v>
@@ -2088,7 +2154,7 @@
     </row>
     <row r="17" spans="1:26" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
@@ -2142,10 +2208,10 @@
     </row>
     <row r="18" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B18" s="80" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>77</v>
@@ -2180,7 +2246,7 @@
     </row>
     <row r="19" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" s="47" t="s">
         <v>61</v>
@@ -2207,7 +2273,7 @@
         <v>14</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K19" s="47" t="s">
         <v>35</v>
@@ -2224,7 +2290,7 @@
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>17</v>
@@ -2281,31 +2347,31 @@
         <v>3</v>
       </c>
       <c r="B21" s="85" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C21" s="51" t="s">
         <v>196</v>
       </c>
       <c r="D21" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" s="51" t="s">
         <v>193</v>
-      </c>
-      <c r="E21" s="51" t="s">
-        <v>194</v>
       </c>
       <c r="F21" s="51" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="H21" s="52" t="s">
         <v>190</v>
-      </c>
-      <c r="H21" s="52" t="s">
-        <v>191</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K21" s="51" t="s">
         <v>35</v>
@@ -2328,7 +2394,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2351,10 +2417,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z29"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2498,7 +2564,7 @@
     </row>
     <row r="8" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8" s="74">
         <v>46534534</v>
@@ -2541,7 +2607,7 @@
     </row>
     <row r="10" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>62</v>
@@ -2561,7 +2627,7 @@
         <v>50</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2654,7 +2720,7 @@
     </row>
     <row r="16" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" s="49" t="s">
         <v>62</v>
@@ -2690,7 +2756,7 @@
     </row>
     <row r="17" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B17" s="49" t="s">
         <v>62</v>
@@ -2726,7 +2792,7 @@
     </row>
     <row r="18" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18" s="49" t="s">
         <v>62</v>
@@ -2809,12 +2875,12 @@
         <v>94</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
@@ -2846,15 +2912,15 @@
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>0</v>
@@ -2886,15 +2952,15 @@
     </row>
     <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
@@ -2926,15 +2992,15 @@
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:26" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>0</v>
@@ -2966,10 +3032,146 @@
     </row>
     <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B29" s="69" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>197</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+    </row>
+    <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31">
+        <v>30998801</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D33" t="s">
+        <v>209</v>
+      </c>
+      <c r="E33" t="s">
+        <v>210</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="H33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D34" t="s">
+        <v>214</v>
+      </c>
+      <c r="E34" t="s">
+        <v>214</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G34" t="s">
+        <v>214</v>
+      </c>
+      <c r="H34" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2980,10 +3182,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3061,13 +3263,13 @@
         <v>93</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>148</v>
+      <c r="D2" s="65" t="s">
+        <v>191</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>82</v>
@@ -3100,7 +3302,7 @@
         <v>87</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3108,13 +3310,13 @@
         <v>34</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>148</v>
+      <c r="D3" s="65" t="s">
+        <v>191</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
@@ -3128,13 +3330,13 @@
         <v>84</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>148</v>
+      <c r="D4" s="65" t="s">
+        <v>191</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>116</v>
@@ -3183,7 +3385,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="80" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>95</v>
@@ -3196,7 +3398,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="80" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>110</v>
@@ -3265,16 +3467,16 @@
     </row>
     <row r="9" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E9" s="64" t="s">
         <v>82</v>
@@ -3286,21 +3488,21 @@
         <v>87</v>
       </c>
       <c r="H9" s="77" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E10" s="67" t="s">
         <v>82</v>
@@ -3312,7 +3514,7 @@
         <v>87</v>
       </c>
       <c r="H10" s="77" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I10" s="25"/>
       <c r="J10" s="32"/>
@@ -3323,18 +3525,18 @@
       <c r="O10" s="16"/>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:27" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="72" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="74" t="s">
-        <v>192</v>
+        <v>195</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>191</v>
       </c>
       <c r="D11" s="71" t="s">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="E11" s="75" t="s">
         <v>82</v>
@@ -3346,7 +3548,7 @@
         <v>87</v>
       </c>
       <c r="H11" s="77" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I11" s="59" t="s">
         <v>98</v>
@@ -3369,107 +3571,133 @@
       <c r="O11" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="68"/>
-    </row>
-    <row r="12" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="P11" s="65"/>
+    </row>
+    <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+    </row>
+    <row r="13" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G13" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I13" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J13" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L13" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M13" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N13" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-    </row>
-    <row r="13" spans="1:27" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="s">
+      <c r="O13" s="11"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+    </row>
+    <row r="14" spans="1:27" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="74" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="34"/>
-    </row>
-    <row r="14" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="27" t="s">
-        <v>155</v>
-      </c>
       <c r="B14" s="69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D14" s="30"/>
       <c r="F14" s="30"/>
@@ -3484,225 +3712,280 @@
       <c r="O14" s="34"/>
     </row>
     <row r="15" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="34"/>
+    </row>
+    <row r="16" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="74" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" s="31" t="s">
+      <c r="B16" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="E15" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="H15" s="75" t="s">
+      <c r="H16" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="76" t="s">
+      <c r="I16" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="75" t="s">
+      <c r="J16" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="K15" s="77" t="s">
+      <c r="K16" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="77" t="s">
+      <c r="L16" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="77" t="s">
+      <c r="M16" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="N15" s="77" t="s">
+      <c r="N16" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="77" t="s">
+      <c r="O16" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="P15" s="77" t="s">
+      <c r="P16" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="Q15" s="78" t="s">
+      <c r="Q16" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="R15" s="79" t="s">
+      <c r="R16" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="S15" s="76"/>
-      <c r="T15" s="76"/>
-      <c r="U15" s="76"/>
-      <c r="V15" s="76"/>
-      <c r="W15" s="76"/>
-      <c r="X15" s="76"/>
-      <c r="Y15" s="76"/>
-      <c r="Z15" s="76"/>
-      <c r="AA15" s="76"/>
-    </row>
-    <row r="16" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="76"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="76"/>
+    </row>
+    <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C17" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E17" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F17" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G17" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H17" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I17" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J17" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K17" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L17" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M17" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="N17" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="O16" s="11"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="58" t="s">
+      <c r="O17" s="11"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+    </row>
+    <row r="18" spans="1:27" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="74" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" s="55"/>
-    </row>
-    <row r="18" spans="1:14" s="40" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="58" t="s">
+      <c r="B18" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="55"/>
+    </row>
+    <row r="19" spans="1:27" s="40" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B19" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="74" t="s">
-        <v>169</v>
-      </c>
-      <c r="D18" s="55"/>
-    </row>
-    <row r="19" spans="1:14" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="58" t="s">
+      <c r="D19" s="55"/>
+    </row>
+    <row r="20" spans="1:27" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="B19" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" s="74" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" s="30" t="s">
+      <c r="B20" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E20" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F20" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="H19" s="59" t="s">
+      <c r="G20" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="H20" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="I19" s="32" t="s">
+      <c r="I20" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="J20" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="K19" s="32" t="s">
+      <c r="K20" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="32" t="s">
+      <c r="L20" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="M19" s="28" t="s">
+      <c r="M20" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="N19" s="28" t="s">
+      <c r="N20" s="28" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="13"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-    </row>
-    <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="B23" s="28"/>
-      <c r="C23" s="74"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>151</v>
-      </c>
+    <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="H21" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="13"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+    </row>
+    <row r="24" spans="1:27" ht="15" x14ac:dyDescent="0.35">
+      <c r="B24" s="28"/>
+      <c r="C24" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -3184,8 +3184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:O11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Altas y Nominacion" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="224">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -681,6 +681,18 @@
   </si>
   <si>
     <t>Pack internacional 30 SMS al Resto del Mundo</t>
+  </si>
+  <si>
+    <t>Gestion Vista360</t>
+  </si>
+  <si>
+    <t>VistaDocumentacion</t>
+  </si>
+  <si>
+    <t>Vista 360</t>
+  </si>
+  <si>
+    <t>Emma Valentina Miranda</t>
   </si>
 </sst>
 </file>
@@ -873,7 +885,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1056,6 +1068,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -2417,10 +2432,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3174,6 +3189,35 @@
         <v>215</v>
       </c>
     </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="86"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="68"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="68" t="s">
+        <v>223</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3184,7 +3228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -509,9 +509,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>10777540</t>
-  </si>
-  <si>
     <t>packAgente</t>
   </si>
   <si>
@@ -693,6 +690,9 @@
   </si>
   <si>
     <t>Emma Valentina Miranda</t>
+  </si>
+  <si>
+    <t>10777541</t>
   </si>
 </sst>
 </file>
@@ -1487,7 +1487,7 @@
         <v>14</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>35</v>
@@ -1537,7 +1537,7 @@
         <v>14</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>35</v>
@@ -1728,7 +1728,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="85" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>2</v>
@@ -1762,7 +1762,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="85" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>2</v>
@@ -1887,7 +1887,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>35</v>
@@ -1934,7 +1934,7 @@
         <v>14</v>
       </c>
       <c r="L11" s="39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M11" s="39" t="s">
         <v>35</v>
@@ -2005,7 +2005,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L12" s="47"/>
       <c r="M12" s="51"/>
@@ -2049,7 +2049,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>35</v>
@@ -2116,7 +2116,7 @@
         <v>45</v>
       </c>
       <c r="B15" s="85" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>2</v>
@@ -2142,7 +2142,7 @@
         <v>75</v>
       </c>
       <c r="B16" s="85" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>2</v>
@@ -2226,7 +2226,7 @@
         <v>158</v>
       </c>
       <c r="B18" s="80" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>77</v>
@@ -2288,7 +2288,7 @@
         <v>14</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K19" s="47" t="s">
         <v>35</v>
@@ -2362,31 +2362,31 @@
         <v>3</v>
       </c>
       <c r="B21" s="85" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D21" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" s="51" t="s">
         <v>192</v>
-      </c>
-      <c r="E21" s="51" t="s">
-        <v>193</v>
       </c>
       <c r="F21" s="51" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="H21" s="52" t="s">
         <v>189</v>
-      </c>
-      <c r="H21" s="52" t="s">
-        <v>190</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K21" s="51" t="s">
         <v>35</v>
@@ -2435,7 +2435,7 @@
   <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="8" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8" s="74">
         <v>46534534</v>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="10" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>62</v>
@@ -2642,7 +2642,7 @@
         <v>50</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2771,7 +2771,7 @@
     </row>
     <row r="17" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" s="49" t="s">
         <v>62</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="18" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B18" s="49" t="s">
         <v>62</v>
@@ -2890,12 +2890,12 @@
         <v>94</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>162</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
@@ -2930,12 +2930,12 @@
         <v>151</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>0</v>
@@ -2970,12 +2970,12 @@
         <v>152</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
@@ -3007,15 +3007,15 @@
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:26" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>0</v>
@@ -3047,15 +3047,15 @@
     </row>
     <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B29" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:26" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>0</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B31">
         <v>30998801</v>
@@ -3095,13 +3095,13 @@
     </row>
     <row r="32" spans="1:26" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>4</v>
@@ -3110,13 +3110,13 @@
         <v>5</v>
       </c>
       <c r="F32" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -3139,59 +3139,59 @@
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D33" t="s">
+        <v>208</v>
+      </c>
+      <c r="E33" t="s">
         <v>209</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="G33" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="H33" t="s">
         <v>212</v>
-      </c>
-      <c r="H33" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>206</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>208</v>
-      </c>
       <c r="C34" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D34" t="s">
+        <v>213</v>
+      </c>
+      <c r="E34" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G34" t="s">
+        <v>213</v>
+      </c>
+      <c r="H34" t="s">
         <v>214</v>
-      </c>
-      <c r="E34" t="s">
-        <v>214</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="G34" t="s">
-        <v>214</v>
-      </c>
-      <c r="H34" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>0</v>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="68" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>62</v>
@@ -3209,13 +3209,13 @@
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="68" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C37" s="68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3307,13 +3307,13 @@
         <v>93</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>81</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>82</v>
@@ -3346,7 +3346,7 @@
         <v>87</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3354,13 +3354,13 @@
         <v>34</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>68</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
@@ -3374,13 +3374,13 @@
         <v>84</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>81</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>116</v>
@@ -3429,7 +3429,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="80" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>95</v>
@@ -3442,7 +3442,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="80" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>110</v>
@@ -3511,16 +3511,16 @@
     </row>
     <row r="9" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E9" s="64" t="s">
         <v>82</v>
@@ -3532,21 +3532,21 @@
         <v>87</v>
       </c>
       <c r="H9" s="77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:27" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E10" s="67" t="s">
         <v>82</v>
@@ -3558,7 +3558,7 @@
         <v>87</v>
       </c>
       <c r="H10" s="77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I10" s="25"/>
       <c r="J10" s="32"/>
@@ -3571,16 +3571,16 @@
     </row>
     <row r="11" spans="1:27" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="71" t="s">
         <v>218</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>195</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>191</v>
-      </c>
-      <c r="D11" s="71" t="s">
-        <v>219</v>
       </c>
       <c r="E11" s="75" t="s">
         <v>82</v>
@@ -3592,7 +3592,7 @@
         <v>87</v>
       </c>
       <c r="H11" s="77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I11" s="59" t="s">
         <v>98</v>
@@ -3619,13 +3619,13 @@
     </row>
     <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D12" s="71" t="s">
         <v>44</v>
@@ -3640,7 +3640,7 @@
         <v>87</v>
       </c>
       <c r="H12" s="77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I12" s="59" t="s">
         <v>98</v>
@@ -3738,10 +3738,10 @@
         <v>97</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D14" s="30"/>
       <c r="F14" s="30"/>
@@ -3760,10 +3760,10 @@
         <v>154</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D15" s="30"/>
       <c r="F15" s="30"/>
@@ -3782,13 +3782,13 @@
         <v>96</v>
       </c>
       <c r="B16" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>29</v>
@@ -3797,7 +3797,7 @@
         <v>30</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H16" s="75" t="s">
         <v>82</v>
@@ -3904,10 +3904,10 @@
         <v>25</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C18" s="74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D18" s="55"/>
     </row>
@@ -3916,10 +3916,10 @@
         <v>26</v>
       </c>
       <c r="B19" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="74" t="s">
         <v>167</v>
-      </c>
-      <c r="C19" s="74" t="s">
-        <v>168</v>
       </c>
       <c r="D19" s="55"/>
     </row>
@@ -3928,10 +3928,10 @@
         <v>120</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C20" s="74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>82</v>
@@ -3943,7 +3943,7 @@
         <v>87</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H20" s="59" t="s">
         <v>98</v>
@@ -3969,13 +3969,13 @@
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C21" s="74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D21" s="75" t="s">
         <v>82</v>
@@ -3987,7 +3987,7 @@
         <v>87</v>
       </c>
       <c r="G21" s="77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H21" s="59" t="s">
         <v>98</v>

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofia Chardin\Git\TelecomProyectoFAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Xappia\TelecomProyectoFAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="945" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Altas y Nominacion" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="226">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -693,6 +693,12 @@
   </si>
   <si>
     <t>10777541</t>
+  </si>
+  <si>
+    <t>34566545</t>
+  </si>
+  <si>
+    <t>1122334455</t>
   </si>
 </sst>
 </file>
@@ -809,7 +815,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -837,6 +843,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF3715A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,7 +897,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1070,6 +1082,12 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1365,24 +1383,24 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="5" width="19.44140625" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>132</v>
       </c>
@@ -1458,7 +1476,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1511,7 +1529,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1552,7 +1570,7 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -1605,7 +1623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
@@ -1679,7 +1697,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>133</v>
       </c>
@@ -1723,7 +1741,7 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="53" t="s">
         <v>69</v>
       </c>
@@ -1757,7 +1775,7 @@
       <c r="O7" s="51"/>
       <c r="P7" s="51"/>
     </row>
-    <row r="8" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="53" t="s">
         <v>24</v>
       </c>
@@ -1779,7 +1797,7 @@
       <c r="O8" s="51"/>
       <c r="P8" s="51"/>
     </row>
-    <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>134</v>
       </c>
@@ -1857,7 +1875,7 @@
       </c>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>46</v>
       </c>
@@ -1901,7 +1919,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>76</v>
       </c>
@@ -1976,7 +1994,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="53" t="s">
         <v>88</v>
       </c>
@@ -2020,7 +2038,7 @@
       <c r="V12" s="51"/>
       <c r="W12" s="51"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>78</v>
       </c>
@@ -2063,7 +2081,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>135</v>
       </c>
@@ -2111,7 +2129,7 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
@@ -2137,7 +2155,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
         <v>75</v>
       </c>
@@ -2167,7 +2185,7 @@
       <c r="O16" s="51"/>
       <c r="P16" s="51"/>
     </row>
-    <row r="17" spans="1:26" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>157</v>
       </c>
@@ -2221,7 +2239,7 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="53" t="s">
         <v>158</v>
       </c>
@@ -2259,7 +2277,7 @@
       <c r="O18" s="51"/>
       <c r="P18" s="51"/>
     </row>
-    <row r="19" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="53" t="s">
         <v>159</v>
       </c>
@@ -2303,7 +2321,7 @@
       <c r="O19" s="51"/>
       <c r="P19" s="51"/>
     </row>
-    <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>160</v>
       </c>
@@ -2357,7 +2375,7 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="40" t="s">
         <v>3</v>
       </c>
@@ -2401,13 +2419,13 @@
       <c r="O21" s="51"/>
       <c r="P21" s="51"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B23" s="60"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B25" s="80"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>161</v>
       </c>
@@ -2434,27 +2452,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="11.5546875" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="26" width="9.109375" customWidth="1"/>
+    <col min="16" max="26" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
@@ -2492,7 +2510,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>18</v>
       </c>
@@ -2506,7 +2524,7 @@
         <v>1161138551</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>18</v>
       </c>
@@ -2520,7 +2538,7 @@
         <v>1161138552</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>146</v>
       </c>
@@ -2534,7 +2552,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>146</v>
       </c>
@@ -2548,7 +2566,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>147</v>
       </c>
@@ -2563,7 +2581,7 @@
       </c>
       <c r="E6" s="77"/>
     </row>
-    <row r="7" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>147</v>
       </c>
@@ -2577,7 +2595,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>183</v>
       </c>
@@ -2588,7 +2606,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>125</v>
       </c>
@@ -2620,7 +2638,7 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>173</v>
       </c>
@@ -2637,7 +2655,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>50</v>
       </c>
@@ -2645,7 +2663,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>127</v>
       </c>
@@ -2679,7 +2697,7 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>80</v>
       </c>
@@ -2688,7 +2706,7 @@
       </c>
       <c r="C13" s="21"/>
     </row>
-    <row r="14" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>79</v>
       </c>
@@ -2697,7 +2715,7 @@
       </c>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>128</v>
       </c>
@@ -2733,7 +2751,7 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>153</v>
       </c>
@@ -2769,7 +2787,7 @@
       <c r="Y16" s="45"/>
       <c r="Z16" s="45"/>
     </row>
-    <row r="17" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
         <v>174</v>
       </c>
@@ -2805,7 +2823,7 @@
       <c r="Y17" s="45"/>
       <c r="Z17" s="45"/>
     </row>
-    <row r="18" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>175</v>
       </c>
@@ -2841,7 +2859,7 @@
       <c r="Y18" s="45"/>
       <c r="Z18" s="45"/>
     </row>
-    <row r="19" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>63</v>
       </c>
@@ -2853,7 +2871,7 @@
       </c>
       <c r="D19" s="18"/>
     </row>
-    <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>131</v>
       </c>
@@ -2885,7 +2903,7 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>94</v>
       </c>
@@ -2893,7 +2911,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>179</v>
       </c>
@@ -2925,7 +2943,7 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>151</v>
       </c>
@@ -2933,7 +2951,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>178</v>
       </c>
@@ -2965,7 +2983,7 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>152</v>
       </c>
@@ -2973,7 +2991,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>170</v>
       </c>
@@ -3005,7 +3023,7 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>171</v>
       </c>
@@ -3013,7 +3031,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>185</v>
       </c>
@@ -3045,7 +3063,7 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
     </row>
-    <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>186</v>
       </c>
@@ -3053,7 +3071,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:26" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>196</v>
       </c>
@@ -3085,7 +3103,7 @@
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
     </row>
-    <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>197</v>
       </c>
@@ -3093,7 +3111,7 @@
         <v>30998801</v>
       </c>
     </row>
-    <row r="32" spans="1:26" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>198</v>
       </c>
@@ -3137,7 +3155,7 @@
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>199</v>
       </c>
@@ -3163,7 +3181,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>206</v>
       </c>
@@ -3189,7 +3207,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>219</v>
       </c>
@@ -3198,7 +3216,7 @@
       </c>
       <c r="C35" s="86"/>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="68" t="s">
         <v>220</v>
       </c>
@@ -3207,7 +3225,7 @@
       </c>
       <c r="C36" s="68"/>
     </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="68" t="s">
         <v>221</v>
       </c>
@@ -3228,22 +3246,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>99</v>
       </c>
@@ -3302,7 +3320,7 @@
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
     </row>
-    <row r="2" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>93</v>
       </c>
@@ -3349,7 +3367,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>34</v>
       </c>
@@ -3369,7 +3387,7 @@
       <c r="L3" s="32"/>
       <c r="M3" s="32"/>
     </row>
-    <row r="4" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>84</v>
       </c>
@@ -3410,7 +3428,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>111</v>
       </c>
@@ -3424,7 +3442,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
@@ -3437,7 +3455,7 @@
       <c r="D6" s="18"/>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>33</v>
       </c>
@@ -3450,7 +3468,7 @@
       <c r="D7" s="18"/>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>112</v>
       </c>
@@ -3509,7 +3527,7 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
     </row>
-    <row r="9" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>162</v>
       </c>
@@ -3535,7 +3553,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>163</v>
       </c>
@@ -3569,15 +3587,15 @@
       <c r="O10" s="16"/>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:27" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="B11" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>190</v>
+      <c r="B11" s="87" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>225</v>
       </c>
       <c r="D11" s="71" t="s">
         <v>218</v>
@@ -3617,7 +3635,7 @@
       </c>
       <c r="P11" s="65"/>
     </row>
-    <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
         <v>164</v>
       </c>
@@ -3676,7 +3694,7 @@
       <c r="Z12" s="68"/>
       <c r="AA12" s="68"/>
     </row>
-    <row r="13" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>117</v>
       </c>
@@ -3733,7 +3751,7 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
     </row>
-    <row r="14" spans="1:27" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" s="31" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>97</v>
       </c>
@@ -3755,7 +3773,7 @@
       <c r="N14" s="33"/>
       <c r="O14" s="34"/>
     </row>
-    <row r="15" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>154</v>
       </c>
@@ -3777,7 +3795,7 @@
       <c r="N15" s="33"/>
       <c r="O15" s="34"/>
     </row>
-    <row r="16" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="73" t="s">
         <v>96</v>
       </c>
@@ -3842,7 +3860,7 @@
       <c r="Z16" s="76"/>
       <c r="AA16" s="76"/>
     </row>
-    <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>119</v>
       </c>
@@ -3899,7 +3917,7 @@
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
     </row>
-    <row r="18" spans="1:27" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="58" t="s">
         <v>25</v>
       </c>
@@ -3911,7 +3929,7 @@
       </c>
       <c r="D18" s="55"/>
     </row>
-    <row r="19" spans="1:27" s="40" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" s="40" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
         <v>26</v>
       </c>
@@ -3923,7 +3941,7 @@
       </c>
       <c r="D19" s="55"/>
     </row>
-    <row r="20" spans="1:27" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="58" t="s">
         <v>120</v>
       </c>
@@ -3967,7 +3985,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>216</v>
       </c>
@@ -4011,7 +4029,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -4027,7 +4045,7 @@
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
     </row>
-    <row r="24" spans="1:27" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B24" s="28"/>
       <c r="C24" s="74"/>
     </row>

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofia Chardin\Git\TelecomProyectoFAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyecto Fan\TelecomProyectoFAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Altas y Nominacion" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="220">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -449,9 +449,6 @@
     <t>Equipo</t>
   </si>
   <si>
-    <t>1158423198</t>
-  </si>
-  <si>
     <t>1161138553</t>
   </si>
   <si>
@@ -467,9 +464,6 @@
     <t>Amigos Baja</t>
   </si>
   <si>
-    <t>3574409493</t>
-  </si>
-  <si>
     <t>SAN ISIDRO</t>
   </si>
   <si>
@@ -521,9 +515,6 @@
     <t>38452795</t>
   </si>
   <si>
-    <t>55555550</t>
-  </si>
-  <si>
     <t>3413105403</t>
   </si>
   <si>
@@ -587,30 +578,15 @@
     <t>1 - CFT %0.0</t>
   </si>
   <si>
-    <t>15/02/1985</t>
-  </si>
-  <si>
     <t>Torrecaida@gmail.com</t>
   </si>
   <si>
     <t>2932442894</t>
   </si>
   <si>
-    <t>Patricio</t>
-  </si>
-  <si>
-    <t>De las piedras</t>
-  </si>
-  <si>
-    <t>2932442888</t>
-  </si>
-  <si>
     <t>15241524</t>
   </si>
   <si>
-    <t>42514250</t>
-  </si>
-  <si>
     <t>Gestion Reseteo Clave</t>
   </si>
   <si>
@@ -692,14 +668,26 @@
     <t>Emma Valentina Miranda</t>
   </si>
   <si>
-    <t>10777541</t>
+    <t>22222035</t>
+  </si>
+  <si>
+    <t>2932443385</t>
+  </si>
+  <si>
+    <t>Quenico</t>
+  </si>
+  <si>
+    <t>15/02/1992</t>
+  </si>
+  <si>
+    <t>2932443389</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -808,6 +796,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF090909"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -885,7 +879,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -984,7 +978,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1001,9 +994,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1023,9 +1013,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1071,6 +1058,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1362,7 +1350,7 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1487,7 +1475,7 @@
         <v>14</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>35</v>
@@ -1537,7 +1525,7 @@
         <v>14</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>35</v>
@@ -1699,7 +1687,7 @@
         <v>103</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>129</v>
@@ -1724,11 +1712,11 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="85" t="s">
-        <v>184</v>
+      <c r="B7" s="82" t="s">
+        <v>181</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>2</v>
@@ -1740,7 +1728,7 @@
         <v>115</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G7" s="32" t="s">
         <v>43</v>
@@ -1754,30 +1742,30 @@
       <c r="L7" s="31"/>
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
     </row>
     <row r="8" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="85" t="s">
-        <v>184</v>
+      <c r="B8" s="82" t="s">
+        <v>215</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
       <c r="I8" s="47"/>
       <c r="J8" s="47"/>
       <c r="K8" s="47"/>
-      <c r="L8" s="57"/>
+      <c r="L8" s="56"/>
       <c r="M8" s="47"/>
       <c r="N8" s="47"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -1887,7 +1875,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>35</v>
@@ -1921,10 +1909,10 @@
       <c r="G11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="76" t="s">
+      <c r="H11" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="76" t="s">
+      <c r="I11" s="73" t="s">
         <v>30</v>
       </c>
       <c r="J11" s="47" t="s">
@@ -1934,7 +1922,7 @@
         <v>14</v>
       </c>
       <c r="L11" s="39" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M11" s="39" t="s">
         <v>35</v>
@@ -1945,57 +1933,57 @@
       <c r="O11" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="81" t="s">
+      <c r="P11" s="78" t="s">
         <v>82</v>
       </c>
       <c r="Q11" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="R11" s="81" t="s">
+      <c r="R11" s="78" t="s">
         <v>87</v>
       </c>
       <c r="S11" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="T11" s="82" t="s">
+      <c r="T11" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="U11" s="83" t="s">
+      <c r="U11" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="V11" s="83" t="s">
+      <c r="V11" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="W11" s="83" t="s">
+      <c r="W11" s="80" t="s">
         <v>42</v>
       </c>
       <c r="X11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="Y11" s="84" t="s">
+      <c r="Y11" s="81" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="54" t="s">
+      <c r="G12" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="51" t="s">
+      <c r="H12" s="50" t="s">
         <v>2</v>
       </c>
       <c r="I12" s="47" t="s">
@@ -2005,20 +1993,20 @@
         <v>14</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L12" s="47"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -2049,7 +2037,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>35</v>
@@ -2086,7 +2074,7 @@
         <v>103</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>129</v>
@@ -2115,8 +2103,8 @@
       <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="85" t="s">
-        <v>184</v>
+      <c r="B15" s="82" t="s">
+        <v>215</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>2</v>
@@ -2138,11 +2126,11 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="85" t="s">
-        <v>184</v>
+      <c r="B16" s="82" t="s">
+        <v>215</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>2</v>
@@ -2150,26 +2138,26 @@
       <c r="D16" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="E16" s="55" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
     </row>
     <row r="17" spans="1:26" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
@@ -2222,46 +2210,46 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="B18" s="80" t="s">
-        <v>177</v>
+      <c r="A18" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="77" t="s">
+        <v>174</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="50" t="s">
         <v>39</v>
       </c>
       <c r="G18" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="51" t="s">
+      <c r="H18" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="I18" s="51" t="s">
+      <c r="I18" s="50" t="s">
         <v>73</v>
       </c>
       <c r="J18" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
     </row>
     <row r="19" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
-        <v>159</v>
+      <c r="A19" s="52" t="s">
+        <v>157</v>
       </c>
       <c r="B19" s="47" t="s">
         <v>61</v>
@@ -2278,7 +2266,7 @@
       <c r="F19" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="54" t="s">
+      <c r="G19" s="53" t="s">
         <v>49</v>
       </c>
       <c r="H19" s="47" t="s">
@@ -2288,24 +2276,24 @@
         <v>14</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K19" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="51" t="s">
+      <c r="L19" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="M19" s="51" t="s">
+      <c r="M19" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>17</v>
@@ -2361,55 +2349,55 @@
       <c r="A21" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="85" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>195</v>
+      <c r="B21" s="82" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>215</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="E21" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="F21" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="50" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="H21" s="52" t="s">
-        <v>189</v>
+        <v>218</v>
+      </c>
+      <c r="H21" s="51" t="s">
+        <v>185</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="K21" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="L21" s="51" t="s">
+      <c r="L21" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="M21" s="51" t="s">
+      <c r="M21" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B23" s="60"/>
+      <c r="B23" s="59"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B25" s="80"/>
+      <c r="B25" s="77"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2434,8 +2422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2496,11 +2484,11 @@
       <c r="A2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="29">
-        <v>46534534</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>142</v>
+      <c r="B2" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>219</v>
       </c>
       <c r="D2" s="31">
         <v>1161138551</v>
@@ -2510,11 +2498,11 @@
       <c r="A3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="29">
-        <v>46534534</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>142</v>
+      <c r="B3" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>219</v>
       </c>
       <c r="E3" s="31">
         <v>1161138552</v>
@@ -2522,56 +2510,56 @@
     </row>
     <row r="4" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="29">
-        <v>46534534</v>
-      </c>
-      <c r="C4" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>142</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="29">
-        <v>46534534</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="32" t="s">
+      <c r="B6" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="29">
-        <v>46534534</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="77"/>
+      <c r="E6" s="74"/>
     </row>
     <row r="7" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" s="29">
-        <v>46534534</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>142</v>
+        <v>146</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>219</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>72</v>
@@ -2579,13 +2567,13 @@
     </row>
     <row r="8" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="74">
-        <v>46534534</v>
-      </c>
-      <c r="C8" s="74" t="s">
-        <v>142</v>
+        <v>180</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2622,7 +2610,7 @@
     </row>
     <row r="10" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>62</v>
@@ -2631,18 +2619,18 @@
         <v>14</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="50" t="s">
-        <v>180</v>
+      <c r="B11" s="49" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2683,8 +2671,8 @@
       <c r="A13" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="49" t="s">
-        <v>62</v>
+      <c r="B13" s="48" t="s">
+        <v>215</v>
       </c>
       <c r="C13" s="21"/>
     </row>
@@ -2692,8 +2680,8 @@
       <c r="A14" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="48">
-        <v>19236577</v>
+      <c r="B14" s="48" t="s">
+        <v>215</v>
       </c>
       <c r="E14" s="24"/>
     </row>
@@ -2735,9 +2723,9 @@
     </row>
     <row r="16" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="48" t="s">
         <v>62</v>
       </c>
       <c r="C16" s="18" t="s">
@@ -2771,15 +2759,15 @@
     </row>
     <row r="17" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="B17" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="67" t="s">
         <v>65</v>
       </c>
       <c r="E17" s="43"/>
@@ -2807,15 +2795,15 @@
     </row>
     <row r="18" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="B18" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="67" t="s">
         <v>65</v>
       </c>
       <c r="E18" s="43"/>
@@ -2845,11 +2833,11 @@
       <c r="A19" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>148</v>
+      <c r="B19" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="84" t="s">
+        <v>219</v>
       </c>
       <c r="D19" s="18"/>
     </row>
@@ -2889,13 +2877,13 @@
       <c r="A21" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>223</v>
+      <c r="B21" s="48" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
@@ -2927,15 +2915,15 @@
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>0</v>
@@ -2967,15 +2955,15 @@
     </row>
     <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
@@ -3007,15 +2995,15 @@
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" s="66" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>0</v>
@@ -3047,15 +3035,15 @@
     </row>
     <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B29" s="69" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" s="66" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>0</v>
@@ -3087,21 +3075,21 @@
     </row>
     <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B31">
         <v>30998801</v>
       </c>
     </row>
-    <row r="32" spans="1:26" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" s="66" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>4</v>
@@ -3110,13 +3098,13 @@
         <v>5</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -3139,83 +3127,83 @@
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C33" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" t="s">
         <v>201</v>
       </c>
-      <c r="D33" t="s">
-        <v>208</v>
-      </c>
-      <c r="E33" t="s">
-        <v>209</v>
-      </c>
       <c r="F33" s="9" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H33" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" t="s">
+        <v>205</v>
+      </c>
+      <c r="E34" t="s">
+        <v>205</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G34" t="s">
+        <v>205</v>
+      </c>
+      <c r="H34" t="s">
         <v>206</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D34" t="s">
-        <v>213</v>
-      </c>
-      <c r="E34" t="s">
-        <v>213</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G34" t="s">
-        <v>213</v>
-      </c>
-      <c r="H34" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="86"/>
+      <c r="C35" s="83"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="68" t="s">
-        <v>220</v>
+      <c r="A36" s="66" t="s">
+        <v>212</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="68"/>
+      <c r="C36" s="66"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="68" t="s">
-        <v>221</v>
+      <c r="A37" s="66" t="s">
+        <v>213</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="68" t="s">
-        <v>222</v>
+      <c r="C37" s="66" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3228,8 +3216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3306,14 +3294,14 @@
       <c r="A2" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="69" t="s">
-        <v>194</v>
+      <c r="B2" s="71" t="s">
+        <v>215</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="65" t="s">
-        <v>190</v>
+      <c r="D2" s="63" t="s">
+        <v>186</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>82</v>
@@ -3346,21 +3334,21 @@
         <v>87</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="69" t="s">
-        <v>194</v>
+      <c r="B3" s="71" t="s">
+        <v>215</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="65" t="s">
-        <v>190</v>
+      <c r="D3" s="63" t="s">
+        <v>186</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
@@ -3373,14 +3361,14 @@
       <c r="A4" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="69" t="s">
-        <v>194</v>
+      <c r="B4" s="71" t="s">
+        <v>215</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="65" t="s">
-        <v>190</v>
+      <c r="D4" s="63" t="s">
+        <v>186</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>116</v>
@@ -3428,8 +3416,8 @@
       <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="80" t="s">
-        <v>177</v>
+      <c r="B6" s="71" t="s">
+        <v>215</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>95</v>
@@ -3441,8 +3429,8 @@
       <c r="A7" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="80" t="s">
-        <v>177</v>
+      <c r="B7" s="71" t="s">
+        <v>215</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>110</v>
@@ -3511,54 +3499,54 @@
     </row>
     <row r="9" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="D9" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="E9" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="64" t="s">
+      <c r="G9" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="77" t="s">
-        <v>187</v>
+      <c r="H9" s="74" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:27" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="D10" s="66" t="s">
-        <v>172</v>
-      </c>
-      <c r="E10" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="G10" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="77" t="s">
-        <v>187</v>
+      <c r="H10" s="74" t="s">
+        <v>184</v>
       </c>
       <c r="I10" s="25"/>
       <c r="J10" s="32"/>
@@ -3569,44 +3557,44 @@
       <c r="O10" s="16"/>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:27" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="72" t="s">
-        <v>217</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="D11" s="71" t="s">
-        <v>218</v>
-      </c>
-      <c r="E11" s="75" t="s">
+    <row r="11" spans="1:27" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="77" t="s">
+      <c r="F11" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="75" t="s">
+      <c r="G11" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="77" t="s">
-        <v>187</v>
-      </c>
-      <c r="I11" s="59" t="s">
+      <c r="H11" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="I11" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="J11" s="77" t="s">
+      <c r="J11" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="77" t="s">
+      <c r="K11" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="77" t="s">
+      <c r="L11" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="77" t="s">
+      <c r="M11" s="74" t="s">
         <v>22</v>
       </c>
       <c r="N11" s="28" t="s">
@@ -3615,46 +3603,46 @@
       <c r="O11" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="P11" s="65"/>
+      <c r="P11" s="63"/>
     </row>
     <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="72" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="C12" s="74" t="s">
-        <v>190</v>
-      </c>
-      <c r="D12" s="71" t="s">
+      <c r="A12" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="75" t="s">
+      <c r="E12" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="77" t="s">
+      <c r="F12" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="75" t="s">
+      <c r="G12" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="77" t="s">
-        <v>187</v>
-      </c>
-      <c r="I12" s="59" t="s">
+      <c r="H12" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="I12" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="J12" s="77" t="s">
+      <c r="J12" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="77" t="s">
+      <c r="K12" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="L12" s="77" t="s">
+      <c r="L12" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="77" t="s">
+      <c r="M12" s="74" t="s">
         <v>22</v>
       </c>
       <c r="N12" s="28" t="s">
@@ -3663,18 +3651,18 @@
       <c r="O12" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
     </row>
     <row r="13" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
@@ -3737,11 +3725,11 @@
       <c r="A14" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" s="74" t="s">
-        <v>190</v>
+      <c r="B14" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>186</v>
       </c>
       <c r="D14" s="30"/>
       <c r="F14" s="30"/>
@@ -3757,13 +3745,13 @@
     </row>
     <row r="15" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="74" t="s">
-        <v>190</v>
+        <v>152</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>186</v>
       </c>
       <c r="D15" s="30"/>
       <c r="F15" s="30"/>
@@ -3778,17 +3766,17 @@
       <c r="O15" s="34"/>
     </row>
     <row r="16" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="C16" s="74" t="s">
-        <v>190</v>
+      <c r="B16" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>186</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>29</v>
@@ -3797,50 +3785,50 @@
         <v>30</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="H16" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="I16" s="76" t="s">
+      <c r="I16" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="J16" s="75" t="s">
+      <c r="J16" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="77" t="s">
+      <c r="K16" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="77" t="s">
+      <c r="L16" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="M16" s="77" t="s">
+      <c r="M16" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="N16" s="77" t="s">
+      <c r="N16" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="O16" s="77" t="s">
+      <c r="O16" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="77" t="s">
+      <c r="P16" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="Q16" s="78" t="s">
+      <c r="Q16" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="R16" s="79" t="s">
+      <c r="R16" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="S16" s="76"/>
-      <c r="T16" s="76"/>
-      <c r="U16" s="76"/>
-      <c r="V16" s="76"/>
-      <c r="W16" s="76"/>
-      <c r="X16" s="76"/>
-      <c r="Y16" s="76"/>
-      <c r="Z16" s="76"/>
-      <c r="AA16" s="76"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="73"/>
+      <c r="U16" s="73"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="73"/>
+      <c r="Z16" s="73"/>
+      <c r="AA16" s="73"/>
     </row>
     <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
@@ -3900,38 +3888,38 @@
       <c r="AA17" s="4"/>
     </row>
     <row r="18" spans="1:27" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="C18" s="74" t="s">
-        <v>190</v>
-      </c>
-      <c r="D18" s="55"/>
+      <c r="B18" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="54"/>
     </row>
     <row r="19" spans="1:27" s="40" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="C19" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="D19" s="55"/>
+      <c r="B19" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="54"/>
     </row>
     <row r="20" spans="1:27" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="C20" s="74" t="s">
-        <v>190</v>
+      <c r="B20" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>186</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>82</v>
@@ -3943,9 +3931,9 @@
         <v>87</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="H20" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="H20" s="58" t="s">
         <v>98</v>
       </c>
       <c r="I20" s="32" t="s">
@@ -3969,39 +3957,39 @@
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C21" s="74" t="s">
-        <v>190</v>
-      </c>
-      <c r="D21" s="75" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="76" t="s">
+      <c r="E21" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="75" t="s">
+      <c r="F21" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="77" t="s">
-        <v>187</v>
-      </c>
-      <c r="H21" s="59" t="s">
+      <c r="G21" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="H21" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="I21" s="77" t="s">
+      <c r="I21" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="77" t="s">
+      <c r="J21" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="77" t="s">
+      <c r="K21" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="77" t="s">
+      <c r="L21" s="74" t="s">
         <v>22</v>
       </c>
       <c r="M21" s="28" t="s">
@@ -4029,7 +4017,7 @@
     </row>
     <row r="24" spans="1:27" ht="15" x14ac:dyDescent="0.35">
       <c r="B24" s="28"/>
-      <c r="C24" s="74"/>
+      <c r="C24" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Altas y Nominacion" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="231">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -353,9 +353,6 @@
     <t>N° documento</t>
   </si>
   <si>
-    <t>2944675271</t>
-  </si>
-  <si>
     <t>Gestion ABM de Servicios</t>
   </si>
   <si>
@@ -681,13 +678,49 @@
   </si>
   <si>
     <t>2932443389</t>
+  </si>
+  <si>
+    <t>No Personal Alta Amigos</t>
+  </si>
+  <si>
+    <t>No Personal Modificacion Amigos</t>
+  </si>
+  <si>
+    <t>No Personal Baja Amigos</t>
+  </si>
+  <si>
+    <t>46534534</t>
+  </si>
+  <si>
+    <t>3413105385</t>
+  </si>
+  <si>
+    <t>1158423198</t>
+  </si>
+  <si>
+    <t>5555555551</t>
+  </si>
+  <si>
+    <t>5555555552</t>
+  </si>
+  <si>
+    <t>5555555553</t>
+  </si>
+  <si>
+    <t>5555555554</t>
+  </si>
+  <si>
+    <t>22222033</t>
+  </si>
+  <si>
+    <t>2932443168</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -802,6 +835,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Quattrocento Sans"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -835,7 +873,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -872,6 +910,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -879,7 +947,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1059,6 +1127,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1350,10 +1445,10 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
@@ -1370,9 +1465,9 @@
     <col min="19" max="19" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1402,13 +1497,13 @@
         <v>16</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="N1" s="10" t="s">
         <v>101</v>
@@ -1420,7 +1515,7 @@
         <v>103</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R1" s="11" t="s">
         <v>104</v>
@@ -1441,12 +1536,12 @@
         <v>109</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1475,7 +1570,7 @@
         <v>14</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>35</v>
@@ -1499,7 +1594,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1525,7 +1620,7 @@
         <v>14</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>35</v>
@@ -1540,7 +1635,7 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -1593,12 +1688,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
         <v>55</v>
@@ -1667,9 +1762,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" s="46" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -1687,10 +1782,10 @@
         <v>103</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1711,24 +1806,24 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="40" customFormat="1">
       <c r="A7" s="52" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="82" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G7" s="32" t="s">
         <v>43</v>
@@ -1745,12 +1840,12 @@
       <c r="O7" s="50"/>
       <c r="P7" s="50"/>
     </row>
-    <row r="8" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="40" customFormat="1">
       <c r="A8" s="52" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="82" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>2</v>
@@ -1767,9 +1862,9 @@
       <c r="O8" s="50"/>
       <c r="P8" s="50"/>
     </row>
-    <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
@@ -1793,7 +1888,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>15</v>
@@ -1802,13 +1897,13 @@
         <v>16</v>
       </c>
       <c r="L9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="O9" s="10" t="s">
         <v>101</v>
@@ -1820,7 +1915,7 @@
         <v>103</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S9" s="11" t="s">
         <v>104</v>
@@ -1841,11 +1936,11 @@
         <v>109</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10" s="6" t="s">
         <v>46</v>
       </c>
@@ -1875,7 +1970,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>35</v>
@@ -1889,7 +1984,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" s="6" t="s">
         <v>76</v>
       </c>
@@ -1922,13 +2017,13 @@
         <v>14</v>
       </c>
       <c r="L11" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M11" s="39" t="s">
         <v>35</v>
       </c>
       <c r="N11" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O11" s="39" t="s">
         <v>36</v>
@@ -1964,7 +2059,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="40" customFormat="1">
       <c r="A12" s="52" t="s">
         <v>88</v>
       </c>
@@ -1993,7 +2088,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L12" s="47"/>
       <c r="M12" s="50"/>
@@ -2008,7 +2103,7 @@
       <c r="V12" s="50"/>
       <c r="W12" s="50"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" s="6" t="s">
         <v>78</v>
       </c>
@@ -2037,7 +2132,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>35</v>
@@ -2051,9 +2146,9 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="12.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -2062,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>101</v>
@@ -2074,10 +2169,10 @@
         <v>103</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>16</v>
@@ -2099,12 +2194,12 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="82" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>2</v>
@@ -2125,12 +2220,12 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="40" customFormat="1">
       <c r="A16" s="52" t="s">
         <v>75</v>
       </c>
       <c r="B16" s="82" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>2</v>
@@ -2155,9 +2250,9 @@
       <c r="O16" s="50"/>
       <c r="P16" s="50"/>
     </row>
-    <row r="17" spans="1:26" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" s="46" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
@@ -2178,7 +2273,7 @@
         <v>8</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>15</v>
@@ -2187,13 +2282,13 @@
         <v>16</v>
       </c>
       <c r="K17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="37"/>
@@ -2209,18 +2304,18 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" s="40" customFormat="1">
       <c r="A18" s="52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>77</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E18" s="52" t="s">
         <v>70</v>
@@ -2247,9 +2342,9 @@
       <c r="O18" s="50"/>
       <c r="P18" s="50"/>
     </row>
-    <row r="19" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" s="40" customFormat="1">
       <c r="A19" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B19" s="47" t="s">
         <v>61</v>
@@ -2276,7 +2371,7 @@
         <v>14</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K19" s="47" t="s">
         <v>35</v>
@@ -2291,9 +2386,9 @@
       <c r="O19" s="50"/>
       <c r="P19" s="50"/>
     </row>
-    <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="12.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>17</v>
@@ -2323,13 +2418,13 @@
         <v>15</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="37"/>
@@ -2345,18 +2440,18 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" s="40" customFormat="1">
       <c r="A21" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="82" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="40" t="s">
         <v>216</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>217</v>
       </c>
       <c r="E21" s="50" t="s">
         <v>67</v>
@@ -2365,16 +2460,16 @@
         <v>11</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H21" s="51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K21" s="50" t="s">
         <v>35</v>
@@ -2389,15 +2484,18 @@
       <c r="O21" s="50"/>
       <c r="P21" s="50"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26">
       <c r="B23" s="59"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="B25" s="77"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
+      <c r="D26" s="95"/>
+    </row>
+    <row r="29" spans="1:26">
       <c r="B29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2420,15 +2518,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="1" max="1" width="38.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
@@ -2442,25 +2540,25 @@
     <col min="16" max="26" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" ht="12" customHeight="1">
+      <c r="A1" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -2480,224 +2578,247 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A2" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="71" t="s">
+      <c r="B2" s="92" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="93">
+        <v>1161138551</v>
+      </c>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+    </row>
+    <row r="3" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="92" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93">
+        <v>1161138552</v>
+      </c>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+    </row>
+    <row r="4" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A4" s="91" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+    </row>
+    <row r="5" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A5" s="91" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="93"/>
+      <c r="E5" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+    </row>
+    <row r="6" spans="1:26" s="73" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A6" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="92" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="91"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+    </row>
+    <row r="7" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A7" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="92" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+    </row>
+    <row r="8" spans="1:26" s="73" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A8" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="92" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="91"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+    </row>
+    <row r="9" spans="1:26" s="73" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A9" s="91" t="s">
         <v>219</v>
       </c>
-      <c r="D2" s="31">
-        <v>1161138551</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="71" t="s">
+      <c r="B9" s="92" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="92" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+    </row>
+    <row r="10" spans="1:26" s="73" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A10" s="91" t="s">
         <v>219</v>
       </c>
-      <c r="E3" s="31">
-        <v>1161138552</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="C5" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="E5" s="32" t="s">
+      <c r="B10" s="92" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="92" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91" t="s">
+        <v>226</v>
+      </c>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+    </row>
+    <row r="11" spans="1:26" s="73" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A11" s="91" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="92" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+    </row>
+    <row r="12" spans="1:26" s="73" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A12" s="91" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="92" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+    </row>
+    <row r="13" spans="1:26" s="73" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A13" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="92" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="91" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="C6" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="74"/>
-    </row>
-    <row r="7" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="C7" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="D7" s="32" t="s">
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+    </row>
+    <row r="14" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A14" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="92" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" s="93" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" s="71" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-    </row>
-    <row r="10" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-    </row>
-    <row r="13" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="C13" s="21"/>
-    </row>
-    <row r="14" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+    </row>
+    <row r="15" spans="1:26" ht="12" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>130</v>
-      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="11"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -2721,249 +2842,242 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" s="48" t="s">
+    <row r="16" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="12" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+    </row>
+    <row r="19" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="21"/>
+    </row>
+    <row r="20" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:26" ht="12" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+    </row>
+    <row r="22" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1">
+      <c r="A22" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D22" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
-    </row>
-    <row r="17" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
+      <c r="E22" s="43"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+    </row>
+    <row r="23" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1">
+      <c r="A23" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="43"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+    </row>
+    <row r="24" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1">
+      <c r="A24" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B24" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C24" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D24" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
-    </row>
-    <row r="18" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="45"/>
-    </row>
-    <row r="19" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="E24" s="43"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="45"/>
+    </row>
+    <row r="25" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="C19" s="84" t="s">
-        <v>219</v>
-      </c>
-      <c r="D19" s="18"/>
-    </row>
-    <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-    </row>
-    <row r="21" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-    </row>
-    <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-    </row>
-    <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" spans="1:26" ht="12" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
@@ -2993,17 +3107,17 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" s="66" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
+      <c r="A27" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="12" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>0</v>
@@ -3033,17 +3147,17 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
     </row>
-    <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="15" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" s="66" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="12" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>0</v>
@@ -3073,39 +3187,27 @@
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
     </row>
-    <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="15" customHeight="1">
       <c r="A31" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B31">
-        <v>30998801</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" s="66" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="12" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>197</v>
-      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -3125,85 +3227,217 @@
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="15" customHeight="1">
       <c r="A33" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" s="66" customFormat="1" ht="12" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+    </row>
+    <row r="35" spans="1:26" ht="15" customHeight="1">
+      <c r="A35" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" s="48" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" s="66" customFormat="1" ht="12" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+    </row>
+    <row r="37" spans="1:26" ht="15" customHeight="1">
+      <c r="A37" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37">
+        <v>30998801</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" s="66" customFormat="1" ht="12" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+    </row>
+    <row r="39" spans="1:26" ht="15" customHeight="1">
+      <c r="A39" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39" t="s">
+        <v>199</v>
+      </c>
+      <c r="E39" t="s">
+        <v>200</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="H39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="15" customHeight="1">
+      <c r="A40" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D33" t="s">
-        <v>200</v>
-      </c>
-      <c r="E33" t="s">
-        <v>201</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="D40" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>198</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E40" t="s">
+        <v>204</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="G40" t="s">
+        <v>204</v>
+      </c>
+      <c r="H40" t="s">
         <v>205</v>
       </c>
-      <c r="E34" t="s">
-        <v>205</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="G34" t="s">
-        <v>205</v>
-      </c>
-      <c r="H34" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    </row>
+    <row r="41" spans="1:26" ht="15" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="83"/>
+    </row>
+    <row r="42" spans="1:26" ht="15" customHeight="1">
+      <c r="A42" s="66" t="s">
         <v>211</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="83"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="66" t="s">
+      <c r="B42" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="66"/>
+    </row>
+    <row r="43" spans="1:26" ht="15" customHeight="1">
+      <c r="A43" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B43" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="66"/>
-    </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="66" t="s">
+      <c r="C43" s="66" t="s">
         <v>213</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="66" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3216,11 +3450,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="36.6640625" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" customWidth="1"/>
@@ -3231,7 +3465,7 @@
     <col min="7" max="7" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="46" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>99</v>
       </c>
@@ -3269,13 +3503,13 @@
         <v>109</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N1" s="11" t="s">
         <v>103</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
@@ -3290,18 +3524,18 @@
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
     </row>
-    <row r="2" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>81</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>82</v>
@@ -3334,21 +3568,21 @@
         <v>87</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="32" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>68</v>
       </c>
       <c r="D3" s="63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
@@ -3357,24 +3591,24 @@
       <c r="L3" s="32"/>
       <c r="M3" s="32"/>
     </row>
-    <row r="4" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="27" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>81</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G4" s="32" t="s">
         <v>85</v>
@@ -3398,9 +3632,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
@@ -3412,12 +3646,12 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>95</v>
@@ -3425,22 +3659,22 @@
       <c r="D6" s="18"/>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="23" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="71" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="18"/>
+        <v>230</v>
+      </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="12" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
@@ -3449,7 +3683,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>101</v>
@@ -3461,7 +3695,7 @@
         <v>103</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>104</v>
@@ -3482,7 +3716,7 @@
         <v>109</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -3497,18 +3731,18 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
     </row>
-    <row r="9" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E9" s="62" t="s">
         <v>82</v>
@@ -3520,21 +3754,21 @@
         <v>87</v>
       </c>
       <c r="H9" s="74" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="20" customFormat="1" ht="15.6" thickBot="1">
       <c r="A10" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E10" s="65" t="s">
         <v>82</v>
@@ -3546,7 +3780,7 @@
         <v>87</v>
       </c>
       <c r="H10" s="74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I10" s="25"/>
       <c r="J10" s="32"/>
@@ -3557,18 +3791,18 @@
       <c r="O10" s="16"/>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:27" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" s="68" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A11" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="71" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="68" t="s">
         <v>209</v>
-      </c>
-      <c r="B11" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>186</v>
-      </c>
-      <c r="D11" s="68" t="s">
-        <v>210</v>
       </c>
       <c r="E11" s="72" t="s">
         <v>82</v>
@@ -3580,7 +3814,7 @@
         <v>87</v>
       </c>
       <c r="H11" s="74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I11" s="58" t="s">
         <v>98</v>
@@ -3605,15 +3839,15 @@
       </c>
       <c r="P11" s="63"/>
     </row>
-    <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="15">
       <c r="A12" s="69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" s="71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C12" s="71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D12" s="68" t="s">
         <v>44</v>
@@ -3628,7 +3862,7 @@
         <v>87</v>
       </c>
       <c r="H12" s="74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I12" s="58" t="s">
         <v>98</v>
@@ -3664,9 +3898,9 @@
       <c r="Z12" s="66"/>
       <c r="AA12" s="66"/>
     </row>
-    <row r="13" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="12" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>0</v>
@@ -3684,7 +3918,7 @@
         <v>103</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>104</v>
@@ -3705,7 +3939,7 @@
         <v>109</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="4"/>
@@ -3721,15 +3955,15 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
     </row>
-    <row r="14" spans="1:27" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" s="31" customFormat="1" ht="13.8" customHeight="1">
       <c r="A14" s="27" t="s">
         <v>97</v>
       </c>
       <c r="B14" s="71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C14" s="71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D14" s="30"/>
       <c r="F14" s="30"/>
@@ -3743,15 +3977,15 @@
       <c r="N14" s="33"/>
       <c r="O14" s="34"/>
     </row>
-    <row r="15" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" s="71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C15" s="71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D15" s="30"/>
       <c r="F15" s="30"/>
@@ -3765,18 +3999,18 @@
       <c r="N15" s="33"/>
       <c r="O15" s="34"/>
     </row>
-    <row r="16" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="70" t="s">
         <v>96</v>
       </c>
       <c r="B16" s="71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>29</v>
@@ -3785,7 +4019,7 @@
         <v>30</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H16" s="72" t="s">
         <v>82</v>
@@ -3830,9 +4064,9 @@
       <c r="Z16" s="73"/>
       <c r="AA16" s="73"/>
     </row>
-    <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="12" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>0</v>
@@ -3850,7 +4084,7 @@
         <v>103</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>104</v>
@@ -3871,7 +4105,7 @@
         <v>109</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="4"/>
@@ -3887,39 +4121,39 @@
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
     </row>
-    <row r="18" spans="1:27" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="57" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C18" s="71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D18" s="54"/>
     </row>
-    <row r="19" spans="1:27" s="40" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" s="40" customFormat="1" ht="16.2" customHeight="1">
       <c r="A19" s="57" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D19" s="54"/>
     </row>
-    <row r="20" spans="1:27" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>82</v>
@@ -3931,7 +4165,7 @@
         <v>87</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H20" s="58" t="s">
         <v>98</v>
@@ -3955,15 +4189,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" ht="15" customHeight="1">
       <c r="A21" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B21" s="71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C21" s="71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D21" s="72" t="s">
         <v>82</v>
@@ -3975,7 +4209,7 @@
         <v>87</v>
       </c>
       <c r="G21" s="74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H21" s="58" t="s">
         <v>98</v>
@@ -3999,7 +4233,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" ht="15" customHeight="1">
       <c r="A22" s="13"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -4015,7 +4249,7 @@
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
     </row>
-    <row r="24" spans="1:27" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" ht="15">
       <c r="B24" s="28"/>
       <c r="C24" s="71"/>
     </row>

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Altas y Nominacion" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="240">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Plan con tarjeta</t>
   </si>
   <si>
-    <t>Nominacion</t>
-  </si>
-  <si>
     <t>Nombre</t>
   </si>
   <si>
@@ -668,15 +665,9 @@
     <t>22222035</t>
   </si>
   <si>
-    <t>2932443385</t>
-  </si>
-  <si>
     <t>Quenico</t>
   </si>
   <si>
-    <t>15/02/1992</t>
-  </si>
-  <si>
     <t>2932443389</t>
   </si>
   <si>
@@ -714,13 +705,49 @@
   </si>
   <si>
     <t>2932443168</t>
+  </si>
+  <si>
+    <t>10777541</t>
+  </si>
+  <si>
+    <t>3574409239</t>
+  </si>
+  <si>
+    <t>N° De Linea</t>
+  </si>
+  <si>
+    <t>NominacionNuevoOfCom</t>
+  </si>
+  <si>
+    <t>NominacionExistenteOfCom</t>
+  </si>
+  <si>
+    <t>NoNominaNuevoAgente</t>
+  </si>
+  <si>
+    <t>Nodoc</t>
+  </si>
+  <si>
+    <t>Nominado</t>
+  </si>
+  <si>
+    <t>Nodocnominado@gmail.com</t>
+  </si>
+  <si>
+    <t>NominacionNuevoAgente</t>
+  </si>
+  <si>
+    <t>NominacionNuevoPasaporteOfCom</t>
+  </si>
+  <si>
+    <t>NoNominaNuevoEdadOfCom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -798,12 +825,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF666666"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
@@ -841,7 +862,7 @@
       <name val="Quattrocento Sans"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -869,6 +890,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF3715A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,7 +974,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -991,9 +1018,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1003,7 +1027,7 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1053,15 +1077,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1112,21 +1134,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1150,10 +1172,24 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1444,7 +1480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -1467,169 +1503,169 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="N1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="Q1" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="W1" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="X1" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="34" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>12</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="M2" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="P2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="34" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>12</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="M3" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="9"/>
@@ -1637,134 +1673,134 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>53</v>
       </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
       <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="34" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>12</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="M4" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="36" t="s">
+      <c r="P4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="Q4" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
         <v>55</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>56</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>57</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="M5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>82</v>
+        <v>35</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" s="22" t="s">
-        <v>87</v>
+        <v>69</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>86</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="S5" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="S5" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="T5" s="32" t="s">
+      <c r="U5" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="U5" s="32" t="s">
-        <v>42</v>
-      </c>
       <c r="V5" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W5" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X5" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" s="46" customFormat="1" ht="12.75" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="45" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -1773,19 +1809,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1793,8 +1829,8 @@
       <c r="L6" s="11"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
@@ -1806,349 +1842,349 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" s="40" customFormat="1">
-      <c r="A7" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="82" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" s="40" t="s">
+    <row r="7" spans="1:26" s="39" customFormat="1">
+      <c r="A7" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-    </row>
-    <row r="8" spans="1:26" s="40" customFormat="1">
-      <c r="A8" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="82" t="s">
-        <v>214</v>
-      </c>
-      <c r="C8" s="40" t="s">
+      <c r="E7" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+    </row>
+    <row r="8" spans="1:26" s="39" customFormat="1">
+      <c r="A8" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L9" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="O9" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="Q9" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="R9" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="S9" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="R9" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="S9" s="11" t="s">
+      <c r="T9" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="U9" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="V9" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="V9" s="11" t="s">
+      <c r="W9" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="W9" s="11" t="s">
+      <c r="X9" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="X9" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="Y9" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="47" t="s">
-        <v>92</v>
+      <c r="I10" s="46" t="s">
+        <v>91</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="N10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
         <v>59</v>
       </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="K11" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="M11" s="39" t="s">
+      <c r="L11" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="M11" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="O11" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="O11" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="P11" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q11" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="R11" s="78" t="s">
+      <c r="P11" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="R11" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="T11" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="U11" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="V11" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="W11" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="X11" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y11" s="78" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="39" customFormat="1">
+      <c r="A12" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="S11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="T11" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="U11" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="V11" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="W11" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="X11" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y11" s="81" t="s">
+      <c r="C12" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="50" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" s="40" customFormat="1">
-      <c r="A12" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="52" t="s">
+      <c r="E12" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="50" t="s">
+      <c r="G12" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="53" t="s">
+      <c r="H12" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="47" t="s">
-        <v>92</v>
-      </c>
       <c r="J12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="L12" s="47"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
+        <v>171</v>
+      </c>
+      <c r="L12" s="46"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
         <v>47</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="47" t="s">
-        <v>92</v>
+      <c r="I13" s="46" t="s">
+        <v>91</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N13" s="38" t="s">
-        <v>36</v>
+      <c r="N13" s="37" t="s">
+        <v>35</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -2157,32 +2193,32 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
@@ -2196,16 +2232,16 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="82" t="s">
-        <v>214</v>
+        <v>44</v>
+      </c>
+      <c r="B15" s="79" t="s">
+        <v>213</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8"/>
@@ -2213,86 +2249,86 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="39"/>
+      <c r="K15" s="38"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:26" s="40" customFormat="1">
-      <c r="A16" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="82" t="s">
-        <v>214</v>
-      </c>
-      <c r="C16" s="40" t="s">
+    <row r="16" spans="1:26" s="39" customFormat="1">
+      <c r="A16" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="55" t="s">
+      <c r="D16" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-    </row>
-    <row r="17" spans="1:26" s="46" customFormat="1" ht="12.75" customHeight="1">
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+    </row>
+    <row r="17" spans="1:26" s="45" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H17" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K17" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="N17" s="3"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -2304,131 +2340,131 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:26" s="40" customFormat="1">
-      <c r="A18" s="52" t="s">
+    <row r="18" spans="1:26" s="39" customFormat="1">
+      <c r="A18" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+    </row>
+    <row r="19" spans="1:26" s="39" customFormat="1">
+      <c r="A19" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="B18" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-    </row>
-    <row r="19" spans="1:26" s="40" customFormat="1">
-      <c r="A19" s="52" t="s">
+      <c r="B19" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+    </row>
+    <row r="20" spans="1:26" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A20" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="K19" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-    </row>
-    <row r="20" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="B20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="N20" s="3"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
@@ -2440,62 +2476,309 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:26" s="40" customFormat="1">
-      <c r="A21" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="82" t="s">
-        <v>215</v>
-      </c>
-      <c r="C21" s="50" t="s">
+    <row r="21" spans="1:26" s="39" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A21" s="92" t="s">
+        <v>231</v>
+      </c>
+      <c r="B21" s="92">
+        <v>2932443385</v>
+      </c>
+      <c r="C21" s="92">
+        <v>22222035</v>
+      </c>
+      <c r="D21" s="92" t="s">
         <v>214</v>
       </c>
-      <c r="D21" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="H21" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="K21" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="L21" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="M21" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-    </row>
-    <row r="23" spans="1:26">
-      <c r="B23" s="59"/>
-    </row>
-    <row r="25" spans="1:26">
-      <c r="B25" s="77"/>
-    </row>
-    <row r="26" spans="1:26">
-      <c r="D26" s="95"/>
+      <c r="E21" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="93">
+        <v>33649</v>
+      </c>
+      <c r="H21" s="94" t="s">
+        <v>183</v>
+      </c>
+      <c r="I21" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="92">
+        <v>1524</v>
+      </c>
+      <c r="M21" s="92">
+        <v>1524</v>
+      </c>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="92"/>
+      <c r="S21" s="92"/>
+      <c r="T21" s="92"/>
+      <c r="U21" s="92"/>
+      <c r="V21" s="92"/>
+      <c r="W21" s="92"/>
+      <c r="X21" s="92"/>
+      <c r="Y21" s="92"/>
+      <c r="Z21" s="92"/>
+    </row>
+    <row r="22" spans="1:26" ht="18" customHeight="1" thickBot="1">
+      <c r="A22" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" s="92">
+        <v>2932443385</v>
+      </c>
+      <c r="C22" s="92">
+        <v>22222035</v>
+      </c>
+      <c r="D22" s="92" t="s">
+        <v>214</v>
+      </c>
+      <c r="E22" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="93">
+        <v>33649</v>
+      </c>
+      <c r="H22" s="94" t="s">
+        <v>183</v>
+      </c>
+      <c r="I22" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="92">
+        <v>1524</v>
+      </c>
+      <c r="M22" s="92">
+        <v>1524</v>
+      </c>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="92"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="92"/>
+      <c r="V22" s="92"/>
+      <c r="W22" s="92"/>
+      <c r="X22" s="92"/>
+      <c r="Y22" s="92"/>
+      <c r="Z22" s="92"/>
+    </row>
+    <row r="23" spans="1:26" ht="13.8" thickBot="1">
+      <c r="A23" s="92" t="s">
+        <v>233</v>
+      </c>
+      <c r="B23" s="92">
+        <v>2932443385</v>
+      </c>
+      <c r="C23" s="92">
+        <v>22222035</v>
+      </c>
+      <c r="D23" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="E23" s="92" t="s">
+        <v>235</v>
+      </c>
+      <c r="F23" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="93">
+        <v>33649</v>
+      </c>
+      <c r="H23" s="95" t="s">
+        <v>236</v>
+      </c>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="92"/>
+      <c r="R23" s="92"/>
+      <c r="S23" s="92"/>
+      <c r="T23" s="92"/>
+      <c r="U23" s="92"/>
+      <c r="V23" s="92"/>
+      <c r="W23" s="92"/>
+      <c r="X23" s="92"/>
+      <c r="Y23" s="92"/>
+      <c r="Z23" s="92"/>
+    </row>
+    <row r="24" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A24" s="92" t="s">
+        <v>237</v>
+      </c>
+      <c r="B24" s="92">
+        <v>2932443385</v>
+      </c>
+      <c r="C24" s="92">
+        <v>22222035</v>
+      </c>
+      <c r="D24" s="92" t="s">
+        <v>214</v>
+      </c>
+      <c r="E24" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="93">
+        <v>33649</v>
+      </c>
+      <c r="H24" s="94" t="s">
+        <v>183</v>
+      </c>
+      <c r="I24" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="92">
+        <v>1524</v>
+      </c>
+      <c r="M24" s="92">
+        <v>1524</v>
+      </c>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="92"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="92"/>
+      <c r="T24" s="92"/>
+      <c r="U24" s="92"/>
+      <c r="V24" s="92"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="92"/>
+      <c r="Y24" s="92"/>
+      <c r="Z24" s="92"/>
+    </row>
+    <row r="25" spans="1:26" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A25" s="92" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" s="92">
+        <v>2932478762</v>
+      </c>
+      <c r="C25" s="92">
+        <v>132869547</v>
+      </c>
+      <c r="D25" s="92" t="s">
+        <v>214</v>
+      </c>
+      <c r="E25" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="93">
+        <v>43758</v>
+      </c>
+      <c r="H25" s="96">
+        <v>33649</v>
+      </c>
+      <c r="I25" s="94" t="s">
+        <v>183</v>
+      </c>
+      <c r="J25" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="L25" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="92">
+        <v>1524</v>
+      </c>
+      <c r="N25" s="92">
+        <v>1524</v>
+      </c>
+      <c r="O25" s="92"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="92"/>
+      <c r="R25" s="92"/>
+      <c r="S25" s="92"/>
+      <c r="T25" s="92"/>
+      <c r="U25" s="92"/>
+      <c r="V25" s="92"/>
+      <c r="W25" s="92"/>
+      <c r="X25" s="92"/>
+      <c r="Y25" s="92"/>
+      <c r="Z25" s="92"/>
+    </row>
+    <row r="26" spans="1:26" ht="13.8" thickBot="1">
+      <c r="A26" s="92" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" s="92">
+        <v>2932443385</v>
+      </c>
+      <c r="C26" s="92">
+        <v>22222035</v>
+      </c>
+      <c r="D26" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="93">
+        <v>40224</v>
+      </c>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="92"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="92"/>
+      <c r="W26" s="92"/>
+      <c r="X26" s="92"/>
+      <c r="Y26" s="92"/>
+      <c r="Z26" s="92"/>
     </row>
     <row r="29" spans="1:26">
       <c r="B29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2509,10 +2792,15 @@
     <hyperlink ref="G11" r:id="rId7"/>
     <hyperlink ref="G12" r:id="rId8"/>
     <hyperlink ref="G19" r:id="rId9"/>
-    <hyperlink ref="H21" r:id="rId10"/>
+    <hyperlink ref="H21" r:id="rId10" display="mailto:Torrecaida@gmail.com"/>
+    <hyperlink ref="H22" r:id="rId11" display="mailto:Torrecaida@gmail.com"/>
+    <hyperlink ref="H23" r:id="rId12" display="mailto:Nodocnominado@gmail.com"/>
+    <hyperlink ref="H24" r:id="rId13" display="mailto:Torrecaida@gmail.com"/>
+    <hyperlink ref="H25" r:id="rId14" display="mailto:Nominacionautoma@gmail.com"/>
+    <hyperlink ref="I25" r:id="rId15" display="mailto:Nominacionautoma@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -2520,8 +2808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2541,24 +2829,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="87" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="88" t="s">
+      <c r="E1" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="89" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -2578,241 +2866,241 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="92" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="92" t="s">
+    <row r="2" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A2" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="90">
+        <v>1161138551</v>
+      </c>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+    </row>
+    <row r="3" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90">
+        <v>1161138552</v>
+      </c>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+    </row>
+    <row r="4" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A4" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+    </row>
+    <row r="5" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A5" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="90"/>
+      <c r="E5" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+    </row>
+    <row r="6" spans="1:26" s="70" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A6" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="89" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="88"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+    </row>
+    <row r="7" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A7" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+    </row>
+    <row r="8" spans="1:26" s="70" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A8" s="90" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="89" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="88"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+    </row>
+    <row r="9" spans="1:26" s="70" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A9" s="88" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+    </row>
+    <row r="10" spans="1:26" s="70" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A10" s="88" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88" t="s">
+        <v>223</v>
+      </c>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+    </row>
+    <row r="11" spans="1:26" s="70" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A11" s="88" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+    </row>
+    <row r="12" spans="1:26" s="70" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A12" s="88" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="89" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88" t="s">
+        <v>225</v>
+      </c>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+    </row>
+    <row r="13" spans="1:26" s="70" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A13" s="88" t="s">
         <v>218</v>
       </c>
-      <c r="D2" s="93">
-        <v>1161138551</v>
-      </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-    </row>
-    <row r="3" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="92" t="s">
-        <v>214</v>
-      </c>
-      <c r="C3" s="92" t="s">
+      <c r="B13" s="89" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="89" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+    </row>
+    <row r="14" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A14" s="88" t="s">
         <v>218</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93">
-        <v>1161138552</v>
-      </c>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-    </row>
-    <row r="4" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="91" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" s="92" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" s="92" t="s">
-        <v>218</v>
-      </c>
-      <c r="D4" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-    </row>
-    <row r="5" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="91" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="92" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="92" t="s">
-        <v>218</v>
-      </c>
-      <c r="D5" s="93"/>
-      <c r="E5" s="91" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-    </row>
-    <row r="6" spans="1:26" s="73" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="91" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="92" t="s">
-        <v>214</v>
-      </c>
-      <c r="C6" s="92" t="s">
-        <v>218</v>
-      </c>
-      <c r="D6" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="91"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-    </row>
-    <row r="7" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="91" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="92" t="s">
-        <v>214</v>
-      </c>
-      <c r="C7" s="92" t="s">
-        <v>218</v>
-      </c>
-      <c r="D7" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-    </row>
-    <row r="8" spans="1:26" s="73" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A8" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="B8" s="92" t="s">
-        <v>214</v>
-      </c>
-      <c r="C8" s="92" t="s">
-        <v>218</v>
-      </c>
-      <c r="D8" s="91"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-    </row>
-    <row r="9" spans="1:26" s="73" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A9" s="91" t="s">
+      <c r="B14" s="89" t="s">
         <v>219</v>
       </c>
-      <c r="B9" s="92" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="92" t="s">
-        <v>223</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-    </row>
-    <row r="10" spans="1:26" s="73" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A10" s="91" t="s">
-        <v>219</v>
-      </c>
-      <c r="B10" s="92" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="92" t="s">
-        <v>223</v>
-      </c>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91" t="s">
-        <v>226</v>
-      </c>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-    </row>
-    <row r="11" spans="1:26" s="73" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A11" s="91" t="s">
-        <v>220</v>
-      </c>
-      <c r="B11" s="92" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" s="92" t="s">
-        <v>224</v>
-      </c>
-      <c r="D11" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-    </row>
-    <row r="12" spans="1:26" s="73" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A12" s="91" t="s">
-        <v>220</v>
-      </c>
-      <c r="B12" s="92" t="s">
-        <v>222</v>
-      </c>
-      <c r="C12" s="92" t="s">
-        <v>224</v>
-      </c>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91" t="s">
-        <v>228</v>
-      </c>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-    </row>
-    <row r="13" spans="1:26" s="73" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A13" s="91" t="s">
+      <c r="C14" s="89" t="s">
         <v>221</v>
       </c>
-      <c r="B13" s="92" t="s">
-        <v>222</v>
-      </c>
-      <c r="C13" s="92" t="s">
-        <v>224</v>
-      </c>
-      <c r="D13" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-    </row>
-    <row r="14" spans="1:26" s="31" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A14" s="91" t="s">
-        <v>221</v>
-      </c>
-      <c r="B14" s="92" t="s">
-        <v>222</v>
-      </c>
-      <c r="C14" s="92" t="s">
-        <v>224</v>
-      </c>
-      <c r="D14" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
+      <c r="D14" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
     </row>
     <row r="15" spans="1:26" ht="12" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>0</v>
@@ -2843,39 +3131,39 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="23" t="s">
-        <v>169</v>
+      <c r="A16" s="22" t="s">
+        <v>168</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="20" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="17" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>176</v>
+      <c r="A17" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="12" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="11"/>
@@ -2902,35 +3190,40 @@
       <c r="Z18" s="4"/>
     </row>
     <row r="19" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="C19" s="21"/>
+      <c r="A19" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" s="81" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="20" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="E20" s="24"/>
+      <c r="A20" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="81" t="s">
+        <v>215</v>
+      </c>
+      <c r="E20" s="23"/>
     </row>
     <row r="21" spans="1:26" ht="12" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>129</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="5"/>
@@ -2955,134 +3248,136 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
     </row>
-    <row r="22" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="B22" s="48" t="s">
+    <row r="22" spans="1:26" s="39" customFormat="1" ht="12" customHeight="1">
+      <c r="A22" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44"/>
+    </row>
+    <row r="23" spans="1:26" s="39" customFormat="1" ht="12" customHeight="1">
+      <c r="A23" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
+    </row>
+    <row r="24" spans="1:26" s="39" customFormat="1" ht="12" customHeight="1">
+      <c r="A24" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="44"/>
+    </row>
+    <row r="25" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="45"/>
-    </row>
-    <row r="23" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
-    </row>
-    <row r="24" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="45"/>
-      <c r="Z24" s="45"/>
-    </row>
-    <row r="25" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="C25" s="84" t="s">
-        <v>218</v>
+      <c r="B25" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25" s="81" t="s">
+        <v>215</v>
       </c>
       <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
       <c r="F26" s="5"/>
@@ -3109,15 +3404,18 @@
     </row>
     <row r="27" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>214</v>
+        <v>93</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="12" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>0</v>
@@ -3149,15 +3447,15 @@
     </row>
     <row r="29" spans="1:26" ht="15" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>165</v>
+        <v>147</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="12" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>0</v>
@@ -3189,15 +3487,15 @@
     </row>
     <row r="31" spans="1:26" ht="15" customHeight="1">
       <c r="A31" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>164</v>
+        <v>148</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="12" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>0</v>
@@ -3229,15 +3527,15 @@
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1">
       <c r="A33" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" s="66" customFormat="1" ht="12" customHeight="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" s="63" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>0</v>
@@ -3269,15 +3567,15 @@
     </row>
     <row r="35" spans="1:26" ht="15" customHeight="1">
       <c r="A35" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B35" s="48" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" s="66" customFormat="1" ht="12" customHeight="1">
+        <v>181</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" s="63" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>0</v>
@@ -3309,36 +3607,36 @@
     </row>
     <row r="37" spans="1:26" ht="15" customHeight="1">
       <c r="A37" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B37">
         <v>30998801</v>
       </c>
     </row>
-    <row r="38" spans="1:26" s="66" customFormat="1" ht="12" customHeight="1">
+    <row r="38" spans="1:26" s="63" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="H38" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -3361,83 +3659,83 @@
     </row>
     <row r="39" spans="1:26" ht="15" customHeight="1">
       <c r="A39" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D39" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39" t="s">
         <v>199</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="G39" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="H39" t="s">
         <v>202</v>
-      </c>
-      <c r="H39" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="15" customHeight="1">
       <c r="A40" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>198</v>
-      </c>
       <c r="C40" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D40" t="s">
+        <v>203</v>
+      </c>
+      <c r="E40" t="s">
+        <v>203</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G40" t="s">
+        <v>203</v>
+      </c>
+      <c r="H40" t="s">
         <v>204</v>
-      </c>
-      <c r="E40" t="s">
-        <v>204</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="G40" t="s">
-        <v>204</v>
-      </c>
-      <c r="H40" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="15" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="83"/>
+      <c r="C41" s="80"/>
     </row>
     <row r="42" spans="1:26" ht="15" customHeight="1">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="63"/>
+    </row>
+    <row r="43" spans="1:26" ht="15" customHeight="1">
+      <c r="A43" s="63" t="s">
         <v>211</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="66"/>
-    </row>
-    <row r="43" spans="1:26" ht="15" customHeight="1">
-      <c r="A43" s="66" t="s">
+      <c r="B43" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="63" t="s">
         <v>212</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="66" t="s">
-        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3465,51 +3763,51 @@
     <col min="7" max="7" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="46" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:27" s="45" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>103</v>
-      </c>
       <c r="O1" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
@@ -3524,199 +3822,199 @@
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
     </row>
-    <row r="2" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="29" t="s">
+    <row r="2" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="63" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="33" t="s">
+      <c r="F2" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="32" t="s">
+      <c r="H2" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="31">
+        <v>19784521</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+    </row>
+    <row r="4" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="32">
+      <c r="B4" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="30">
+        <v>1</v>
+      </c>
+      <c r="I4" s="30">
+        <v>2019</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="30">
         <v>19784521</v>
       </c>
-      <c r="M2" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="O2" s="32" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>214</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="63" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-    </row>
-    <row r="4" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="71" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="63" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="32" t="s">
+      <c r="M4" s="30" t="s">
         <v>85</v>
-      </c>
-      <c r="H4" s="31">
-        <v>1</v>
-      </c>
-      <c r="I4" s="31">
-        <v>2019</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="31">
-        <v>19784521</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>17</v>
+      <c r="C5" s="25" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="71" t="s">
-        <v>214</v>
+      <c r="A6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>213</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="71" t="s">
-        <v>229</v>
+      <c r="A7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>226</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:27" ht="12" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>17</v>
+      <c r="C8" s="25" t="s">
+        <v>16</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="M8" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="N8" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="N8" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="O8" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -3732,214 +4030,214 @@
       <c r="AA8" s="4"/>
     </row>
     <row r="9" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="71" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="20" customFormat="1" ht="15.6" thickBot="1">
+      <c r="A10" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="71" t="s">
-        <v>214</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="D9" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="74" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" s="20" customFormat="1" ht="15.6" thickBot="1">
-      <c r="A10" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>214</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
+      <c r="B10" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
       <c r="M10" s="18"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:27" s="68" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="69" t="s">
+    <row r="11" spans="1:27" s="65" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A11" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="B11" s="71" t="s">
-        <v>229</v>
-      </c>
-      <c r="C11" s="94" t="s">
-        <v>230</v>
-      </c>
-      <c r="D11" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="E11" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="I11" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="J11" s="74" t="s">
+      <c r="E11" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="I11" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="74" t="s">
+      <c r="L11" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O11" s="28" t="s">
+      <c r="M11" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" s="60"/>
+    </row>
+    <row r="12" spans="1:27" ht="15">
+      <c r="A12" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="P11" s="63"/>
-    </row>
-    <row r="12" spans="1:27" ht="15">
-      <c r="A12" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="71" t="s">
-        <v>214</v>
-      </c>
-      <c r="C12" s="71" t="s">
-        <v>185</v>
-      </c>
-      <c r="D12" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="I12" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="J12" s="74" t="s">
+      <c r="H12" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="74" t="s">
+      <c r="L12" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="L12" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O12" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
+      <c r="M12" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="63"/>
     </row>
     <row r="13" spans="1:27" ht="12" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>17</v>
+      <c r="C13" s="25" t="s">
+        <v>16</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="H13" s="11" t="s">
+      <c r="I13" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="J13" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="L13" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="M13" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="M13" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="N13" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="4"/>
@@ -3955,157 +4253,157 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
     </row>
-    <row r="14" spans="1:27" s="31" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="1:27" s="30" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A14" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="33"/>
+    </row>
+    <row r="15" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="33"/>
+    </row>
+    <row r="16" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="H16" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="71" t="s">
-        <v>214</v>
-      </c>
-      <c r="C14" s="71" t="s">
-        <v>185</v>
-      </c>
-      <c r="D14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="34"/>
-    </row>
-    <row r="15" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="71" t="s">
-        <v>214</v>
-      </c>
-      <c r="C15" s="71" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="34"/>
-    </row>
-    <row r="16" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="71" t="s">
-        <v>214</v>
-      </c>
-      <c r="C16" s="71" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="H16" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="K16" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" s="74" t="s">
-        <v>98</v>
-      </c>
-      <c r="M16" s="74" t="s">
+      <c r="M16" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="N16" s="74" t="s">
+      <c r="O16" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="O16" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="P16" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q16" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="R16" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="73"/>
+      <c r="P16" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="R16" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="70"/>
+      <c r="AA16" s="70"/>
     </row>
     <row r="17" spans="1:27" ht="12" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>17</v>
+      <c r="C17" s="25" t="s">
+        <v>16</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="F17" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="G17" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="H17" s="11" t="s">
+      <c r="I17" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="J17" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="K17" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="L17" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="M17" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="M17" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="N17" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="4"/>
@@ -4121,137 +4419,137 @@
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
     </row>
-    <row r="18" spans="1:27" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="57" t="s">
+    <row r="18" spans="1:27" s="39" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="52"/>
+    </row>
+    <row r="19" spans="1:27" s="39" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A19" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="71" t="s">
-        <v>214</v>
-      </c>
-      <c r="C18" s="71" t="s">
-        <v>185</v>
-      </c>
-      <c r="D18" s="54"/>
-    </row>
-    <row r="19" spans="1:27" s="40" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A19" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="71" t="s">
-        <v>214</v>
-      </c>
-      <c r="C19" s="71" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="54"/>
-    </row>
-    <row r="20" spans="1:27" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="71" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="71" t="s">
-        <v>185</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="H20" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="I20" s="32" t="s">
+      <c r="B19" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="52"/>
+    </row>
+    <row r="20" spans="1:27" s="39" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="H20" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="32" t="s">
+      <c r="K20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="K20" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="L20" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="N20" s="28" t="s">
-        <v>86</v>
+      <c r="L20" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" s="27" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1">
       <c r="A21" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" s="71" t="s">
-        <v>214</v>
-      </c>
-      <c r="C21" s="71" t="s">
-        <v>185</v>
-      </c>
-      <c r="D21" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="H21" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" s="74" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="H21" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="74" t="s">
+      <c r="K21" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="L21" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="N21" s="28" t="s">
-        <v>86</v>
+      <c r="L21" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="N21" s="27" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1">
       <c r="A22" s="13"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="22"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
       <c r="L22" s="18"/>
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
     </row>
     <row r="24" spans="1:27" ht="15">
-      <c r="B24" s="28"/>
-      <c r="C24" s="71"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Altas y Nominacion" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="253">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -741,6 +741,45 @@
   </si>
   <si>
     <t>NoNominaNuevoEdadOfCom</t>
+  </si>
+  <si>
+    <t>NoNominaNuevoTelefonico</t>
+  </si>
+  <si>
+    <t>2932478560</t>
+  </si>
+  <si>
+    <t>22222081</t>
+  </si>
+  <si>
+    <t>15/02/1992</t>
+  </si>
+  <si>
+    <t>NominacionNuevoPyROfCom</t>
+  </si>
+  <si>
+    <t>3413102715</t>
+  </si>
+  <si>
+    <t>95797248</t>
+  </si>
+  <si>
+    <t>Flor</t>
+  </si>
+  <si>
+    <t>IMEI</t>
+  </si>
+  <si>
+    <t>Gestion Servcio Tecnico IMEI</t>
+  </si>
+  <si>
+    <t>Servicio  Tecnico</t>
+  </si>
+  <si>
+    <t>3574409493</t>
+  </si>
+  <si>
+    <t>111111111111111</t>
   </si>
 </sst>
 </file>
@@ -862,7 +901,7 @@
       <name val="Quattrocento Sans"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -893,14 +932,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -967,6 +1000,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -974,7 +1018,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1175,21 +1219,28 @@
     <xf numFmtId="49" fontId="18" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1480,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -2776,6 +2827,104 @@
       <c r="Y26" s="92"/>
       <c r="Z26" s="92"/>
     </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="97" t="s">
+        <v>240</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="F27" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="H27" s="99" t="s">
+        <v>236</v>
+      </c>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="97" t="s">
+        <v>244</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="H28" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="I28" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="K28" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="M28" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N28" s="49"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
+    </row>
     <row r="29" spans="1:26">
       <c r="B29" t="s">
         <v>157</v>
@@ -2798,18 +2947,20 @@
     <hyperlink ref="H24" r:id="rId13" display="mailto:Torrecaida@gmail.com"/>
     <hyperlink ref="H25" r:id="rId14" display="mailto:Nominacionautoma@gmail.com"/>
     <hyperlink ref="I25" r:id="rId15" display="mailto:Nominacionautoma@gmail.com"/>
+    <hyperlink ref="H27" r:id="rId16"/>
+    <hyperlink ref="H28" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3738,6 +3889,34 @@
         <v>212</v>
       </c>
     </row>
+    <row r="44" spans="1:26" ht="15" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" ht="15" customHeight="1">
+      <c r="A45" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3749,7 +3928,7 @@
   <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Altas y Nominacion" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="260">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -780,6 +780,27 @@
   </si>
   <si>
     <t>111111111111111</t>
+  </si>
+  <si>
+    <t>Gestion Base de Conocimiento</t>
+  </si>
+  <si>
+    <t>DatosConocimientos</t>
+  </si>
+  <si>
+    <t>2932443385</t>
+  </si>
+  <si>
+    <t>2932478762</t>
+  </si>
+  <si>
+    <t>132869547</t>
+  </si>
+  <si>
+    <t>15/02/2010</t>
+  </si>
+  <si>
+    <t>20/10/2019</t>
   </si>
 </sst>
 </file>
@@ -1231,9 +1252,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1241,6 +1259,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1529,10 +1548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z29"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -2531,11 +2550,11 @@
       <c r="A21" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="B21" s="92">
-        <v>2932443385</v>
-      </c>
-      <c r="C21" s="92">
-        <v>22222035</v>
+      <c r="B21" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>213</v>
       </c>
       <c r="D21" s="92" t="s">
         <v>214</v>
@@ -2546,8 +2565,8 @@
       <c r="F21" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="93">
-        <v>33649</v>
+      <c r="G21" s="49" t="s">
+        <v>243</v>
       </c>
       <c r="H21" s="94" t="s">
         <v>183</v>
@@ -2585,11 +2604,11 @@
       <c r="A22" s="92" t="s">
         <v>232</v>
       </c>
-      <c r="B22" s="92">
-        <v>2932443385</v>
-      </c>
-      <c r="C22" s="92">
-        <v>22222035</v>
+      <c r="B22" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>213</v>
       </c>
       <c r="D22" s="92" t="s">
         <v>214</v>
@@ -2600,8 +2619,8 @@
       <c r="F22" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="93">
-        <v>33649</v>
+      <c r="G22" s="49" t="s">
+        <v>243</v>
       </c>
       <c r="H22" s="94" t="s">
         <v>183</v>
@@ -2639,11 +2658,11 @@
       <c r="A23" s="92" t="s">
         <v>233</v>
       </c>
-      <c r="B23" s="92">
-        <v>2932443385</v>
-      </c>
-      <c r="C23" s="92">
-        <v>22222035</v>
+      <c r="B23" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>213</v>
       </c>
       <c r="D23" s="92" t="s">
         <v>234</v>
@@ -2654,8 +2673,8 @@
       <c r="F23" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="93">
-        <v>33649</v>
+      <c r="G23" s="49" t="s">
+        <v>243</v>
       </c>
       <c r="H23" s="95" t="s">
         <v>236</v>
@@ -2683,11 +2702,11 @@
       <c r="A24" s="92" t="s">
         <v>237</v>
       </c>
-      <c r="B24" s="92">
-        <v>2932443385</v>
-      </c>
-      <c r="C24" s="92">
-        <v>22222035</v>
+      <c r="B24" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>213</v>
       </c>
       <c r="D24" s="92" t="s">
         <v>214</v>
@@ -2698,8 +2717,8 @@
       <c r="F24" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="93">
-        <v>33649</v>
+      <c r="G24" s="49" t="s">
+        <v>243</v>
       </c>
       <c r="H24" s="94" t="s">
         <v>183</v>
@@ -2737,11 +2756,11 @@
       <c r="A25" s="92" t="s">
         <v>238</v>
       </c>
-      <c r="B25" s="92">
-        <v>2932478762</v>
-      </c>
-      <c r="C25" s="92">
-        <v>132869547</v>
+      <c r="B25" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>257</v>
       </c>
       <c r="D25" s="92" t="s">
         <v>214</v>
@@ -2752,11 +2771,11 @@
       <c r="F25" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="93">
-        <v>43758</v>
-      </c>
-      <c r="H25" s="96">
-        <v>33649</v>
+      <c r="G25" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="H25" s="99" t="s">
+        <v>243</v>
       </c>
       <c r="I25" s="94" t="s">
         <v>183</v>
@@ -2793,17 +2812,17 @@
       <c r="A26" s="92" t="s">
         <v>239</v>
       </c>
-      <c r="B26" s="92">
-        <v>2932443385</v>
-      </c>
-      <c r="C26" s="92">
-        <v>22222035</v>
+      <c r="B26" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>213</v>
       </c>
       <c r="D26" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="93">
-        <v>40224</v>
+      <c r="E26" s="9" t="s">
+        <v>258</v>
       </c>
       <c r="F26" s="92"/>
       <c r="G26" s="92"/>
@@ -2828,7 +2847,7 @@
       <c r="Z26" s="92"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="97" t="s">
+      <c r="A27" s="96" t="s">
         <v>240</v>
       </c>
       <c r="B27" s="49" t="s">
@@ -2843,13 +2862,13 @@
       <c r="E27" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="F27" s="98" t="s">
+      <c r="F27" s="97" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="H27" s="99" t="s">
+      <c r="H27" s="98" t="s">
         <v>236</v>
       </c>
       <c r="I27" s="49"/>
@@ -2872,7 +2891,7 @@
       <c r="Z27" s="39"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="97" t="s">
+      <c r="A28" s="96" t="s">
         <v>244</v>
       </c>
       <c r="B28" s="49" t="s">
@@ -2925,10 +2944,22 @@
       <c r="Y28" s="39"/>
       <c r="Z28" s="39"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" ht="13.8" thickBot="1">
       <c r="B29" t="s">
         <v>157</v>
       </c>
+    </row>
+    <row r="30" spans="1:26" ht="13.8" thickBot="1">
+      <c r="G30" s="93"/>
+    </row>
+    <row r="31" spans="1:26" ht="13.8" thickBot="1">
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="E31" s="93"/>
+    </row>
+    <row r="32" spans="1:26" ht="13.8" thickBot="1">
+      <c r="B32" s="92"/>
+      <c r="G32" s="93"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2945,22 +2976,21 @@
     <hyperlink ref="H22" r:id="rId11" display="mailto:Torrecaida@gmail.com"/>
     <hyperlink ref="H23" r:id="rId12" display="mailto:Nodocnominado@gmail.com"/>
     <hyperlink ref="H24" r:id="rId13" display="mailto:Torrecaida@gmail.com"/>
-    <hyperlink ref="H25" r:id="rId14" display="mailto:Nominacionautoma@gmail.com"/>
-    <hyperlink ref="I25" r:id="rId15" display="mailto:Nominacionautoma@gmail.com"/>
-    <hyperlink ref="H27" r:id="rId16"/>
-    <hyperlink ref="H28" r:id="rId17"/>
+    <hyperlink ref="I25" r:id="rId14" display="mailto:Nominacionautoma@gmail.com"/>
+    <hyperlink ref="H27" r:id="rId15"/>
+    <hyperlink ref="H28" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z45"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3917,6 +3947,28 @@
         <v>252</v>
       </c>
     </row>
+    <row r="46" spans="1:26" ht="15" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="15" customHeight="1">
+      <c r="A47" t="s">
+        <v>254</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3928,7 +3980,7 @@
   <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Altas y Nominacion" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="262">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -801,6 +801,12 @@
   </si>
   <si>
     <t>20/10/2019</t>
+  </si>
+  <si>
+    <t>Gestion Historia De  Recarga</t>
+  </si>
+  <si>
+    <t>HistorialRecargaSOS</t>
   </si>
 </sst>
 </file>
@@ -1550,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -2987,10 +2993,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3967,6 +3973,28 @@
       </c>
       <c r="C47" s="9" t="s">
         <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="15" customHeight="1">
+      <c r="A48" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" customHeight="1">
+      <c r="A49" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="268">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -773,15 +773,9 @@
     <t>Gestion Servcio Tecnico IMEI</t>
   </si>
   <si>
-    <t>Servicio  Tecnico</t>
-  </si>
-  <si>
     <t>3574409493</t>
   </si>
   <si>
-    <t>111111111111111</t>
-  </si>
-  <si>
     <t>Gestion Base de Conocimiento</t>
   </si>
   <si>
@@ -807,6 +801,30 @@
   </si>
   <si>
     <t>HistorialRecargaSOS</t>
+  </si>
+  <si>
+    <t>E-Mail</t>
+  </si>
+  <si>
+    <t>Medio De Contacto</t>
+  </si>
+  <si>
+    <t>Tipo de Operacion</t>
+  </si>
+  <si>
+    <t>Servicio  Tecnico Reparacion</t>
+  </si>
+  <si>
+    <t>Servicio  Tecnico Configuracion</t>
+  </si>
+  <si>
+    <t>545229703256200</t>
+  </si>
+  <si>
+    <t>Reparacion</t>
+  </si>
+  <si>
+    <t>Configuración</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1063,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1266,6 +1284,9 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -2557,7 +2578,7 @@
         <v>231</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C21" s="49" t="s">
         <v>213</v>
@@ -2611,7 +2632,7 @@
         <v>232</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C22" s="49" t="s">
         <v>213</v>
@@ -2665,7 +2686,7 @@
         <v>233</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C23" s="49" t="s">
         <v>213</v>
@@ -2709,7 +2730,7 @@
         <v>237</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C24" s="49" t="s">
         <v>213</v>
@@ -2763,10 +2784,10 @@
         <v>238</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D25" s="92" t="s">
         <v>214</v>
@@ -2778,7 +2799,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H25" s="99" t="s">
         <v>243</v>
@@ -2819,7 +2840,7 @@
         <v>239</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C26" s="49" t="s">
         <v>213</v>
@@ -2828,7 +2849,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F26" s="92"/>
       <c r="G26" s="92"/>
@@ -2993,10 +3014,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z49"/>
+  <dimension ref="A1:Z50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3006,8 +3027,8 @@
     <col min="3" max="3" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5546875" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
     <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="13" width="11.5546875" customWidth="1"/>
     <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
@@ -3932,74 +3953,121 @@
       <c r="B44" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" ht="15" customHeight="1">
+      <c r="F44" s="85" t="s">
+        <v>261</v>
+      </c>
+      <c r="G44" s="85" t="s">
+        <v>262</v>
+      </c>
+      <c r="H44" s="100"/>
+    </row>
+    <row r="45" spans="1:26" s="39" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C45" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="1:26" ht="15" customHeight="1">
+      <c r="A46" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="15" customHeight="1">
+      <c r="A47" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="B47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="15" customHeight="1">
+      <c r="A48" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" ht="15" customHeight="1">
-      <c r="A46" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B46" s="3" t="s">
+      <c r="B48" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" customHeight="1">
+      <c r="A49" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="15" customHeight="1">
-      <c r="A47" t="s">
-        <v>254</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" ht="15" customHeight="1">
-      <c r="A48" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B49" s="9" t="s">
+    <row r="50" spans="1:3" ht="15" customHeight="1">
+      <c r="A50" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>251</v>
+      <c r="C50" s="9" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D45" r:id="rId1"/>
+    <hyperlink ref="D46" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Altas y Nominacion" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="298">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -269,9 +269,6 @@
     <t>HSBC BANK ARGENTINA S.A.</t>
   </si>
   <si>
-    <t>45079900000010</t>
-  </si>
-  <si>
     <t>Recargas TD</t>
   </si>
   <si>
@@ -503,9 +500,6 @@
     <t>packOfCom</t>
   </si>
   <si>
-    <t>packTelefonico</t>
-  </si>
-  <si>
     <t>38452795</t>
   </si>
   <si>
@@ -542,9 +536,6 @@
     <t>5282055</t>
   </si>
   <si>
-    <t>Gestion Reintegro</t>
-  </si>
-  <si>
     <t>Gestion Trivias Y Suscripcion</t>
   </si>
   <si>
@@ -569,9 +560,6 @@
     <t>SaldoConsulta</t>
   </si>
   <si>
-    <t>1 - CFT %0.0</t>
-  </si>
-  <si>
     <t>Torrecaida@gmail.com</t>
   </si>
   <si>
@@ -644,9 +632,6 @@
     <t>Renovacion Cuota con Saldo Con TC</t>
   </si>
   <si>
-    <t>packTelefonicoInternacional30SMS</t>
-  </si>
-  <si>
     <t>Pack internacional 30 SMS al Resto del Mundo</t>
   </si>
   <si>
@@ -818,20 +803,125 @@
     <t>Servicio  Tecnico Configuracion</t>
   </si>
   <si>
-    <t>545229703256200</t>
-  </si>
-  <si>
-    <t>Reparacion</t>
-  </si>
-  <si>
-    <t>Configuración</t>
+    <t>SimCard Siniestro OfCom</t>
+  </si>
+  <si>
+    <t>33332010</t>
+  </si>
+  <si>
+    <t>SimCard Siniestro Agente</t>
+  </si>
+  <si>
+    <t>PUNTA ALTA</t>
+  </si>
+  <si>
+    <t>VJP Punta Alta - Bernardo De Irigoyen 390</t>
+  </si>
+  <si>
+    <t>BANCO DE LA NACION ARGENTINA</t>
+  </si>
+  <si>
+    <t>MASTERCARD</t>
+  </si>
+  <si>
+    <t>MASTERCARD/ARGENCARD S.A. - Cuotas: 1.. 1 Recargo: 0,00%</t>
+  </si>
+  <si>
+    <t>5399099990081010</t>
+  </si>
+  <si>
+    <t>Alantartida Suspende</t>
+  </si>
+  <si>
+    <t>Productos y Servicios</t>
+  </si>
+  <si>
+    <t>26777899</t>
+  </si>
+  <si>
+    <t>Modificacion De DNI</t>
+  </si>
+  <si>
+    <t>22222014</t>
+  </si>
+  <si>
+    <t>2944674965</t>
+  </si>
+  <si>
+    <t>GestionReintegro</t>
+  </si>
+  <si>
+    <t>Gestion Diagnostico</t>
+  </si>
+  <si>
+    <t>DiagnInconveniente</t>
+  </si>
+  <si>
+    <t>Otro Apellido</t>
+  </si>
+  <si>
+    <t>RecargaHistoria</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>19784521</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Venta de pack saldo</t>
+  </si>
+  <si>
+    <t>packDe1DiaPersonal</t>
+  </si>
+  <si>
+    <t>Pack 50min Tel</t>
+  </si>
+  <si>
+    <t>packTelefoInternacional30SMS</t>
+  </si>
+  <si>
+    <t>packUruguay</t>
+  </si>
+  <si>
+    <t>Pack 50min Oficina</t>
+  </si>
+  <si>
+    <t>PackAdela40</t>
+  </si>
+  <si>
+    <t>Pack M2M 10</t>
+  </si>
+  <si>
+    <t>Pack500min</t>
+  </si>
+  <si>
+    <t>Pack 1 dia de SMS y Minutos a Personal Ilimitados</t>
+  </si>
+  <si>
+    <t>33332002</t>
+  </si>
+  <si>
+    <t>Pack 100MB Uruguay</t>
+  </si>
+  <si>
+    <t>Pack Adelanto Personal 40</t>
+  </si>
+  <si>
+    <t>Pack Paquete M2M 10 MB</t>
+  </si>
+  <si>
+    <t>Pack 5000 Min todo destino</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -945,8 +1035,19 @@
       <color rgb="FF000000"/>
       <name val="Quattrocento Sans"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -977,8 +1078,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1056,6 +1163,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1063,7 +1211,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1172,20 +1320,10 @@
     <xf numFmtId="49" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1205,9 +1343,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1286,6 +1421,49 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1578,7 +1756,7 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -1600,7 +1778,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1630,46 +1808,46 @@
         <v>15</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="N1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="R1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Q1" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="W1" s="11" t="s">
-        <v>108</v>
-      </c>
       <c r="X1" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
@@ -1703,7 +1881,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>34</v>
@@ -1753,7 +1931,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>34</v>
@@ -1826,7 +2004,7 @@
         <v>50</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
         <v>54</v>
@@ -1868,13 +2046,13 @@
         <v>69</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q5" s="18" t="s">
         <v>42</v>
       </c>
       <c r="R5" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S5" s="31" t="s">
         <v>39</v>
@@ -1892,12 +2070,12 @@
         <v>65</v>
       </c>
       <c r="X5" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="45" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -1906,19 +2084,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1943,26 +2121,26 @@
       <c r="A7" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="79" t="s">
-        <v>179</v>
+      <c r="B7" s="74" t="s">
+        <v>176</v>
       </c>
       <c r="C7" s="39" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>42</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I7" s="30"/>
       <c r="J7" s="30"/>
@@ -1977,8 +2155,8 @@
       <c r="A8" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="79" t="s">
-        <v>213</v>
+      <c r="B8" s="74" t="s">
+        <v>208</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>2</v>
@@ -1997,7 +2175,7 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
@@ -2021,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>14</v>
@@ -2030,46 +2208,46 @@
         <v>15</v>
       </c>
       <c r="L9" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="O9" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="Q9" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="R9" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="S9" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="R9" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="S9" s="11" t="s">
+      <c r="T9" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="U9" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="V9" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="V9" s="11" t="s">
+      <c r="W9" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="W9" s="11" t="s">
+      <c r="X9" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="X9" s="11" t="s">
-        <v>108</v>
-      </c>
       <c r="Y9" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z9" s="4"/>
     </row>
@@ -2097,13 +2275,13 @@
         <v>2</v>
       </c>
       <c r="I10" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>34</v>
@@ -2137,67 +2315,67 @@
       <c r="G11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="70" t="s">
+      <c r="H11" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="70" t="s">
+      <c r="I11" s="65" t="s">
         <v>29</v>
       </c>
       <c r="J11" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K11" s="38" t="s">
         <v>13</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M11" s="38" t="s">
         <v>34</v>
       </c>
       <c r="N11" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O11" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="75" t="s">
+      <c r="P11" s="70" t="s">
         <v>81</v>
       </c>
       <c r="Q11" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="R11" s="75" t="s">
-        <v>86</v>
+      <c r="R11" s="70" t="s">
+        <v>85</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="T11" s="76" t="s">
-        <v>97</v>
-      </c>
-      <c r="U11" s="77" t="s">
+      <c r="T11" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="U11" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V11" s="77" t="s">
+      <c r="V11" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="W11" s="77" t="s">
+      <c r="W11" s="72" t="s">
         <v>41</v>
       </c>
       <c r="X11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="Y11" s="78" t="s">
+      <c r="Y11" s="73" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="39" customFormat="1">
       <c r="A12" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="50" t="s">
         <v>87</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>88</v>
       </c>
       <c r="D12" s="50" t="s">
         <v>66</v>
@@ -2206,22 +2384,22 @@
         <v>10</v>
       </c>
       <c r="F12" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="51" t="s">
         <v>89</v>
-      </c>
-      <c r="G12" s="51" t="s">
-        <v>90</v>
       </c>
       <c r="H12" s="49" t="s">
         <v>2</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L12" s="46"/>
       <c r="M12" s="49"/>
@@ -2259,13 +2437,13 @@
         <v>2</v>
       </c>
       <c r="I13" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>34</v>
@@ -2281,7 +2459,7 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -2290,22 +2468,22 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>15</v>
@@ -2331,14 +2509,14 @@
       <c r="A15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="79" t="s">
-        <v>213</v>
+      <c r="B15" s="74" t="s">
+        <v>208</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8"/>
@@ -2357,14 +2535,14 @@
       <c r="A16" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="79" t="s">
-        <v>213</v>
+      <c r="B16" s="74" t="s">
+        <v>208</v>
       </c>
       <c r="C16" s="39" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E16" s="53" t="s">
         <v>28</v>
@@ -2385,7 +2563,7 @@
     </row>
     <row r="17" spans="1:26" s="45" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
@@ -2406,7 +2584,7 @@
         <v>7</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>14</v>
@@ -2415,13 +2593,13 @@
         <v>15</v>
       </c>
       <c r="K17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="36"/>
@@ -2439,16 +2617,16 @@
     </row>
     <row r="18" spans="1:26" s="39" customFormat="1">
       <c r="A18" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" s="74" t="s">
-        <v>172</v>
+        <v>153</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>170</v>
       </c>
       <c r="C18" s="46" t="s">
         <v>76</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E18" s="50" t="s">
         <v>69</v>
@@ -2477,7 +2655,7 @@
     </row>
     <row r="19" spans="1:26" s="39" customFormat="1">
       <c r="A19" s="50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" s="46" t="s">
         <v>60</v>
@@ -2504,7 +2682,7 @@
         <v>13</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K19" s="46" t="s">
         <v>34</v>
@@ -2521,7 +2699,7 @@
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" thickBot="1">
       <c r="A20" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>16</v>
@@ -2551,13 +2729,13 @@
         <v>14</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="36"/>
@@ -2574,329 +2752,329 @@
       <c r="Z20" s="4"/>
     </row>
     <row r="21" spans="1:26" s="39" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="87" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="D21" s="87" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="H21" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="I21" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="87">
+        <v>1524</v>
+      </c>
+      <c r="M21" s="87">
+        <v>1524</v>
+      </c>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="87"/>
+      <c r="S21" s="87"/>
+      <c r="T21" s="87"/>
+      <c r="U21" s="87"/>
+      <c r="V21" s="87"/>
+      <c r="W21" s="87"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="87"/>
+    </row>
+    <row r="22" spans="1:26" ht="18" customHeight="1" thickBot="1">
+      <c r="A22" s="87" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22" s="87" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="H22" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="I22" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="K22" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="87">
+        <v>1524</v>
+      </c>
+      <c r="M22" s="87">
+        <v>1524</v>
+      </c>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="87"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="87"/>
+      <c r="U22" s="87"/>
+      <c r="V22" s="87"/>
+      <c r="W22" s="87"/>
+      <c r="X22" s="87"/>
+      <c r="Y22" s="87"/>
+      <c r="Z22" s="87"/>
+    </row>
+    <row r="23" spans="1:26" ht="13.8" thickBot="1">
+      <c r="A23" s="87" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="D23" s="87" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" s="87" t="s">
+        <v>230</v>
+      </c>
+      <c r="F23" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="H23" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="B21" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="D21" s="92" t="s">
-        <v>214</v>
-      </c>
-      <c r="E21" s="92" t="s">
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="87"/>
+      <c r="S23" s="87"/>
+      <c r="T23" s="87"/>
+      <c r="U23" s="87"/>
+      <c r="V23" s="87"/>
+      <c r="W23" s="87"/>
+      <c r="X23" s="87"/>
+      <c r="Y23" s="87"/>
+      <c r="Z23" s="87"/>
+    </row>
+    <row r="24" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A24" s="87" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="87" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="92" t="s">
+      <c r="F24" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="H21" s="94" t="s">
-        <v>183</v>
-      </c>
-      <c r="I21" s="92" t="s">
+      <c r="G24" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="H24" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="I24" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="92" t="s">
-        <v>171</v>
-      </c>
-      <c r="K21" s="92" t="s">
+      <c r="J24" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="L21" s="92">
+      <c r="L24" s="87">
         <v>1524</v>
       </c>
-      <c r="M21" s="92">
+      <c r="M24" s="87">
         <v>1524</v>
       </c>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="92"/>
-      <c r="Q21" s="92"/>
-      <c r="R21" s="92"/>
-      <c r="S21" s="92"/>
-      <c r="T21" s="92"/>
-      <c r="U21" s="92"/>
-      <c r="V21" s="92"/>
-      <c r="W21" s="92"/>
-      <c r="X21" s="92"/>
-      <c r="Y21" s="92"/>
-      <c r="Z21" s="92"/>
-    </row>
-    <row r="22" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A22" s="92" t="s">
-        <v>232</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="D22" s="92" t="s">
-        <v>214</v>
-      </c>
-      <c r="E22" s="92" t="s">
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="87"/>
+      <c r="S24" s="87"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="87"/>
+      <c r="V24" s="87"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="87"/>
+      <c r="Y24" s="87"/>
+      <c r="Z24" s="87"/>
+    </row>
+    <row r="25" spans="1:26" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A25" s="87" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D25" s="87" t="s">
+        <v>209</v>
+      </c>
+      <c r="E25" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="92" t="s">
+      <c r="F25" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="H22" s="94" t="s">
-        <v>183</v>
-      </c>
-      <c r="I22" s="92" t="s">
+      <c r="G25" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="H25" s="94" t="s">
+        <v>238</v>
+      </c>
+      <c r="I25" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="J25" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="92" t="s">
-        <v>171</v>
-      </c>
-      <c r="K22" s="92" t="s">
+      <c r="K25" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="L22" s="92">
+      <c r="M25" s="87">
         <v>1524</v>
       </c>
-      <c r="M22" s="92">
+      <c r="N25" s="87">
         <v>1524</v>
       </c>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="92"/>
-      <c r="R22" s="92"/>
-      <c r="S22" s="92"/>
-      <c r="T22" s="92"/>
-      <c r="U22" s="92"/>
-      <c r="V22" s="92"/>
-      <c r="W22" s="92"/>
-      <c r="X22" s="92"/>
-      <c r="Y22" s="92"/>
-      <c r="Z22" s="92"/>
-    </row>
-    <row r="23" spans="1:26" ht="13.8" thickBot="1">
-      <c r="A23" s="92" t="s">
-        <v>233</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="D23" s="92" t="s">
+      <c r="O25" s="87"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="87"/>
+      <c r="S25" s="87"/>
+      <c r="T25" s="87"/>
+      <c r="U25" s="87"/>
+      <c r="V25" s="87"/>
+      <c r="W25" s="87"/>
+      <c r="X25" s="87"/>
+      <c r="Y25" s="87"/>
+      <c r="Z25" s="87"/>
+    </row>
+    <row r="26" spans="1:26" ht="13.8" thickBot="1">
+      <c r="A26" s="87" t="s">
         <v>234</v>
       </c>
-      <c r="E23" s="92" t="s">
+      <c r="B26" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="D26" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="87"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="87"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="87"/>
+      <c r="W26" s="87"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="87"/>
+      <c r="Z26" s="87"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="91" t="s">
         <v>235</v>
       </c>
-      <c r="F23" s="92" t="s">
+      <c r="B27" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="F27" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="H23" s="95" t="s">
-        <v>236</v>
-      </c>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="92"/>
-      <c r="R23" s="92"/>
-      <c r="S23" s="92"/>
-      <c r="T23" s="92"/>
-      <c r="U23" s="92"/>
-      <c r="V23" s="92"/>
-      <c r="W23" s="92"/>
-      <c r="X23" s="92"/>
-      <c r="Y23" s="92"/>
-      <c r="Z23" s="92"/>
-    </row>
-    <row r="24" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="92" t="s">
-        <v>237</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="D24" s="92" t="s">
-        <v>214</v>
-      </c>
-      <c r="E24" s="92" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="H24" s="94" t="s">
-        <v>183</v>
-      </c>
-      <c r="I24" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="92" t="s">
-        <v>171</v>
-      </c>
-      <c r="K24" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="92">
-        <v>1524</v>
-      </c>
-      <c r="M24" s="92">
-        <v>1524</v>
-      </c>
-      <c r="N24" s="92"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="92"/>
-      <c r="Q24" s="92"/>
-      <c r="R24" s="92"/>
-      <c r="S24" s="92"/>
-      <c r="T24" s="92"/>
-      <c r="U24" s="92"/>
-      <c r="V24" s="92"/>
-      <c r="W24" s="92"/>
-      <c r="X24" s="92"/>
-      <c r="Y24" s="92"/>
-      <c r="Z24" s="92"/>
-    </row>
-    <row r="25" spans="1:26" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A25" s="92" t="s">
+      <c r="G27" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D25" s="92" t="s">
-        <v>214</v>
-      </c>
-      <c r="E25" s="92" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="H25" s="99" t="s">
-        <v>243</v>
-      </c>
-      <c r="I25" s="94" t="s">
-        <v>183</v>
-      </c>
-      <c r="J25" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" s="92" t="s">
-        <v>171</v>
-      </c>
-      <c r="L25" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="M25" s="92">
-        <v>1524</v>
-      </c>
-      <c r="N25" s="92">
-        <v>1524</v>
-      </c>
-      <c r="O25" s="92"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="92"/>
-      <c r="R25" s="92"/>
-      <c r="S25" s="92"/>
-      <c r="T25" s="92"/>
-      <c r="U25" s="92"/>
-      <c r="V25" s="92"/>
-      <c r="W25" s="92"/>
-      <c r="X25" s="92"/>
-      <c r="Y25" s="92"/>
-      <c r="Z25" s="92"/>
-    </row>
-    <row r="26" spans="1:26" ht="13.8" thickBot="1">
-      <c r="A26" s="92" t="s">
-        <v>239</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="D26" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="92"/>
-      <c r="Q26" s="92"/>
-      <c r="R26" s="92"/>
-      <c r="S26" s="92"/>
-      <c r="T26" s="92"/>
-      <c r="U26" s="92"/>
-      <c r="V26" s="92"/>
-      <c r="W26" s="92"/>
-      <c r="X26" s="92"/>
-      <c r="Y26" s="92"/>
-      <c r="Z26" s="92"/>
-    </row>
-    <row r="27" spans="1:26">
-      <c r="A27" s="96" t="s">
-        <v>240</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>242</v>
-      </c>
-      <c r="D27" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="E27" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="F27" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="H27" s="98" t="s">
-        <v>236</v>
+      <c r="H27" s="93" t="s">
+        <v>231</v>
       </c>
       <c r="I27" s="49"/>
       <c r="J27" s="49"/>
@@ -2918,17 +3096,17 @@
       <c r="Z27" s="39"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="96" t="s">
-        <v>244</v>
+      <c r="A28" s="91" t="s">
+        <v>239</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D28" s="49" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E28" s="49" t="s">
         <v>66</v>
@@ -2937,16 +3115,16 @@
         <v>10</v>
       </c>
       <c r="G28" s="49" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H28" s="51" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I28" s="49" t="s">
         <v>13</v>
       </c>
       <c r="J28" s="49" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K28" s="49" t="s">
         <v>34</v>
@@ -2973,20 +3151,20 @@
     </row>
     <row r="29" spans="1:26" ht="13.8" thickBot="1">
       <c r="B29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="13.8" thickBot="1">
-      <c r="G30" s="93"/>
+      <c r="G30" s="88"/>
     </row>
     <row r="31" spans="1:26" ht="13.8" thickBot="1">
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="E31" s="93"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="E31" s="88"/>
     </row>
     <row r="32" spans="1:26" ht="13.8" thickBot="1">
-      <c r="B32" s="92"/>
-      <c r="G32" s="93"/>
+      <c r="B32" s="87"/>
+      <c r="G32" s="88"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3014,10 +3192,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z50"/>
+  <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3037,24 +3215,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="85" t="s">
+      <c r="E1" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -3075,240 +3253,240 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="85">
+        <v>1161138551</v>
+      </c>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+    </row>
+    <row r="3" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85">
+        <v>1161138552</v>
+      </c>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+    </row>
+    <row r="4" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A4" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+    </row>
+    <row r="5" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A5" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="85"/>
+      <c r="E5" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+    </row>
+    <row r="6" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A6" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="83"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+    </row>
+    <row r="7" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A7" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+    </row>
+    <row r="8" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A8" s="85" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="83"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+    </row>
+    <row r="9" spans="1:26" s="65" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A9" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+    </row>
+    <row r="10" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A10" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+    </row>
+    <row r="11" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A11" s="83" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="84" t="s">
+        <v>216</v>
+      </c>
+      <c r="D11" s="83" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+    </row>
+    <row r="12" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A12" s="83" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+    </row>
+    <row r="13" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A13" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="89" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" s="90">
-        <v>1161138551</v>
-      </c>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-    </row>
-    <row r="3" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="89" t="s">
+      <c r="B13" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="84" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+    </row>
+    <row r="14" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A14" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="89" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90">
-        <v>1161138552</v>
-      </c>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-    </row>
-    <row r="4" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="88" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="89" t="s">
-        <v>213</v>
-      </c>
-      <c r="C4" s="89" t="s">
-        <v>215</v>
-      </c>
-      <c r="D4" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-    </row>
-    <row r="5" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="88" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="89" t="s">
-        <v>213</v>
-      </c>
-      <c r="C5" s="89" t="s">
-        <v>215</v>
-      </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="88" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-    </row>
-    <row r="6" spans="1:26" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="88" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="89" t="s">
-        <v>213</v>
-      </c>
-      <c r="C6" s="89" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6" s="88" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-    </row>
-    <row r="7" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="88" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="89" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" s="89" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" s="88" t="s">
+      <c r="B14" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-    </row>
-    <row r="8" spans="1:26" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A8" s="90" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="89" t="s">
-        <v>213</v>
-      </c>
-      <c r="C8" s="89" t="s">
-        <v>215</v>
-      </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-    </row>
-    <row r="9" spans="1:26" s="70" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A9" s="88" t="s">
-        <v>216</v>
-      </c>
-      <c r="B9" s="89" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" s="89" t="s">
-        <v>220</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-    </row>
-    <row r="10" spans="1:26" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A10" s="88" t="s">
-        <v>216</v>
-      </c>
-      <c r="B10" s="89" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="89" t="s">
-        <v>220</v>
-      </c>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88" t="s">
-        <v>223</v>
-      </c>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-    </row>
-    <row r="11" spans="1:26" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A11" s="88" t="s">
-        <v>217</v>
-      </c>
-      <c r="B11" s="89" t="s">
-        <v>219</v>
-      </c>
-      <c r="C11" s="89" t="s">
-        <v>221</v>
-      </c>
-      <c r="D11" s="88" t="s">
-        <v>224</v>
-      </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-    </row>
-    <row r="12" spans="1:26" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A12" s="88" t="s">
-        <v>217</v>
-      </c>
-      <c r="B12" s="89" t="s">
-        <v>219</v>
-      </c>
-      <c r="C12" s="89" t="s">
-        <v>221</v>
-      </c>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88" t="s">
-        <v>225</v>
-      </c>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-    </row>
-    <row r="13" spans="1:26" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A13" s="88" t="s">
-        <v>218</v>
-      </c>
-      <c r="B13" s="89" t="s">
-        <v>219</v>
-      </c>
-      <c r="C13" s="89" t="s">
-        <v>221</v>
-      </c>
-      <c r="D13" s="88" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-    </row>
-    <row r="14" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A14" s="88" t="s">
-        <v>218</v>
-      </c>
-      <c r="B14" s="89" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="89" t="s">
-        <v>221</v>
-      </c>
-      <c r="D14" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
     </row>
     <row r="15" spans="1:26" ht="12" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>0</v>
@@ -3340,7 +3518,7 @@
     </row>
     <row r="16" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>61</v>
@@ -3349,10 +3527,10 @@
         <v>13</v>
       </c>
       <c r="D16" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>145</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
@@ -3360,18 +3538,18 @@
         <v>49</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="12" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="11"/>
@@ -3402,10 +3580,10 @@
         <v>79</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="C19" s="81" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="C19" s="76" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
@@ -3413,25 +3591,25 @@
         <v>78</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="81" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="C20" s="76" t="s">
+        <v>210</v>
       </c>
       <c r="E20" s="23"/>
     </row>
     <row r="21" spans="1:26" ht="12" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="5"/>
@@ -3458,7 +3636,7 @@
     </row>
     <row r="22" spans="1:26" s="39" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B22" s="47" t="s">
         <v>61</v>
@@ -3494,15 +3672,15 @@
     </row>
     <row r="23" spans="1:26" s="39" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B23" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="60" t="s">
         <v>64</v>
       </c>
       <c r="E23" s="42"/>
@@ -3530,15 +3708,15 @@
     </row>
     <row r="24" spans="1:26" s="39" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="41" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B24" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="60" t="s">
         <v>64</v>
       </c>
       <c r="E24" s="42"/>
@@ -3569,22 +3747,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="C25" s="81" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="C25" s="76" t="s">
+        <v>210</v>
       </c>
       <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
@@ -3610,473 +3788,578 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" ht="12" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B28" s="3" t="s">
+    <row r="27" spans="1:26" s="109" customFormat="1" ht="12" customHeight="1">
+      <c r="A27" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="B27" s="74" t="s">
+        <v>273</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="D27" s="105"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="106"/>
+      <c r="N27" s="106"/>
+      <c r="O27" s="107"/>
+      <c r="P27" s="107"/>
+      <c r="Q27" s="107"/>
+      <c r="R27" s="107"/>
+      <c r="S27" s="107"/>
+      <c r="T27" s="107"/>
+      <c r="U27" s="107"/>
+      <c r="V27" s="107"/>
+      <c r="W27" s="107"/>
+      <c r="X27" s="107"/>
+      <c r="Y27" s="107"/>
+      <c r="Z27" s="107"/>
+    </row>
+    <row r="28" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="12" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-    </row>
-    <row r="29" spans="1:26" ht="15" customHeight="1">
-      <c r="A29" s="13" t="s">
+      <c r="C29" s="2"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+    </row>
+    <row r="30" spans="1:26" ht="15" customHeight="1">
+      <c r="A30" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="12" customHeight="1">
+      <c r="A31" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+    </row>
+    <row r="32" spans="1:26" ht="15" customHeight="1">
+      <c r="A32" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B32" s="40" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="12" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+    </row>
+    <row r="34" spans="1:26" ht="15" customHeight="1">
+      <c r="A34" s="13" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" ht="12" customHeight="1">
-      <c r="A30" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="B34" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" s="59" customFormat="1" ht="12" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-    </row>
-    <row r="31" spans="1:26" ht="15" customHeight="1">
-      <c r="A31" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" ht="12" customHeight="1">
-      <c r="A32" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="C35" s="2"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+    </row>
+    <row r="36" spans="1:26" ht="15" customHeight="1">
+      <c r="A36" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" s="59" customFormat="1" ht="12" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-    </row>
-    <row r="33" spans="1:26" ht="15" customHeight="1">
-      <c r="A33" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" s="63" customFormat="1" ht="12" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-    </row>
-    <row r="35" spans="1:26" ht="15" customHeight="1">
-      <c r="A35" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="B35" s="47" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" s="63" customFormat="1" ht="12" customHeight="1">
-      <c r="A36" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-    </row>
-    <row r="37" spans="1:26" ht="15" customHeight="1">
-      <c r="A37" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B37">
+      <c r="C37" s="2"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+    </row>
+    <row r="38" spans="1:26" s="50" customFormat="1" ht="12" customHeight="1">
+      <c r="A38" s="108" t="s">
+        <v>270</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C38" s="104"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="106"/>
+      <c r="L38" s="106"/>
+      <c r="M38" s="106"/>
+      <c r="N38" s="106"/>
+      <c r="O38" s="107"/>
+      <c r="P38" s="107"/>
+      <c r="Q38" s="107"/>
+      <c r="R38" s="107"/>
+      <c r="S38" s="107"/>
+      <c r="T38" s="107"/>
+      <c r="U38" s="107"/>
+      <c r="V38" s="107"/>
+      <c r="W38" s="107"/>
+      <c r="X38" s="107"/>
+      <c r="Y38" s="107"/>
+      <c r="Z38" s="107"/>
+    </row>
+    <row r="39" spans="1:26" s="50" customFormat="1" ht="12" customHeight="1">
+      <c r="A39" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C39" s="104"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="106"/>
+      <c r="I39" s="106"/>
+      <c r="J39" s="106"/>
+      <c r="K39" s="106"/>
+      <c r="L39" s="106"/>
+      <c r="M39" s="106"/>
+      <c r="N39" s="106"/>
+      <c r="O39" s="107"/>
+      <c r="P39" s="107"/>
+      <c r="Q39" s="107"/>
+      <c r="R39" s="107"/>
+      <c r="S39" s="107"/>
+      <c r="T39" s="107"/>
+      <c r="U39" s="107"/>
+      <c r="V39" s="107"/>
+      <c r="W39" s="107"/>
+      <c r="X39" s="107"/>
+      <c r="Y39" s="107"/>
+      <c r="Z39" s="107"/>
+    </row>
+    <row r="40" spans="1:26" ht="15" customHeight="1">
+      <c r="A40" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40">
         <v>30998801</v>
       </c>
     </row>
-    <row r="38" spans="1:26" s="63" customFormat="1" ht="12" customHeight="1">
-      <c r="A38" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
-    </row>
-    <row r="39" spans="1:26" ht="15" customHeight="1">
-      <c r="A39" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D39" t="s">
-        <v>198</v>
-      </c>
-      <c r="E39" t="s">
-        <v>199</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="H39" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" ht="15" customHeight="1">
-      <c r="A40" t="s">
-        <v>196</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="D40" t="s">
-        <v>203</v>
-      </c>
-      <c r="E40" t="s">
-        <v>203</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="G40" t="s">
-        <v>203</v>
-      </c>
-      <c r="H40" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" ht="15" customHeight="1">
+    <row r="41" spans="1:26" s="59" customFormat="1" ht="12" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="80"/>
+      <c r="C41" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
     </row>
     <row r="42" spans="1:26" ht="15" customHeight="1">
-      <c r="A42" s="63" t="s">
-        <v>210</v>
+      <c r="A42" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="63"/>
+        <v>181</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" t="s">
+        <v>194</v>
+      </c>
+      <c r="E42" t="s">
+        <v>195</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H42" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="43" spans="1:26" ht="15" customHeight="1">
-      <c r="A43" s="63" t="s">
-        <v>211</v>
+      <c r="A43" t="s">
+        <v>192</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="63" t="s">
-        <v>212</v>
+        <v>193</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D43" t="s">
+        <v>199</v>
+      </c>
+      <c r="E43" t="s">
+        <v>199</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G43" t="s">
+        <v>199</v>
+      </c>
+      <c r="H43" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="15" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F44" s="85" t="s">
-        <v>261</v>
-      </c>
-      <c r="G44" s="85" t="s">
-        <v>262</v>
-      </c>
-      <c r="H44" s="100"/>
-    </row>
-    <row r="45" spans="1:26" s="39" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="9" t="s">
-        <v>263</v>
+      <c r="C44" s="75"/>
+    </row>
+    <row r="45" spans="1:26" ht="15" customHeight="1">
+      <c r="A45" s="59" t="s">
+        <v>205</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="H45" s="9"/>
+      <c r="C45" s="59"/>
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>264</v>
+      <c r="A46" s="59" t="s">
+        <v>206</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>267</v>
+      <c r="C46" s="59" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="15" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" ht="15" customHeight="1">
-      <c r="A48" t="s">
-        <v>252</v>
+      <c r="C47" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F47" s="80" t="s">
+        <v>256</v>
+      </c>
+      <c r="G47" s="80" t="s">
+        <v>257</v>
+      </c>
+      <c r="H47" s="95"/>
+    </row>
+    <row r="48" spans="1:26" s="39" customFormat="1" ht="15" customHeight="1">
+      <c r="A48" s="9" t="s">
+        <v>258</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1">
-      <c r="A49" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+    </row>
+    <row r="49" spans="1:7" ht="15" customHeight="1">
+      <c r="A49" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:7" ht="15" customHeight="1">
+      <c r="A50" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1">
-      <c r="A50" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="C50" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" customHeight="1">
+      <c r="A51" t="s">
+        <v>247</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" customHeight="1">
+      <c r="A52" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="50" customFormat="1" ht="15" customHeight="1">
+      <c r="A53" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>250</v>
+      <c r="C53" s="104"/>
+    </row>
+    <row r="54" spans="1:7" ht="15" customHeight="1">
+      <c r="A54" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15" customHeight="1">
+      <c r="A55" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15" customHeight="1">
+      <c r="A56" s="108" t="s">
+        <v>277</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D45" r:id="rId1"/>
-    <hyperlink ref="D46" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -4092,49 +4375,49 @@
   <sheetData>
     <row r="1" spans="1:27" s="45" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>98</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>99</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>102</v>
-      </c>
       <c r="O1" s="11" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
@@ -4151,63 +4434,59 @@
     </row>
     <row r="2" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>213</v>
+        <v>91</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>208</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="31">
-        <v>19784521</v>
+      <c r="D2" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="G2" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="K2" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="60" t="s">
+        <v>280</v>
       </c>
       <c r="M2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>182</v>
-      </c>
+      <c r="N2" s="29"/>
+      <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="68" t="s">
-        <v>213</v>
+      <c r="B3" s="64" t="s">
+        <v>208</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="60" t="s">
-        <v>184</v>
+      <c r="D3" s="57" t="s">
+        <v>180</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
@@ -4218,25 +4497,25 @@
     </row>
     <row r="4" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="68" t="s">
-        <v>213</v>
+        <v>82</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>208</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="60" t="s">
-        <v>184</v>
+      <c r="D4" s="57" t="s">
+        <v>180</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4" s="30">
         <v>1</v>
@@ -4254,12 +4533,12 @@
         <v>19784521</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
@@ -4275,11 +4554,11 @@
       <c r="A6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="68" t="s">
-        <v>213</v>
+      <c r="B6" s="64" t="s">
+        <v>208</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="19"/>
@@ -4288,18 +4567,18 @@
       <c r="A7" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>226</v>
+      <c r="B7" s="64" t="s">
+        <v>221</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:27" ht="12" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
@@ -4308,40 +4587,40 @@
         <v>16</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="M8" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="N8" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="N8" s="11" t="s">
-        <v>108</v>
-      </c>
       <c r="O8" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -4356,529 +4635,790 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
     </row>
-    <row r="9" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A9" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+    </row>
+    <row r="10" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A10" s="87" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="110" t="s">
+        <v>292</v>
+      </c>
+      <c r="E10" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="J10" s="111">
+        <v>6</v>
+      </c>
+      <c r="K10" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="M10" s="112" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="O10" s="113" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A11" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="G11" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="H11" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="J11" s="111">
+        <v>6</v>
+      </c>
+      <c r="K11" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="M11" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="O11" s="113" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A12" s="62" t="s">
+        <v>286</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="G12" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="H12" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="J12" s="111">
+        <v>6</v>
+      </c>
+      <c r="K12" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="M12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="O12" s="113" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="62" t="s">
+        <v>287</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="H13" s="60"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
+    </row>
+    <row r="14" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="G14" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="H14" s="60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="B9" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="71" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" s="20" customFormat="1" ht="15.6" thickBot="1">
-      <c r="A10" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="E10" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="17"/>
-    </row>
-    <row r="11" spans="1:27" s="65" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>226</v>
-      </c>
-      <c r="C11" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="D11" s="65" t="s">
+      <c r="B15" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="E11" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="I11" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="O11" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="P11" s="60"/>
-    </row>
-    <row r="12" spans="1:27" ht="15">
-      <c r="A12" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="B12" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" s="65" t="s">
+      <c r="C15" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="G15" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="H15" s="60"/>
+      <c r="M15" s="23"/>
+    </row>
+    <row r="16" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="I12" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="J12" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="O12" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="63"/>
-      <c r="W12" s="63"/>
-      <c r="X12" s="63"/>
-      <c r="Y12" s="63"/>
-      <c r="Z12" s="63"/>
-      <c r="AA12" s="63"/>
-    </row>
-    <row r="13" spans="1:27" ht="12" customHeight="1">
-      <c r="A13" s="7" t="s">
+      <c r="E16" s="23"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="60"/>
+    </row>
+    <row r="17" spans="1:27" s="20" customFormat="1" ht="15.6" thickBot="1">
+      <c r="A17" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="17"/>
+    </row>
+    <row r="18" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A18" s="62" t="s">
+        <v>290</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" s="86" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="G18" s="58"/>
+      <c r="H18" s="60"/>
+      <c r="P18" s="57"/>
+    </row>
+    <row r="19" spans="1:27" ht="15">
+      <c r="A19" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="59"/>
+      <c r="AA19" s="59"/>
+    </row>
+    <row r="20" spans="1:27" ht="12" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="H20" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13" s="11" t="s">
+      <c r="I20" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="J20" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K20" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="L20" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="M20" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="M13" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="O13" s="11"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-    </row>
-    <row r="14" spans="1:27" s="30" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A14" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="C14" s="68" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="33"/>
-    </row>
-    <row r="15" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="C15" s="68" t="s">
-        <v>184</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="33"/>
-    </row>
-    <row r="16" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="67" t="s">
+      <c r="N20" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O20" s="11"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+    </row>
+    <row r="21" spans="1:27" s="30" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A21" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="C16" s="68" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="H16" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="J16" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="K16" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="L16" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="M16" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="N16" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="O16" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="P16" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q16" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="R16" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="70"/>
-      <c r="Z16" s="70"/>
-      <c r="AA16" s="70"/>
-    </row>
-    <row r="17" spans="1:27" ht="12" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="O17" s="11"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-    </row>
-    <row r="18" spans="1:27" s="39" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="C18" s="68" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="52"/>
-    </row>
-    <row r="19" spans="1:27" s="39" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A19" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="C19" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="D19" s="52"/>
-    </row>
-    <row r="20" spans="1:27" s="39" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="68" t="s">
-        <v>184</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="H20" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="L20" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="N20" s="27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="15" customHeight="1">
-      <c r="A21" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="C21" s="68" t="s">
-        <v>184</v>
-      </c>
-      <c r="D21" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="H21" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="I21" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="L21" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="N21" s="27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="15" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="24"/>
+      <c r="B21" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="33"/>
+    </row>
+    <row r="22" spans="1:27" s="65" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A22" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="31"/>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-    </row>
-    <row r="24" spans="1:27" ht="15">
-      <c r="B24" s="27"/>
-      <c r="C24" s="68"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+    </row>
+    <row r="23" spans="1:27" s="65" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
+      <c r="A23" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="I23" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="J23" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="K23" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="M23" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="N23" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="60" t="s">
+        <v>281</v>
+      </c>
+      <c r="P23" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="R23" s="68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A24" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="96"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="100"/>
+      <c r="S24" s="101"/>
+    </row>
+    <row r="25" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A25" s="63" t="s">
+        <v>262</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="C25" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" s="96" t="s">
+        <v>173</v>
+      </c>
+      <c r="E25" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="96" t="s">
+        <v>263</v>
+      </c>
+      <c r="G25" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="H25" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="I25" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="J25" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="K25" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="M25" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="N25" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="O25" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="P25" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="87">
+        <v>33332010</v>
+      </c>
+      <c r="R25" s="102" t="s">
+        <v>269</v>
+      </c>
+      <c r="S25" s="103"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="65"/>
+    </row>
+    <row r="26" spans="1:27" ht="12" customHeight="1">
+      <c r="A26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O26" s="11"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+    </row>
+    <row r="27" spans="1:27" s="39" customFormat="1" ht="15" customHeight="1">
+      <c r="A27" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="52"/>
+    </row>
+    <row r="28" spans="1:27" s="39" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A28" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="52"/>
+    </row>
+    <row r="29" spans="1:27" s="39" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="E29" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="F29" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="G29" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="I29" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="J29" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="L29" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="N29" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="15" customHeight="1">
+      <c r="A30" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="E30" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="F30" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="G30" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="I30" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="J30" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="K30" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="L30" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="N30" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="15" customHeight="1">
+      <c r="A31" s="13"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+    </row>
+    <row r="33" spans="2:3" ht="15">
+      <c r="B33" s="27"/>
+      <c r="C33" s="64"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="R25:S25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
